--- a/artfynd/A 37096-2023.xlsx
+++ b/artfynd/A 37096-2023.xlsx
@@ -918,10 +918,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111269202</v>
+        <v>111269234</v>
       </c>
       <c r="B4" t="n">
-        <v>96370</v>
+        <v>95674</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -934,21 +934,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>219847</v>
+        <v>222741</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -958,10 +958,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>478081.9472242921</v>
+        <v>478071.6873361801</v>
       </c>
       <c r="R4" t="n">
-        <v>7035150.71182138</v>
+        <v>7035157.494765156</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1150,10 +1150,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111269191</v>
+        <v>111269165</v>
       </c>
       <c r="B6" t="n">
-        <v>96346</v>
+        <v>78512</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1162,25 +1162,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>620</v>
+        <v>6456</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1190,10 +1190,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>478210.2883717707</v>
+        <v>478270.3113397134</v>
       </c>
       <c r="R6" t="n">
-        <v>7034717.516716138</v>
+        <v>7034317.408862996</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1236,6 +1236,11 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>På asp</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1266,10 +1271,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111269176</v>
+        <v>111269192</v>
       </c>
       <c r="B7" t="n">
-        <v>96266</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1278,25 +1283,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>223591</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1306,10 +1311,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>478063.6218221696</v>
+        <v>478194.9743682594</v>
       </c>
       <c r="R7" t="n">
-        <v>7035157.550131672</v>
+        <v>7034903.354684182</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1382,10 +1387,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111269189</v>
+        <v>111269205</v>
       </c>
       <c r="B8" t="n">
-        <v>89462</v>
+        <v>90666</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1394,25 +1399,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3277</v>
+        <v>4364</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Luddfingersvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alloclavaria purpurea</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(O.F.Müll.:Fr.) Dentinger &amp; D.J.McLaughlin</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1422,10 +1427,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>478209.3707174375</v>
+        <v>478198.2776928633</v>
       </c>
       <c r="R8" t="n">
-        <v>7034714.390026989</v>
+        <v>7034796.368860513</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1730,10 +1735,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111269234</v>
+        <v>111269176</v>
       </c>
       <c r="B11" t="n">
-        <v>95674</v>
+        <v>96266</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1746,21 +1751,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>222741</v>
+        <v>223591</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1770,10 +1775,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>478071.6873361801</v>
+        <v>478063.6218221696</v>
       </c>
       <c r="R11" t="n">
-        <v>7035157.494765156</v>
+        <v>7035157.550131672</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1962,10 +1967,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111269192</v>
+        <v>111269191</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>96346</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1974,25 +1979,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>620</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2002,10 +2007,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>478194.9743682594</v>
+        <v>478210.2883717707</v>
       </c>
       <c r="R13" t="n">
-        <v>7034903.354684182</v>
+        <v>7034717.516716138</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2194,10 +2199,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111269165</v>
+        <v>111269189</v>
       </c>
       <c r="B15" t="n">
-        <v>78512</v>
+        <v>89462</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2206,25 +2211,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6456</v>
+        <v>3277</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Luddfingersvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Alloclavaria purpurea</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(O.F.Müll.:Fr.) Dentinger &amp; D.J.McLaughlin</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2234,10 +2239,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>478270.3113397134</v>
+        <v>478209.3707174375</v>
       </c>
       <c r="R15" t="n">
-        <v>7034317.408862996</v>
+        <v>7034714.390026989</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2280,11 +2285,6 @@
       <c r="AB15" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>På asp</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2315,10 +2315,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111269205</v>
+        <v>111269202</v>
       </c>
       <c r="B16" t="n">
-        <v>90666</v>
+        <v>96370</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2331,21 +2331,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4364</v>
+        <v>219847</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2355,10 +2355,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>478198.2776928633</v>
+        <v>478081.9472242921</v>
       </c>
       <c r="R16" t="n">
-        <v>7034796.368860513</v>
+        <v>7035150.71182138</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2431,10 +2431,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111769169</v>
+        <v>111769066</v>
       </c>
       <c r="B17" t="n">
-        <v>88956</v>
+        <v>96253</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2443,30 +2443,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5747</v>
+        <v>504</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2474,10 +2475,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>477542.7220056681</v>
+        <v>477894.260786515</v>
       </c>
       <c r="R17" t="n">
-        <v>7033725.70523841</v>
+        <v>7034318.644870933</v>
       </c>
       <c r="S17" t="n">
         <v>50</v>
@@ -2547,7 +2548,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111769149</v>
+        <v>111769028</v>
       </c>
       <c r="B18" t="n">
         <v>82949</v>
@@ -2586,14 +2587,14 @@
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>477459.6755572999</v>
+        <v>477173.4934072607</v>
       </c>
       <c r="R18" t="n">
-        <v>7033837.318297116</v>
+        <v>7033624.899085587</v>
       </c>
       <c r="S18" t="n">
         <v>50</v>
@@ -2663,7 +2664,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111759273</v>
+        <v>111769105</v>
       </c>
       <c r="B19" t="n">
         <v>82949</v>
@@ -2697,20 +2698,22 @@
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Storbäcken (Storbäcken), Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>478158.3876210112</v>
+        <v>478264.7846321497</v>
       </c>
       <c r="R19" t="n">
-        <v>7034926.8764399</v>
+        <v>7034493.356013894</v>
       </c>
       <c r="S19" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2758,6 +2761,7 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2776,10 +2780,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111758748</v>
+        <v>111769051</v>
       </c>
       <c r="B20" t="n">
-        <v>88033</v>
+        <v>73688</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2792,38 +2796,40 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1599</v>
+        <v>492</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Fjällfotad musseron</t>
+          <t>Smalskaftslav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Tricholoma olivaceotinctum</t>
+          <t>Chaenotheca gracilenta</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
+          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Storbäcken (Storbäcken), Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>478042.3229088559</v>
+        <v>477242.2415391286</v>
       </c>
       <c r="R20" t="n">
-        <v>7035188.126460684</v>
+        <v>7033394.72120441</v>
       </c>
       <c r="S20" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2871,6 +2877,7 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2889,7 +2896,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111769034</v>
+        <v>111758961</v>
       </c>
       <c r="B21" t="n">
         <v>86223</v>
@@ -2923,22 +2930,20 @@
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Storbäcken (Storbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>477427.7828955905</v>
+        <v>478081.61875638</v>
       </c>
       <c r="R21" t="n">
-        <v>7033574.291879836</v>
+        <v>7035102.830858655</v>
       </c>
       <c r="S21" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2986,7 +2991,6 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3005,10 +3009,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111769042</v>
+        <v>111759273</v>
       </c>
       <c r="B22" t="n">
-        <v>96326</v>
+        <v>82949</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3017,45 +3021,42 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>219798</v>
+        <v>5589</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Storbäcken (Storbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>477548.844789583</v>
+        <v>478158.3876210112</v>
       </c>
       <c r="R22" t="n">
-        <v>7033895.337382489</v>
+        <v>7034926.8764399</v>
       </c>
       <c r="S22" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3103,7 +3104,6 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3122,10 +3122,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111769066</v>
+        <v>111769149</v>
       </c>
       <c r="B23" t="n">
-        <v>96253</v>
+        <v>82949</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3134,31 +3134,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>504</v>
+        <v>5589</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3166,10 +3165,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>477894.260786515</v>
+        <v>477459.6755572999</v>
       </c>
       <c r="R23" t="n">
-        <v>7034318.644870933</v>
+        <v>7033837.318297116</v>
       </c>
       <c r="S23" t="n">
         <v>50</v>
@@ -3239,10 +3238,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111758961</v>
+        <v>111758748</v>
       </c>
       <c r="B24" t="n">
-        <v>86223</v>
+        <v>88033</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3251,25 +3250,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4412</v>
+        <v>1599</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Fjällfotad musseron</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Tricholoma olivaceotinctum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3280,10 +3279,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>478081.61875638</v>
+        <v>478042.3229088559</v>
       </c>
       <c r="R24" t="n">
-        <v>7035102.830858655</v>
+        <v>7035188.126460684</v>
       </c>
       <c r="S24" t="n">
         <v>25</v>
@@ -3465,7 +3464,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111769105</v>
+        <v>111769093</v>
       </c>
       <c r="B26" t="n">
         <v>82949</v>
@@ -3508,13 +3507,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>478264.7846321497</v>
+        <v>478247.7891202001</v>
       </c>
       <c r="R26" t="n">
-        <v>7034493.356013894</v>
+        <v>7034762.017267247</v>
       </c>
       <c r="S26" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3581,10 +3580,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111769051</v>
+        <v>111769042</v>
       </c>
       <c r="B27" t="n">
-        <v>73688</v>
+        <v>96326</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3593,41 +3592,42 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>492</v>
+        <v>219798</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Smalskaftslav</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Chaenotheca gracilenta</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>477242.2415391286</v>
+        <v>477548.844789583</v>
       </c>
       <c r="R27" t="n">
-        <v>7033394.72120441</v>
+        <v>7033895.337382489</v>
       </c>
       <c r="S27" t="n">
         <v>50</v>
@@ -3697,10 +3697,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111769093</v>
+        <v>111769034</v>
       </c>
       <c r="B28" t="n">
-        <v>82949</v>
+        <v>86223</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3713,21 +3713,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5589</v>
+        <v>4412</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3740,13 +3740,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>478247.7891202001</v>
+        <v>477427.7828955905</v>
       </c>
       <c r="R28" t="n">
-        <v>7034762.017267247</v>
+        <v>7033574.291879836</v>
       </c>
       <c r="S28" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3813,10 +3813,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111769028</v>
+        <v>111769169</v>
       </c>
       <c r="B29" t="n">
-        <v>82949</v>
+        <v>88956</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3825,25 +3825,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5589</v>
+        <v>5747</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3852,14 +3852,14 @@
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>477173.4934072607</v>
+        <v>477542.7220056681</v>
       </c>
       <c r="R29" t="n">
-        <v>7033624.899085587</v>
+        <v>7033725.70523841</v>
       </c>
       <c r="S29" t="n">
         <v>50</v>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111758792</v>
+        <v>111759173</v>
       </c>
       <c r="B31" t="n">
         <v>85341</v>
@@ -4088,10 +4088,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>478042.3229088559</v>
+        <v>478142.3901253083</v>
       </c>
       <c r="R31" t="n">
-        <v>7035188.126460684</v>
+        <v>7034946.677288129</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4134,11 +4134,6 @@
       <c r="AB31" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Ganska söt, päronaktig doft.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4166,7 +4161,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111759173</v>
+        <v>111758792</v>
       </c>
       <c r="B32" t="n">
         <v>85341</v>
@@ -4209,10 +4204,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>478142.3901253083</v>
+        <v>478042.3229088559</v>
       </c>
       <c r="R32" t="n">
-        <v>7034946.677288129</v>
+        <v>7035188.126460684</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4255,6 +4250,11 @@
       <c r="AB32" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Ganska söt, päronaktig doft.</t>
         </is>
       </c>
       <c r="AD32" t="b">

--- a/artfynd/A 37096-2023.xlsx
+++ b/artfynd/A 37096-2023.xlsx
@@ -918,10 +918,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111269234</v>
+        <v>111269164</v>
       </c>
       <c r="B4" t="n">
-        <v>95674</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,25 +930,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>222741</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -958,10 +958,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>478071.6873361801</v>
+        <v>478015.6983777927</v>
       </c>
       <c r="R4" t="n">
-        <v>7035157.494765156</v>
+        <v>7035161.012042711</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1034,10 +1034,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111269163</v>
+        <v>111269189</v>
       </c>
       <c r="B5" t="n">
-        <v>96350</v>
+        <v>89462</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1046,25 +1046,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>219811</v>
+        <v>3277</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Brudsporre</t>
+          <t>Luddfingersvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Gymnadenia conopsea</t>
+          <t>Alloclavaria purpurea</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(O.F.Müll.:Fr.) Dentinger &amp; D.J.McLaughlin</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1074,10 +1074,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>478260.776666069</v>
+        <v>478209.3707174375</v>
       </c>
       <c r="R5" t="n">
-        <v>7034365.368614159</v>
+        <v>7034714.390026989</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1271,10 +1271,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111269192</v>
+        <v>111269176</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>96266</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1283,25 +1283,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>223591</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1311,10 +1311,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>478194.9743682594</v>
+        <v>478063.6218221696</v>
       </c>
       <c r="R7" t="n">
-        <v>7034903.354684182</v>
+        <v>7035157.550131672</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1387,10 +1387,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111269205</v>
+        <v>111269206</v>
       </c>
       <c r="B8" t="n">
-        <v>90666</v>
+        <v>90332</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1403,21 +1403,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4364</v>
+        <v>4769</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1427,10 +1427,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>478198.2776928633</v>
+        <v>478036.7460045533</v>
       </c>
       <c r="R8" t="n">
-        <v>7034796.368860513</v>
+        <v>7035159.077277457</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111269185</v>
+        <v>111269202</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>96370</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1515,25 +1515,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>219847</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1543,10 +1543,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>478197.4188048252</v>
+        <v>478081.9472242921</v>
       </c>
       <c r="R9" t="n">
-        <v>7034867.534792114</v>
+        <v>7035150.71182138</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1619,10 +1619,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111269164</v>
+        <v>111269191</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>96346</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1631,25 +1631,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>620</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1659,10 +1659,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>478015.6983777927</v>
+        <v>478210.2883717707</v>
       </c>
       <c r="R10" t="n">
-        <v>7035161.012042711</v>
+        <v>7034717.516716138</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1735,10 +1735,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111269176</v>
+        <v>111269187</v>
       </c>
       <c r="B11" t="n">
-        <v>96266</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1747,25 +1747,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>223591</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1775,10 +1775,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>478063.6218221696</v>
+        <v>478188.801499185</v>
       </c>
       <c r="R11" t="n">
-        <v>7035157.550131672</v>
+        <v>7034918.165522982</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111269187</v>
+        <v>111269192</v>
       </c>
       <c r="B12" t="n">
         <v>96348</v>
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>478188.801499185</v>
+        <v>478194.9743682594</v>
       </c>
       <c r="R12" t="n">
-        <v>7034918.165522982</v>
+        <v>7034903.354684182</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1967,10 +1967,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111269191</v>
+        <v>111269163</v>
       </c>
       <c r="B13" t="n">
-        <v>96346</v>
+        <v>96350</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1979,25 +1979,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>620</v>
+        <v>219811</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Brudsporre</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Gymnadenia conopsea</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2007,10 +2007,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>478210.2883717707</v>
+        <v>478260.776666069</v>
       </c>
       <c r="R13" t="n">
-        <v>7034717.516716138</v>
+        <v>7034365.368614159</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2083,10 +2083,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111269206</v>
+        <v>111269234</v>
       </c>
       <c r="B14" t="n">
-        <v>90332</v>
+        <v>95674</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2099,21 +2099,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4769</v>
+        <v>222741</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2123,10 +2123,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>478036.7460045533</v>
+        <v>478071.6873361801</v>
       </c>
       <c r="R14" t="n">
-        <v>7035159.077277457</v>
+        <v>7035157.494765156</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2199,10 +2199,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111269189</v>
+        <v>111269185</v>
       </c>
       <c r="B15" t="n">
-        <v>89462</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2211,25 +2211,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3277</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Luddfingersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alloclavaria purpurea</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(O.F.Müll.:Fr.) Dentinger &amp; D.J.McLaughlin</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>478209.3707174375</v>
+        <v>478197.4188048252</v>
       </c>
       <c r="R15" t="n">
-        <v>7034714.390026989</v>
+        <v>7034867.534792114</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2315,10 +2315,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111269202</v>
+        <v>111269205</v>
       </c>
       <c r="B16" t="n">
-        <v>96370</v>
+        <v>90666</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2331,21 +2331,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>219847</v>
+        <v>4364</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2355,10 +2355,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>478081.9472242921</v>
+        <v>478198.2776928633</v>
       </c>
       <c r="R16" t="n">
-        <v>7035150.71182138</v>
+        <v>7034796.368860513</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2431,10 +2431,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111769066</v>
+        <v>111769149</v>
       </c>
       <c r="B17" t="n">
-        <v>96253</v>
+        <v>82949</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2443,31 +2443,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>504</v>
+        <v>5589</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2475,10 +2474,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>477894.260786515</v>
+        <v>477459.6755572999</v>
       </c>
       <c r="R17" t="n">
-        <v>7034318.644870933</v>
+        <v>7033837.318297116</v>
       </c>
       <c r="S17" t="n">
         <v>50</v>
@@ -2548,7 +2547,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111769028</v>
+        <v>111769093</v>
       </c>
       <c r="B18" t="n">
         <v>82949</v>
@@ -2591,13 +2590,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>477173.4934072607</v>
+        <v>478247.7891202001</v>
       </c>
       <c r="R18" t="n">
-        <v>7033624.899085587</v>
+        <v>7034762.017267247</v>
       </c>
       <c r="S18" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2664,10 +2663,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111769105</v>
+        <v>111769034</v>
       </c>
       <c r="B19" t="n">
-        <v>82949</v>
+        <v>86223</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2680,21 +2679,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5589</v>
+        <v>4412</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2707,10 +2706,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>478264.7846321497</v>
+        <v>477427.7828955905</v>
       </c>
       <c r="R19" t="n">
-        <v>7034493.356013894</v>
+        <v>7033574.291879836</v>
       </c>
       <c r="S19" t="n">
         <v>50</v>
@@ -2780,10 +2779,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111769051</v>
+        <v>111769066</v>
       </c>
       <c r="B20" t="n">
-        <v>73688</v>
+        <v>96253</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2792,41 +2791,42 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Smalskaftslav</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Chaenotheca gracilenta</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>477242.2415391286</v>
+        <v>477894.260786515</v>
       </c>
       <c r="R20" t="n">
-        <v>7033394.72120441</v>
+        <v>7034318.644870933</v>
       </c>
       <c r="S20" t="n">
         <v>50</v>
@@ -2896,10 +2896,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111758961</v>
+        <v>111759358</v>
       </c>
       <c r="B21" t="n">
-        <v>86223</v>
+        <v>88899</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2912,21 +2912,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4412</v>
+        <v>3286</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2937,10 +2937,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>478081.61875638</v>
+        <v>478195.3064424611</v>
       </c>
       <c r="R21" t="n">
-        <v>7035102.830858655</v>
+        <v>7034886.345942191</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3009,10 +3009,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111759273</v>
+        <v>111769169</v>
       </c>
       <c r="B22" t="n">
-        <v>82949</v>
+        <v>88956</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3021,42 +3021,44 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5589</v>
+        <v>5747</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Storbäcken (Storbäcken), Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>478158.3876210112</v>
+        <v>477542.7220056681</v>
       </c>
       <c r="R22" t="n">
-        <v>7034926.8764399</v>
+        <v>7033725.70523841</v>
       </c>
       <c r="S22" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3104,6 +3106,7 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3122,7 +3125,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111769149</v>
+        <v>111759273</v>
       </c>
       <c r="B23" t="n">
         <v>82949</v>
@@ -3156,22 +3159,20 @@
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Storbäcken (Storbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>477459.6755572999</v>
+        <v>478158.3876210112</v>
       </c>
       <c r="R23" t="n">
-        <v>7033837.318297116</v>
+        <v>7034926.8764399</v>
       </c>
       <c r="S23" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3219,7 +3220,6 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3351,10 +3351,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111759358</v>
+        <v>111758961</v>
       </c>
       <c r="B25" t="n">
-        <v>88899</v>
+        <v>86223</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3367,21 +3367,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3286</v>
+        <v>4412</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3392,10 +3392,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>478195.3064424611</v>
+        <v>478081.61875638</v>
       </c>
       <c r="R25" t="n">
-        <v>7034886.345942191</v>
+        <v>7035102.830858655</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3464,10 +3464,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111769093</v>
+        <v>111769042</v>
       </c>
       <c r="B26" t="n">
-        <v>82949</v>
+        <v>96326</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3476,44 +3476,45 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5589</v>
+        <v>219798</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>478247.7891202001</v>
+        <v>477548.844789583</v>
       </c>
       <c r="R26" t="n">
-        <v>7034762.017267247</v>
+        <v>7033895.337382489</v>
       </c>
       <c r="S26" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3580,10 +3581,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111769042</v>
+        <v>111769051</v>
       </c>
       <c r="B27" t="n">
-        <v>96326</v>
+        <v>73688</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3592,42 +3593,41 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>219798</v>
+        <v>492</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Smalskaftslav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Chaenotheca gracilenta</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>477548.844789583</v>
+        <v>477242.2415391286</v>
       </c>
       <c r="R27" t="n">
-        <v>7033895.337382489</v>
+        <v>7033394.72120441</v>
       </c>
       <c r="S27" t="n">
         <v>50</v>
@@ -3697,10 +3697,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111769034</v>
+        <v>111769028</v>
       </c>
       <c r="B28" t="n">
-        <v>86223</v>
+        <v>82949</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3713,21 +3713,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4412</v>
+        <v>5589</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3740,10 +3740,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>477427.7828955905</v>
+        <v>477173.4934072607</v>
       </c>
       <c r="R28" t="n">
-        <v>7033574.291879836</v>
+        <v>7033624.899085587</v>
       </c>
       <c r="S28" t="n">
         <v>50</v>
@@ -3813,10 +3813,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111769169</v>
+        <v>111769105</v>
       </c>
       <c r="B29" t="n">
-        <v>88956</v>
+        <v>82949</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3825,25 +3825,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5747</v>
+        <v>5589</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3852,14 +3852,14 @@
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>477542.7220056681</v>
+        <v>478264.7846321497</v>
       </c>
       <c r="R29" t="n">
-        <v>7033725.70523841</v>
+        <v>7034493.356013894</v>
       </c>
       <c r="S29" t="n">
         <v>50</v>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111759173</v>
+        <v>111758792</v>
       </c>
       <c r="B31" t="n">
         <v>85341</v>
@@ -4088,10 +4088,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>478142.3901253083</v>
+        <v>478042.3229088559</v>
       </c>
       <c r="R31" t="n">
-        <v>7034946.677288129</v>
+        <v>7035188.126460684</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4134,6 +4134,11 @@
       <c r="AB31" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Ganska söt, päronaktig doft.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4161,7 +4166,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111758792</v>
+        <v>111759173</v>
       </c>
       <c r="B32" t="n">
         <v>85341</v>
@@ -4204,10 +4209,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>478042.3229088559</v>
+        <v>478142.3901253083</v>
       </c>
       <c r="R32" t="n">
-        <v>7035188.126460684</v>
+        <v>7034946.677288129</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4250,11 +4255,6 @@
       <c r="AB32" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Ganska söt, päronaktig doft.</t>
         </is>
       </c>
       <c r="AD32" t="b">

--- a/artfynd/A 37096-2023.xlsx
+++ b/artfynd/A 37096-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY32"/>
+  <dimension ref="A1:AY104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -918,10 +918,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111269164</v>
+        <v>111269234</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>95674</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,25 +930,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>222741</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -958,10 +958,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>478015.6983777927</v>
+        <v>478071.6873361801</v>
       </c>
       <c r="R4" t="n">
-        <v>7035161.012042711</v>
+        <v>7035157.494765156</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1034,10 +1034,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111269189</v>
+        <v>111269185</v>
       </c>
       <c r="B5" t="n">
-        <v>89462</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1046,25 +1046,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3277</v>
+        <v>220787</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Luddfingersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Alloclavaria purpurea</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(O.F.Müll.:Fr.) Dentinger &amp; D.J.McLaughlin</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1074,10 +1074,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>478209.3707174375</v>
+        <v>478197.4188048252</v>
       </c>
       <c r="R5" t="n">
-        <v>7034714.390026989</v>
+        <v>7034867.534792114</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1150,10 +1150,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111269165</v>
+        <v>111269176</v>
       </c>
       <c r="B6" t="n">
-        <v>78512</v>
+        <v>96266</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1166,21 +1166,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6456</v>
+        <v>223591</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skinnlav</t>
+          <t>Skogsnycklar</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Leptogium saturninum</t>
+          <t>Dactylorhiza maculata subsp. fuchsii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Dicks.) Nyl.</t>
+          <t>(Druce) Hyl.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1190,10 +1190,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>478270.3113397134</v>
+        <v>478063.6218221696</v>
       </c>
       <c r="R6" t="n">
-        <v>7034317.408862996</v>
+        <v>7035157.550131672</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1236,11 +1236,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>På asp</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1271,10 +1266,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111269176</v>
+        <v>111269165</v>
       </c>
       <c r="B7" t="n">
-        <v>96266</v>
+        <v>78512</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1287,21 +1282,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>223591</v>
+        <v>6456</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Skogsnycklar</t>
+          <t>Skinnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata subsp. fuchsii</t>
+          <t>Leptogium saturninum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Druce) Hyl.</t>
+          <t>(Dicks.) Nyl.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1311,10 +1306,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>478063.6218221696</v>
+        <v>478270.3113397134</v>
       </c>
       <c r="R7" t="n">
-        <v>7035157.550131672</v>
+        <v>7034317.408862996</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1357,6 +1352,11 @@
       <c r="AB7" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>På asp</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1387,10 +1387,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111269206</v>
+        <v>111269189</v>
       </c>
       <c r="B8" t="n">
-        <v>90332</v>
+        <v>89462</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1399,25 +1399,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4769</v>
+        <v>3277</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Luddfingersvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Alloclavaria purpurea</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(O.F.Müll.:Fr.) Dentinger &amp; D.J.McLaughlin</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1427,10 +1427,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>478036.7460045533</v>
+        <v>478209.3707174375</v>
       </c>
       <c r="R8" t="n">
-        <v>7035159.077277457</v>
+        <v>7034714.390026989</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1503,10 +1503,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111269202</v>
+        <v>111269164</v>
       </c>
       <c r="B9" t="n">
-        <v>96370</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1515,25 +1515,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>219847</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tvåblad</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Neottia ovata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Buff. &amp; Fingerh.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1543,10 +1543,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>478081.9472242921</v>
+        <v>478015.6983777927</v>
       </c>
       <c r="R9" t="n">
-        <v>7035150.71182138</v>
+        <v>7035161.012042711</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1619,10 +1619,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111269191</v>
+        <v>111269163</v>
       </c>
       <c r="B10" t="n">
-        <v>96346</v>
+        <v>96350</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1631,25 +1631,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>620</v>
+        <v>219811</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Brudsporre</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Gymnadenia conopsea</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1659,10 +1659,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>478210.2883717707</v>
+        <v>478260.776666069</v>
       </c>
       <c r="R10" t="n">
-        <v>7034717.516716138</v>
+        <v>7034365.368614159</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1735,10 +1735,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111269187</v>
+        <v>111269202</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>96370</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1747,25 +1747,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>219847</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tvåblad</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Neottia ovata</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Buff. &amp; Fingerh.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1775,10 +1775,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>478188.801499185</v>
+        <v>478081.9472242921</v>
       </c>
       <c r="R11" t="n">
-        <v>7034918.165522982</v>
+        <v>7035150.71182138</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1851,10 +1851,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111269192</v>
+        <v>111269191</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>96346</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1863,25 +1863,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>620</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1891,10 +1891,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>478194.9743682594</v>
+        <v>478210.2883717707</v>
       </c>
       <c r="R12" t="n">
-        <v>7034903.354684182</v>
+        <v>7034717.516716138</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1967,10 +1967,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111269163</v>
+        <v>111269192</v>
       </c>
       <c r="B13" t="n">
-        <v>96350</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1979,20 +1979,20 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>219811</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Brudsporre</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Gymnadenia conopsea</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2007,10 +2007,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>478260.776666069</v>
+        <v>478194.9743682594</v>
       </c>
       <c r="R13" t="n">
-        <v>7034365.368614159</v>
+        <v>7034903.354684182</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2083,10 +2083,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111269234</v>
+        <v>111269187</v>
       </c>
       <c r="B14" t="n">
-        <v>95674</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2095,25 +2095,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>222741</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2123,10 +2123,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>478071.6873361801</v>
+        <v>478188.801499185</v>
       </c>
       <c r="R14" t="n">
-        <v>7035157.494765156</v>
+        <v>7034918.165522982</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2199,10 +2199,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111269185</v>
+        <v>111269206</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>90332</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2211,25 +2211,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>4769</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>478197.4188048252</v>
+        <v>478036.7460045533</v>
       </c>
       <c r="R15" t="n">
-        <v>7034867.534792114</v>
+        <v>7035159.077277457</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2431,10 +2431,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111769149</v>
+        <v>111758961</v>
       </c>
       <c r="B17" t="n">
-        <v>82949</v>
+        <v>86223</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2447,40 +2447,38 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5589</v>
+        <v>4412</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Storbäcken (Storbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>477459.6755572999</v>
+        <v>478081.61875638</v>
       </c>
       <c r="R17" t="n">
-        <v>7033837.318297116</v>
+        <v>7035102.830858655</v>
       </c>
       <c r="S17" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2528,7 +2526,6 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2547,10 +2544,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111769093</v>
+        <v>111769042</v>
       </c>
       <c r="B18" t="n">
-        <v>82949</v>
+        <v>96326</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2559,44 +2556,45 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5589</v>
+        <v>219798</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>478247.7891202001</v>
+        <v>477548.844789583</v>
       </c>
       <c r="R18" t="n">
-        <v>7034762.017267247</v>
+        <v>7033895.337382489</v>
       </c>
       <c r="S18" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2663,10 +2661,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111769034</v>
+        <v>111769149</v>
       </c>
       <c r="B19" t="n">
-        <v>86223</v>
+        <v>82949</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2679,21 +2677,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4412</v>
+        <v>5589</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2702,14 +2700,14 @@
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>477427.7828955905</v>
+        <v>477459.6755572999</v>
       </c>
       <c r="R19" t="n">
-        <v>7033574.291879836</v>
+        <v>7033837.318297116</v>
       </c>
       <c r="S19" t="n">
         <v>50</v>
@@ -2779,10 +2777,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111769066</v>
+        <v>111769093</v>
       </c>
       <c r="B20" t="n">
-        <v>96253</v>
+        <v>82949</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2791,45 +2789,44 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>504</v>
+        <v>5589</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>477894.260786515</v>
+        <v>478247.7891202001</v>
       </c>
       <c r="R20" t="n">
-        <v>7034318.644870933</v>
+        <v>7034762.017267247</v>
       </c>
       <c r="S20" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2896,10 +2893,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111759358</v>
+        <v>111769028</v>
       </c>
       <c r="B21" t="n">
-        <v>88899</v>
+        <v>82949</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2912,38 +2909,40 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3286</v>
+        <v>5589</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Storbäcken (Storbäcken), Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>478195.3064424611</v>
+        <v>477173.4934072607</v>
       </c>
       <c r="R21" t="n">
-        <v>7034886.345942191</v>
+        <v>7033624.899085587</v>
       </c>
       <c r="S21" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2991,6 +2990,7 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3009,10 +3009,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111769169</v>
+        <v>111769034</v>
       </c>
       <c r="B22" t="n">
-        <v>88956</v>
+        <v>86223</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3021,25 +3021,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5747</v>
+        <v>4412</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3048,14 +3048,14 @@
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>477542.7220056681</v>
+        <v>477427.7828955905</v>
       </c>
       <c r="R22" t="n">
-        <v>7033725.70523841</v>
+        <v>7033574.291879836</v>
       </c>
       <c r="S22" t="n">
         <v>50</v>
@@ -3238,10 +3238,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111758748</v>
+        <v>111769051</v>
       </c>
       <c r="B24" t="n">
-        <v>88033</v>
+        <v>73688</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3254,38 +3254,40 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1599</v>
+        <v>492</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Fjällfotad musseron</t>
+          <t>Smalskaftslav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Tricholoma olivaceotinctum</t>
+          <t>Chaenotheca gracilenta</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
+          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Storbäcken (Storbäcken), Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>478042.3229088559</v>
+        <v>477242.2415391286</v>
       </c>
       <c r="R24" t="n">
-        <v>7035188.126460684</v>
+        <v>7033394.72120441</v>
       </c>
       <c r="S24" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3333,6 +3335,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3351,10 +3354,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111758961</v>
+        <v>111758748</v>
       </c>
       <c r="B25" t="n">
-        <v>86223</v>
+        <v>88033</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3363,25 +3366,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4412</v>
+        <v>1599</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Fjällfotad musseron</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Tricholoma olivaceotinctum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3392,10 +3395,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>478081.61875638</v>
+        <v>478042.3229088559</v>
       </c>
       <c r="R25" t="n">
-        <v>7035102.830858655</v>
+        <v>7035188.126460684</v>
       </c>
       <c r="S25" t="n">
         <v>25</v>
@@ -3464,10 +3467,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111769042</v>
+        <v>111769169</v>
       </c>
       <c r="B26" t="n">
-        <v>96326</v>
+        <v>88956</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3476,31 +3479,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>219798</v>
+        <v>5747</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3508,10 +3510,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>477548.844789583</v>
+        <v>477542.7220056681</v>
       </c>
       <c r="R26" t="n">
-        <v>7033895.337382489</v>
+        <v>7033725.70523841</v>
       </c>
       <c r="S26" t="n">
         <v>50</v>
@@ -3581,10 +3583,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111769051</v>
+        <v>111769066</v>
       </c>
       <c r="B27" t="n">
-        <v>73688</v>
+        <v>96253</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3593,41 +3595,42 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Smalskaftslav</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Chaenotheca gracilenta</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>477242.2415391286</v>
+        <v>477894.260786515</v>
       </c>
       <c r="R27" t="n">
-        <v>7033394.72120441</v>
+        <v>7034318.644870933</v>
       </c>
       <c r="S27" t="n">
         <v>50</v>
@@ -3697,7 +3700,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111769028</v>
+        <v>111769105</v>
       </c>
       <c r="B28" t="n">
         <v>82949</v>
@@ -3740,10 +3743,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>477173.4934072607</v>
+        <v>478264.7846321497</v>
       </c>
       <c r="R28" t="n">
-        <v>7033624.899085587</v>
+        <v>7034493.356013894</v>
       </c>
       <c r="S28" t="n">
         <v>50</v>
@@ -3813,10 +3816,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111769105</v>
+        <v>111759358</v>
       </c>
       <c r="B29" t="n">
-        <v>82949</v>
+        <v>88899</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3829,40 +3832,38 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5589</v>
+        <v>3286</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Storbäcken (Storbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>478264.7846321497</v>
+        <v>478195.3064424611</v>
       </c>
       <c r="R29" t="n">
-        <v>7034493.356013894</v>
+        <v>7034886.345942191</v>
       </c>
       <c r="S29" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3910,7 +3911,6 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4280,6 +4280,8497 @@
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>111901567</v>
+      </c>
+      <c r="B33" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>477452.815646043</v>
+      </c>
+      <c r="R33" t="n">
+        <v>7033754.54329758</v>
+      </c>
+      <c r="S33" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>111901557</v>
+      </c>
+      <c r="B34" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>477301.6306204998</v>
+      </c>
+      <c r="R34" t="n">
+        <v>7033676.369342894</v>
+      </c>
+      <c r="S34" t="n">
+        <v>10</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>111901580</v>
+      </c>
+      <c r="B35" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>477852.1205313139</v>
+      </c>
+      <c r="R35" t="n">
+        <v>7034188.228905845</v>
+      </c>
+      <c r="S35" t="n">
+        <v>10</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>111901526</v>
+      </c>
+      <c r="B36" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>478353.0790921703</v>
+      </c>
+      <c r="R36" t="n">
+        <v>7034559.44764189</v>
+      </c>
+      <c r="S36" t="n">
+        <v>10</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>111901574</v>
+      </c>
+      <c r="B37" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>477521.0595750482</v>
+      </c>
+      <c r="R37" t="n">
+        <v>7034024.014202636</v>
+      </c>
+      <c r="S37" t="n">
+        <v>10</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>111901537</v>
+      </c>
+      <c r="B38" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>477585.6298561281</v>
+      </c>
+      <c r="R38" t="n">
+        <v>7033835.089579746</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>111901528</v>
+      </c>
+      <c r="B39" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>478333.5954659996</v>
+      </c>
+      <c r="R39" t="n">
+        <v>7034528.248548109</v>
+      </c>
+      <c r="S39" t="n">
+        <v>10</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>ringhack färska, 2 träd</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>111901529</v>
+      </c>
+      <c r="B40" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>478295.8274075754</v>
+      </c>
+      <c r="R40" t="n">
+        <v>7034510.601185531</v>
+      </c>
+      <c r="S40" t="n">
+        <v>10</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>111901620</v>
+      </c>
+      <c r="B41" t="n">
+        <v>85062</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>249278</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Barrviolspindling</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Cortinarius harcynicus</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>(Pers.) M.M.Moser</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>478428.8768750167</v>
+      </c>
+      <c r="R41" t="n">
+        <v>7034567.439219557</v>
+      </c>
+      <c r="S41" t="n">
+        <v>10</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>111901611</v>
+      </c>
+      <c r="B42" t="n">
+        <v>88899</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>3286</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Flattoppad klubbsvamp</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Clavariadelphus truncatus</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>478050.6335314792</v>
+      </c>
+      <c r="R42" t="n">
+        <v>7035158.534338644</v>
+      </c>
+      <c r="S42" t="n">
+        <v>10</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>111901568</v>
+      </c>
+      <c r="B43" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>477444.339370368</v>
+      </c>
+      <c r="R43" t="n">
+        <v>7033760.423184556</v>
+      </c>
+      <c r="S43" t="n">
+        <v>10</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>111901538</v>
+      </c>
+      <c r="B44" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>477551.196685652</v>
+      </c>
+      <c r="R44" t="n">
+        <v>7033783.398951175</v>
+      </c>
+      <c r="S44" t="n">
+        <v>10</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>111901577</v>
+      </c>
+      <c r="B45" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>477611.1407894194</v>
+      </c>
+      <c r="R45" t="n">
+        <v>7034021.143660905</v>
+      </c>
+      <c r="S45" t="n">
+        <v>10</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>111901535</v>
+      </c>
+      <c r="B46" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>478133.153488568</v>
+      </c>
+      <c r="R46" t="n">
+        <v>7034251.648335411</v>
+      </c>
+      <c r="S46" t="n">
+        <v>10</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>111901593</v>
+      </c>
+      <c r="B47" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>478138.936023809</v>
+      </c>
+      <c r="R47" t="n">
+        <v>7034834.816035185</v>
+      </c>
+      <c r="S47" t="n">
+        <v>10</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>111901533</v>
+      </c>
+      <c r="B48" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>478206.6279368462</v>
+      </c>
+      <c r="R48" t="n">
+        <v>7034443.621060859</v>
+      </c>
+      <c r="S48" t="n">
+        <v>10</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>111901536</v>
+      </c>
+      <c r="B49" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>478002.2311527666</v>
+      </c>
+      <c r="R49" t="n">
+        <v>7034180.925310614</v>
+      </c>
+      <c r="S49" t="n">
+        <v>10</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
+        </is>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>111901591</v>
+      </c>
+      <c r="B50" t="n">
+        <v>56414</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>477120.8792542543</v>
+      </c>
+      <c r="R50" t="n">
+        <v>7033665.121892933</v>
+      </c>
+      <c r="S50" t="n">
+        <v>10</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>hack</t>
+        </is>
+      </c>
+      <c r="AD50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>111901530</v>
+      </c>
+      <c r="B51" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>478301.071792486</v>
+      </c>
+      <c r="R51" t="n">
+        <v>7034490.871451757</v>
+      </c>
+      <c r="S51" t="n">
+        <v>10</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX51" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>111901599</v>
+      </c>
+      <c r="B52" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>478180.8349914302</v>
+      </c>
+      <c r="R52" t="n">
+        <v>7034276.389581721</v>
+      </c>
+      <c r="S52" t="n">
+        <v>10</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX52" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>111901604</v>
+      </c>
+      <c r="B53" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>477225.7321345775</v>
+      </c>
+      <c r="R53" t="n">
+        <v>7033657.657507668</v>
+      </c>
+      <c r="S53" t="n">
+        <v>10</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX53" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>111901552</v>
+      </c>
+      <c r="B54" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>477255.574404106</v>
+      </c>
+      <c r="R54" t="n">
+        <v>7033441.19203402</v>
+      </c>
+      <c r="S54" t="n">
+        <v>10</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
+        </is>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>111901561</v>
+      </c>
+      <c r="B55" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>477353.6324963307</v>
+      </c>
+      <c r="R55" t="n">
+        <v>7033676.000540117</v>
+      </c>
+      <c r="S55" t="n">
+        <v>10</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>111901602</v>
+      </c>
+      <c r="B56" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>477078.4058219322</v>
+      </c>
+      <c r="R56" t="n">
+        <v>7033618.863656485</v>
+      </c>
+      <c r="S56" t="n">
+        <v>10</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX56" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>111901563</v>
+      </c>
+      <c r="B57" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>477360.4012637081</v>
+      </c>
+      <c r="R57" t="n">
+        <v>7033682.220543981</v>
+      </c>
+      <c r="S57" t="n">
+        <v>10</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AW57" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX57" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>111901523</v>
+      </c>
+      <c r="B58" t="n">
+        <v>90087</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>3298</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Trådticka</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Climacocystis borealis</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>478095.1199801999</v>
+      </c>
+      <c r="R58" t="n">
+        <v>7035045.903991099</v>
+      </c>
+      <c r="S58" t="n">
+        <v>10</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT58" t="inlineStr"/>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX58" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>111901565</v>
+      </c>
+      <c r="B59" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>477372.8710303173</v>
+      </c>
+      <c r="R59" t="n">
+        <v>7033670.491777684</v>
+      </c>
+      <c r="S59" t="n">
+        <v>10</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT59" t="inlineStr"/>
+      <c r="AW59" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX59" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>111901594</v>
+      </c>
+      <c r="B60" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>478158.0786587475</v>
+      </c>
+      <c r="R60" t="n">
+        <v>7034881.677253954</v>
+      </c>
+      <c r="S60" t="n">
+        <v>10</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT60" t="inlineStr"/>
+      <c r="AW60" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX60" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>111901589</v>
+      </c>
+      <c r="B61" t="n">
+        <v>90092</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>67</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sprickporing</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Diplomitoporus crustulinus</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>(Bres.) Domański</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>477449.9680636173</v>
+      </c>
+      <c r="R61" t="n">
+        <v>7033732.178319109</v>
+      </c>
+      <c r="S61" t="n">
+        <v>10</v>
+      </c>
+      <c r="T61" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W61" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y61" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z61" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA61" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF61" t="inlineStr"/>
+      <c r="AG61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT61" t="inlineStr"/>
+      <c r="AW61" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX61" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>111901521</v>
+      </c>
+      <c r="B62" t="n">
+        <v>90087</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>3298</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Trådticka</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Climacocystis borealis</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>478416.8277586199</v>
+      </c>
+      <c r="R62" t="n">
+        <v>7034575.129493972</v>
+      </c>
+      <c r="S62" t="n">
+        <v>10</v>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W62" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y62" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z62" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA62" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT62" t="inlineStr"/>
+      <c r="AW62" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX62" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>111901612</v>
+      </c>
+      <c r="B63" t="n">
+        <v>95674</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>222741</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Finbräken</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Cystopteris montana</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>(Lam.) Desv.</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>478173.6911794385</v>
+      </c>
+      <c r="R63" t="n">
+        <v>7034280.466984005</v>
+      </c>
+      <c r="S63" t="n">
+        <v>10</v>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W63" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z63" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB63" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT63" t="inlineStr"/>
+      <c r="AW63" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX63" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>111901595</v>
+      </c>
+      <c r="B64" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>478119.5332644144</v>
+      </c>
+      <c r="R64" t="n">
+        <v>7034946.386193739</v>
+      </c>
+      <c r="S64" t="n">
+        <v>10</v>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W64" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y64" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z64" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA64" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG64" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT64" t="inlineStr"/>
+      <c r="AW64" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX64" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>111901527</v>
+      </c>
+      <c r="B65" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>478330.4582599134</v>
+      </c>
+      <c r="R65" t="n">
+        <v>7034528.269818945</v>
+      </c>
+      <c r="S65" t="n">
+        <v>10</v>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z65" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA65" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG65" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT65" t="inlineStr"/>
+      <c r="AW65" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX65" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>111901610</v>
+      </c>
+      <c r="B66" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>478113.3056525883</v>
+      </c>
+      <c r="R66" t="n">
+        <v>7034953.141815373</v>
+      </c>
+      <c r="S66" t="n">
+        <v>10</v>
+      </c>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W66" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z66" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG66" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT66" t="inlineStr"/>
+      <c r="AW66" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX66" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>111901607</v>
+      </c>
+      <c r="B67" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>478095.1015727581</v>
+      </c>
+      <c r="R67" t="n">
+        <v>7035043.219008418</v>
+      </c>
+      <c r="S67" t="n">
+        <v>10</v>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z67" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA67" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG67" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT67" t="inlineStr"/>
+      <c r="AW67" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX67" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>111901608</v>
+      </c>
+      <c r="B68" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>478032.3625065266</v>
+      </c>
+      <c r="R68" t="n">
+        <v>7035108.091747497</v>
+      </c>
+      <c r="S68" t="n">
+        <v>10</v>
+      </c>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z68" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB68" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG68" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT68" t="inlineStr"/>
+      <c r="AW68" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX68" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>111901555</v>
+      </c>
+      <c r="B69" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>477075.053782316</v>
+      </c>
+      <c r="R69" t="n">
+        <v>7033651.571049522</v>
+      </c>
+      <c r="S69" t="n">
+        <v>10</v>
+      </c>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y69" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z69" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA69" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC69" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG69" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT69" t="inlineStr"/>
+      <c r="AW69" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX69" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>111901564</v>
+      </c>
+      <c r="B70" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>477365.3609946552</v>
+      </c>
+      <c r="R70" t="n">
+        <v>7033686.214811271</v>
+      </c>
+      <c r="S70" t="n">
+        <v>10</v>
+      </c>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W70" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z70" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA70" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC70" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT70" t="inlineStr"/>
+      <c r="AW70" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX70" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>111901553</v>
+      </c>
+      <c r="B71" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>477099.1032443722</v>
+      </c>
+      <c r="R71" t="n">
+        <v>7033504.097089833</v>
+      </c>
+      <c r="S71" t="n">
+        <v>10</v>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y71" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z71" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA71" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC71" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG71" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT71" t="inlineStr"/>
+      <c r="AW71" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX71" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>111901575</v>
+      </c>
+      <c r="B72" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>477476.8538289875</v>
+      </c>
+      <c r="R72" t="n">
+        <v>7034048.499043919</v>
+      </c>
+      <c r="S72" t="n">
+        <v>10</v>
+      </c>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W72" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y72" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z72" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA72" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG72" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT72" t="inlineStr"/>
+      <c r="AW72" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX72" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>111901520</v>
+      </c>
+      <c r="B73" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>477844.0012352917</v>
+      </c>
+      <c r="R73" t="n">
+        <v>7034116.214604673</v>
+      </c>
+      <c r="S73" t="n">
+        <v>10</v>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W73" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y73" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z73" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA73" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG73" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT73" t="inlineStr"/>
+      <c r="AW73" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX73" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>111901581</v>
+      </c>
+      <c r="B74" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>477791.9273844106</v>
+      </c>
+      <c r="R74" t="n">
+        <v>7034363.220776994</v>
+      </c>
+      <c r="S74" t="n">
+        <v>10</v>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W74" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y74" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z74" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA74" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC74" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG74" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT74" t="inlineStr"/>
+      <c r="AW74" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX74" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>111901622</v>
+      </c>
+      <c r="B75" t="n">
+        <v>85062</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>249278</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Barrviolspindling</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Cortinarius harcynicus</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>(Pers.) M.M.Moser</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>478165.647914707</v>
+      </c>
+      <c r="R75" t="n">
+        <v>7034284.10291774</v>
+      </c>
+      <c r="S75" t="n">
+        <v>10</v>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W75" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y75" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z75" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB75" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG75" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT75" t="inlineStr"/>
+      <c r="AW75" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX75" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>111901554</v>
+      </c>
+      <c r="B76" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>477059.476171807</v>
+      </c>
+      <c r="R76" t="n">
+        <v>7033542.438482954</v>
+      </c>
+      <c r="S76" t="n">
+        <v>10</v>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W76" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z76" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA76" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG76" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT76" t="inlineStr"/>
+      <c r="AW76" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX76" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>111901573</v>
+      </c>
+      <c r="B77" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>477537.5564934253</v>
+      </c>
+      <c r="R77" t="n">
+        <v>7034011.363671634</v>
+      </c>
+      <c r="S77" t="n">
+        <v>10</v>
+      </c>
+      <c r="T77" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W77" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z77" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA77" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC77" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
+        </is>
+      </c>
+      <c r="AD77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG77" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT77" t="inlineStr"/>
+      <c r="AW77" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX77" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>111901570</v>
+      </c>
+      <c r="B78" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>477406.0214198313</v>
+      </c>
+      <c r="R78" t="n">
+        <v>7033793.823331236</v>
+      </c>
+      <c r="S78" t="n">
+        <v>10</v>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W78" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y78" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z78" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA78" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG78" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT78" t="inlineStr"/>
+      <c r="AW78" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX78" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>111901532</v>
+      </c>
+      <c r="B79" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>478222.3906325128</v>
+      </c>
+      <c r="R79" t="n">
+        <v>7034454.703636711</v>
+      </c>
+      <c r="S79" t="n">
+        <v>10</v>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z79" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC79" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG79" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT79" t="inlineStr"/>
+      <c r="AW79" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX79" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>111901606</v>
+      </c>
+      <c r="B80" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>477306.6698846163</v>
+      </c>
+      <c r="R80" t="n">
+        <v>7033691.555703563</v>
+      </c>
+      <c r="S80" t="n">
+        <v>10</v>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG80" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT80" t="inlineStr"/>
+      <c r="AW80" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX80" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>111901600</v>
+      </c>
+      <c r="B81" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>478177.1393061698</v>
+      </c>
+      <c r="R81" t="n">
+        <v>7034260.300264063</v>
+      </c>
+      <c r="S81" t="n">
+        <v>10</v>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG81" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT81" t="inlineStr"/>
+      <c r="AW81" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX81" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>111901556</v>
+      </c>
+      <c r="B82" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>477225.8246246836</v>
+      </c>
+      <c r="R82" t="n">
+        <v>7033670.640521363</v>
+      </c>
+      <c r="S82" t="n">
+        <v>10</v>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA82" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC82" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG82" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT82" t="inlineStr"/>
+      <c r="AW82" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX82" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>111901572</v>
+      </c>
+      <c r="B83" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>477384.4771520677</v>
+      </c>
+      <c r="R83" t="n">
+        <v>7033853.518474016</v>
+      </c>
+      <c r="S83" t="n">
+        <v>10</v>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA83" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC83" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
+        </is>
+      </c>
+      <c r="AD83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG83" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT83" t="inlineStr"/>
+      <c r="AW83" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX83" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>111901579</v>
+      </c>
+      <c r="B84" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>477842.7544549896</v>
+      </c>
+      <c r="R84" t="n">
+        <v>7034195.008388352</v>
+      </c>
+      <c r="S84" t="n">
+        <v>10</v>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA84" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC84" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG84" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT84" t="inlineStr"/>
+      <c r="AW84" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX84" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>111901571</v>
+      </c>
+      <c r="B85" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>477388.9837839347</v>
+      </c>
+      <c r="R85" t="n">
+        <v>7033793.496102724</v>
+      </c>
+      <c r="S85" t="n">
+        <v>10</v>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z85" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA85" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC85" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
+        </is>
+      </c>
+      <c r="AD85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG85" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT85" t="inlineStr"/>
+      <c r="AW85" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX85" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>111901583</v>
+      </c>
+      <c r="B86" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>478099.0396604858</v>
+      </c>
+      <c r="R86" t="n">
+        <v>7034963.980289284</v>
+      </c>
+      <c r="S86" t="n">
+        <v>10</v>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z86" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA86" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC86" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
+        </is>
+      </c>
+      <c r="AD86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG86" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT86" t="inlineStr"/>
+      <c r="AW86" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX86" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>111901598</v>
+      </c>
+      <c r="B87" t="n">
+        <v>88966</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>5754</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Gultoppig fingersvamp</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Ramaria testaceoflava</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>478095.3749122242</v>
+      </c>
+      <c r="R87" t="n">
+        <v>7034233.1065605</v>
+      </c>
+      <c r="S87" t="n">
+        <v>10</v>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W87" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z87" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA87" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF87" t="inlineStr"/>
+      <c r="AG87" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT87" t="inlineStr"/>
+      <c r="AW87" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX87" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>111901569</v>
+      </c>
+      <c r="B88" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>477398.2994504073</v>
+      </c>
+      <c r="R88" t="n">
+        <v>7033779.55166768</v>
+      </c>
+      <c r="S88" t="n">
+        <v>10</v>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W88" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z88" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA88" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC88" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG88" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT88" t="inlineStr"/>
+      <c r="AW88" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX88" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>111901623</v>
+      </c>
+      <c r="B89" t="n">
+        <v>85062</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>249278</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Barrviolspindling</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Cortinarius harcynicus</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>(Pers.) M.M.Moser</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>478122.1132110448</v>
+      </c>
+      <c r="R89" t="n">
+        <v>7035061.382136666</v>
+      </c>
+      <c r="S89" t="n">
+        <v>10</v>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W89" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z89" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA89" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG89" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT89" t="inlineStr"/>
+      <c r="AW89" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX89" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>111901588</v>
+      </c>
+      <c r="B90" t="n">
+        <v>90332</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>4769</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Svavelriska</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Lactarius scrobiculatus</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>477431.6258370291</v>
+      </c>
+      <c r="R90" t="n">
+        <v>7033674.105856254</v>
+      </c>
+      <c r="S90" t="n">
+        <v>10</v>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z90" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA90" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG90" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT90" t="inlineStr"/>
+      <c r="AW90" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX90" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>111901576</v>
+      </c>
+      <c r="B91" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>477473.7729348365</v>
+      </c>
+      <c r="R91" t="n">
+        <v>7034056.578599731</v>
+      </c>
+      <c r="S91" t="n">
+        <v>10</v>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W91" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z91" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA91" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC91" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
+        </is>
+      </c>
+      <c r="AD91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG91" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT91" t="inlineStr"/>
+      <c r="AW91" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX91" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>111901590</v>
+      </c>
+      <c r="B92" t="n">
+        <v>56414</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>477995.937568082</v>
+      </c>
+      <c r="R92" t="n">
+        <v>7034178.282797099</v>
+      </c>
+      <c r="S92" t="n">
+        <v>10</v>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z92" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA92" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC92" t="inlineStr">
+        <is>
+          <t>hack</t>
+        </is>
+      </c>
+      <c r="AD92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG92" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT92" t="inlineStr"/>
+      <c r="AW92" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX92" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>111901540</v>
+      </c>
+      <c r="B93" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>477528.5199198141</v>
+      </c>
+      <c r="R93" t="n">
+        <v>7033682.377499279</v>
+      </c>
+      <c r="S93" t="n">
+        <v>10</v>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z93" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA93" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC93" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG93" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT93" t="inlineStr"/>
+      <c r="AW93" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX93" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>111901582</v>
+      </c>
+      <c r="B94" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>478099.9358829815</v>
+      </c>
+      <c r="R94" t="n">
+        <v>7034963.974146471</v>
+      </c>
+      <c r="S94" t="n">
+        <v>10</v>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W94" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z94" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA94" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC94" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG94" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT94" t="inlineStr"/>
+      <c r="AW94" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX94" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>111901522</v>
+      </c>
+      <c r="B95" t="n">
+        <v>90087</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>3298</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Trådticka</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Climacocystis borealis</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>477298.4037140894</v>
+      </c>
+      <c r="R95" t="n">
+        <v>7033474.468247524</v>
+      </c>
+      <c r="S95" t="n">
+        <v>10</v>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W95" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z95" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA95" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG95" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT95" t="inlineStr"/>
+      <c r="AW95" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX95" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>111901524</v>
+      </c>
+      <c r="B96" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>478393.0053771812</v>
+      </c>
+      <c r="R96" t="n">
+        <v>7034564.99604707</v>
+      </c>
+      <c r="S96" t="n">
+        <v>10</v>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W96" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z96" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA96" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC96" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG96" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT96" t="inlineStr"/>
+      <c r="AW96" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX96" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>111901539</v>
+      </c>
+      <c r="B97" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>477543.7160649595</v>
+      </c>
+      <c r="R97" t="n">
+        <v>7033739.577035171</v>
+      </c>
+      <c r="S97" t="n">
+        <v>10</v>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W97" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y97" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z97" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA97" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB97" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC97" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG97" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT97" t="inlineStr"/>
+      <c r="AW97" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX97" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>111901596</v>
+      </c>
+      <c r="B98" t="n">
+        <v>78578</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>478096.0619985596</v>
+      </c>
+      <c r="R98" t="n">
+        <v>7035117.947114002</v>
+      </c>
+      <c r="S98" t="n">
+        <v>10</v>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W98" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z98" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA98" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB98" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG98" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT98" t="inlineStr"/>
+      <c r="AW98" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX98" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>111901578</v>
+      </c>
+      <c r="B99" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>477843.0506277476</v>
+      </c>
+      <c r="R99" t="n">
+        <v>7034173.07203023</v>
+      </c>
+      <c r="S99" t="n">
+        <v>10</v>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W99" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z99" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA99" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB99" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC99" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD99" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE99" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG99" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT99" t="inlineStr"/>
+      <c r="AW99" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX99" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>111901625</v>
+      </c>
+      <c r="B100" t="n">
+        <v>89747</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>2063</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Grantickeporing</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Skeletocutis chrysella</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>478182.0360042938</v>
+      </c>
+      <c r="R100" t="n">
+        <v>7034255.342927237</v>
+      </c>
+      <c r="S100" t="n">
+        <v>10</v>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W100" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z100" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA100" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB100" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD100" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE100" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG100" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT100" t="inlineStr"/>
+      <c r="AW100" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX100" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>111901531</v>
+      </c>
+      <c r="B101" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>478266.0134983131</v>
+      </c>
+      <c r="R101" t="n">
+        <v>7034476.339010282</v>
+      </c>
+      <c r="S101" t="n">
+        <v>10</v>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W101" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y101" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z101" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA101" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB101" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC101" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD101" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE101" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG101" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT101" t="inlineStr"/>
+      <c r="AW101" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX101" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>111901609</v>
+      </c>
+      <c r="B102" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>478140.6856806503</v>
+      </c>
+      <c r="R102" t="n">
+        <v>7034828.538396582</v>
+      </c>
+      <c r="S102" t="n">
+        <v>10</v>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W102" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y102" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z102" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA102" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB102" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD102" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE102" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG102" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT102" t="inlineStr"/>
+      <c r="AW102" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX102" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>111901534</v>
+      </c>
+      <c r="B103" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>478196.6579575058</v>
+      </c>
+      <c r="R103" t="n">
+        <v>7034427.575356619</v>
+      </c>
+      <c r="S103" t="n">
+        <v>10</v>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W103" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y103" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z103" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA103" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB103" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC103" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
+      <c r="AD103" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE103" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG103" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT103" t="inlineStr"/>
+      <c r="AW103" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX103" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>111901541</v>
+      </c>
+      <c r="B104" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>Landvågen, Jmt</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>477527.5603965624</v>
+      </c>
+      <c r="R104" t="n">
+        <v>7033673.430039096</v>
+      </c>
+      <c r="S104" t="n">
+        <v>10</v>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W104" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y104" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="Z104" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA104" t="inlineStr">
+        <is>
+          <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AB104" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC104" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
+      <c r="AD104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG104" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT104" t="inlineStr"/>
+      <c r="AW104" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AX104" t="inlineStr">
+        <is>
+          <t>Benny Öwre</t>
+        </is>
+      </c>
+      <c r="AY104" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 37096-2023.xlsx
+++ b/artfynd/A 37096-2023.xlsx
@@ -2431,10 +2431,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111758961</v>
+        <v>111769042</v>
       </c>
       <c r="B17" t="n">
-        <v>86223</v>
+        <v>96326</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2443,42 +2443,45 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4412</v>
+        <v>219798</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Storbäcken (Storbäcken), Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>478081.61875638</v>
+        <v>477548.844789583</v>
       </c>
       <c r="R17" t="n">
-        <v>7035102.830858655</v>
+        <v>7033895.337382489</v>
       </c>
       <c r="S17" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2526,6 +2529,7 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2544,10 +2548,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111769042</v>
+        <v>111769066</v>
       </c>
       <c r="B18" t="n">
-        <v>96326</v>
+        <v>96253</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2560,21 +2564,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>219798</v>
+        <v>504</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2588,10 +2592,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>477548.844789583</v>
+        <v>477894.260786515</v>
       </c>
       <c r="R18" t="n">
-        <v>7033895.337382489</v>
+        <v>7034318.644870933</v>
       </c>
       <c r="S18" t="n">
         <v>50</v>
@@ -2661,10 +2665,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111769149</v>
+        <v>111769051</v>
       </c>
       <c r="B19" t="n">
-        <v>82949</v>
+        <v>73688</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2673,25 +2677,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5589</v>
+        <v>492</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Smalskaftslav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Chaenotheca gracilenta</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2700,14 +2704,14 @@
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>477459.6755572999</v>
+        <v>477242.2415391286</v>
       </c>
       <c r="R19" t="n">
-        <v>7033837.318297116</v>
+        <v>7033394.72120441</v>
       </c>
       <c r="S19" t="n">
         <v>50</v>
@@ -2777,7 +2781,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111769093</v>
+        <v>111769028</v>
       </c>
       <c r="B20" t="n">
         <v>82949</v>
@@ -2820,13 +2824,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>478247.7891202001</v>
+        <v>477173.4934072607</v>
       </c>
       <c r="R20" t="n">
-        <v>7034762.017267247</v>
+        <v>7033624.899085587</v>
       </c>
       <c r="S20" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2893,10 +2897,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111769028</v>
+        <v>111758961</v>
       </c>
       <c r="B21" t="n">
-        <v>82949</v>
+        <v>86223</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2909,40 +2913,38 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5589</v>
+        <v>4412</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Storbäcken (Storbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>477173.4934072607</v>
+        <v>478081.61875638</v>
       </c>
       <c r="R21" t="n">
-        <v>7033624.899085587</v>
+        <v>7035102.830858655</v>
       </c>
       <c r="S21" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2990,7 +2992,6 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3009,10 +3010,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111769034</v>
+        <v>111758748</v>
       </c>
       <c r="B22" t="n">
-        <v>86223</v>
+        <v>88033</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3021,44 +3022,42 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4412</v>
+        <v>1599</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Fjällfotad musseron</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Tricholoma olivaceotinctum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Storbäcken (Storbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>477427.7828955905</v>
+        <v>478042.3229088559</v>
       </c>
       <c r="R22" t="n">
-        <v>7033574.291879836</v>
+        <v>7035188.126460684</v>
       </c>
       <c r="S22" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3106,7 +3105,6 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3125,7 +3123,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111759273</v>
+        <v>111769105</v>
       </c>
       <c r="B23" t="n">
         <v>82949</v>
@@ -3159,20 +3157,22 @@
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Storbäcken (Storbäcken), Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>478158.3876210112</v>
+        <v>478264.7846321497</v>
       </c>
       <c r="R23" t="n">
-        <v>7034926.8764399</v>
+        <v>7034493.356013894</v>
       </c>
       <c r="S23" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3220,6 +3220,7 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3238,10 +3239,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111769051</v>
+        <v>111769149</v>
       </c>
       <c r="B24" t="n">
-        <v>73688</v>
+        <v>82949</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3250,25 +3251,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>492</v>
+        <v>5589</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Smalskaftslav</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Chaenotheca gracilenta</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3277,14 +3278,14 @@
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>477242.2415391286</v>
+        <v>477459.6755572999</v>
       </c>
       <c r="R24" t="n">
-        <v>7033394.72120441</v>
+        <v>7033837.318297116</v>
       </c>
       <c r="S24" t="n">
         <v>50</v>
@@ -3354,10 +3355,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111758748</v>
+        <v>111769169</v>
       </c>
       <c r="B25" t="n">
-        <v>88033</v>
+        <v>88956</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3370,38 +3371,40 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1599</v>
+        <v>5747</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Fjällfotad musseron</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tricholoma olivaceotinctum</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Storbäcken (Storbäcken), Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>478042.3229088559</v>
+        <v>477542.7220056681</v>
       </c>
       <c r="R25" t="n">
-        <v>7035188.126460684</v>
+        <v>7033725.70523841</v>
       </c>
       <c r="S25" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3449,6 +3452,7 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3467,10 +3471,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111769169</v>
+        <v>111759358</v>
       </c>
       <c r="B26" t="n">
-        <v>88956</v>
+        <v>88899</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3479,44 +3483,42 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5747</v>
+        <v>3286</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Storbäcken (Storbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>477542.7220056681</v>
+        <v>478195.3064424611</v>
       </c>
       <c r="R26" t="n">
-        <v>7033725.70523841</v>
+        <v>7034886.345942191</v>
       </c>
       <c r="S26" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3564,7 +3566,6 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3583,10 +3584,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111769066</v>
+        <v>111769034</v>
       </c>
       <c r="B27" t="n">
-        <v>96253</v>
+        <v>86223</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3595,42 +3596,41 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>504</v>
+        <v>4412</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>477894.260786515</v>
+        <v>477427.7828955905</v>
       </c>
       <c r="R27" t="n">
-        <v>7034318.644870933</v>
+        <v>7033574.291879836</v>
       </c>
       <c r="S27" t="n">
         <v>50</v>
@@ -3700,7 +3700,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111769105</v>
+        <v>111769093</v>
       </c>
       <c r="B28" t="n">
         <v>82949</v>
@@ -3743,13 +3743,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>478264.7846321497</v>
+        <v>478247.7891202001</v>
       </c>
       <c r="R28" t="n">
-        <v>7034493.356013894</v>
+        <v>7034762.017267247</v>
       </c>
       <c r="S28" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3816,10 +3816,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111759358</v>
+        <v>111759273</v>
       </c>
       <c r="B29" t="n">
-        <v>88899</v>
+        <v>82949</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3832,21 +3832,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3286</v>
+        <v>5589</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3857,10 +3857,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>478195.3064424611</v>
+        <v>478158.3876210112</v>
       </c>
       <c r="R29" t="n">
-        <v>7034886.345942191</v>
+        <v>7034926.8764399</v>
       </c>
       <c r="S29" t="n">
         <v>25</v>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111758792</v>
+        <v>111759173</v>
       </c>
       <c r="B31" t="n">
         <v>85341</v>
@@ -4088,10 +4088,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>478042.3229088559</v>
+        <v>478142.3901253083</v>
       </c>
       <c r="R31" t="n">
-        <v>7035188.126460684</v>
+        <v>7034946.677288129</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4134,11 +4134,6 @@
       <c r="AB31" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Ganska söt, päronaktig doft.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4166,7 +4161,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111759173</v>
+        <v>111758792</v>
       </c>
       <c r="B32" t="n">
         <v>85341</v>
@@ -4209,10 +4204,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>478142.3901253083</v>
+        <v>478042.3229088559</v>
       </c>
       <c r="R32" t="n">
-        <v>7034946.677288129</v>
+        <v>7035188.126460684</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4255,6 +4250,11 @@
       <c r="AB32" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Ganska söt, päronaktig doft.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4282,10 +4282,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111901567</v>
+        <v>111901598</v>
       </c>
       <c r="B33" t="n">
-        <v>56398</v>
+        <v>88966</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4298,54 +4298,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>5754</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>477452.815646043</v>
+        <v>478095.3749122242</v>
       </c>
       <c r="R33" t="n">
-        <v>7033754.54329758</v>
+        <v>7034233.1065605</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4396,6 +4376,7 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
@@ -4414,10 +4395,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111901557</v>
+        <v>111901594</v>
       </c>
       <c r="B34" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4430,42 +4411,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>477301.6306204998</v>
+        <v>478158.0786587475</v>
       </c>
       <c r="R34" t="n">
-        <v>7033676.369342894</v>
+        <v>7034881.677253954</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4534,10 +4507,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111901580</v>
+        <v>111901607</v>
       </c>
       <c r="B35" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4550,38 +4523,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>477852.1205313139</v>
+        <v>478095.1015727581</v>
       </c>
       <c r="R35" t="n">
-        <v>7034188.228905845</v>
+        <v>7035043.219008418</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4624,11 +4593,6 @@
       <c r="AB35" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4655,7 +4619,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111901526</v>
+        <v>111901557</v>
       </c>
       <c r="B36" t="n">
         <v>56398</v>
@@ -4691,7 +4655,11 @@
       <c r="I36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -4699,10 +4667,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>478353.0790921703</v>
+        <v>477301.6306204998</v>
       </c>
       <c r="R36" t="n">
-        <v>7034559.44764189</v>
+        <v>7033676.369342894</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4745,11 +4713,6 @@
       <c r="AB36" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4776,7 +4739,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111901574</v>
+        <v>111901568</v>
       </c>
       <c r="B37" t="n">
         <v>56398</v>
@@ -4820,10 +4783,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>477521.0595750482</v>
+        <v>477444.339370368</v>
       </c>
       <c r="R37" t="n">
-        <v>7034024.014202636</v>
+        <v>7033760.423184556</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4897,7 +4860,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111901537</v>
+        <v>111901564</v>
       </c>
       <c r="B38" t="n">
         <v>56398</v>
@@ -4941,10 +4904,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>477585.6298561281</v>
+        <v>477365.3609946552</v>
       </c>
       <c r="R38" t="n">
-        <v>7033835.089579746</v>
+        <v>7033686.214811271</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4991,7 +4954,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5018,7 +4981,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111901528</v>
+        <v>111901575</v>
       </c>
       <c r="B39" t="n">
         <v>56398</v>
@@ -5062,10 +5025,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>478333.5954659996</v>
+        <v>477476.8538289875</v>
       </c>
       <c r="R39" t="n">
-        <v>7034528.248548109</v>
+        <v>7034048.499043919</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5112,7 +5075,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>ringhack färska, 2 träd</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5139,7 +5102,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111901529</v>
+        <v>111901574</v>
       </c>
       <c r="B40" t="n">
         <v>56398</v>
@@ -5183,10 +5146,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>478295.8274075754</v>
+        <v>477521.0595750482</v>
       </c>
       <c r="R40" t="n">
-        <v>7034510.601185531</v>
+        <v>7034024.014202636</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5233,7 +5196,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5260,10 +5223,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111901620</v>
+        <v>111901599</v>
       </c>
       <c r="B41" t="n">
-        <v>85062</v>
+        <v>89423</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5276,21 +5239,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>249278</v>
+        <v>5432</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5300,10 +5263,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>478428.8768750167</v>
+        <v>478180.8349914302</v>
       </c>
       <c r="R41" t="n">
-        <v>7034567.439219557</v>
+        <v>7034276.389581721</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5372,10 +5335,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111901611</v>
+        <v>111901578</v>
       </c>
       <c r="B42" t="n">
-        <v>88899</v>
+        <v>56398</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5388,34 +5351,38 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>3286</v>
+        <v>100109</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>478050.6335314792</v>
+        <v>477843.0506277476</v>
       </c>
       <c r="R42" t="n">
-        <v>7035158.534338644</v>
+        <v>7034173.07203023</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5460,13 +5427,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
       <c r="AD42" t="b">
         <v>0</v>
       </c>
       <c r="AE42" t="b">
         <v>0</v>
       </c>
-      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
@@ -5485,10 +5456,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111901568</v>
+        <v>111901625</v>
       </c>
       <c r="B43" t="n">
-        <v>56398</v>
+        <v>89747</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5497,42 +5468,38 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100109</v>
+        <v>2063</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>477444.339370368</v>
+        <v>478182.0360042938</v>
       </c>
       <c r="R43" t="n">
-        <v>7033760.423184556</v>
+        <v>7034255.342927237</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5575,11 +5542,6 @@
       <c r="AB43" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5606,7 +5568,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111901538</v>
+        <v>111901532</v>
       </c>
       <c r="B44" t="n">
         <v>56398</v>
@@ -5650,10 +5612,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>477551.196685652</v>
+        <v>478222.3906325128</v>
       </c>
       <c r="R44" t="n">
-        <v>7033783.398951175</v>
+        <v>7034454.703636711</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5700,7 +5662,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5727,10 +5689,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111901577</v>
+        <v>111901623</v>
       </c>
       <c r="B45" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5743,38 +5705,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>477611.1407894194</v>
+        <v>478122.1132110448</v>
       </c>
       <c r="R45" t="n">
-        <v>7034021.143660905</v>
+        <v>7035061.382136666</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5817,11 +5775,6 @@
       <c r="AB45" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5848,7 +5801,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111901535</v>
+        <v>111901577</v>
       </c>
       <c r="B46" t="n">
         <v>56398</v>
@@ -5892,10 +5845,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>478133.153488568</v>
+        <v>477611.1407894194</v>
       </c>
       <c r="R46" t="n">
-        <v>7034251.648335411</v>
+        <v>7034021.143660905</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5942,7 +5895,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5969,10 +5922,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111901593</v>
+        <v>111901579</v>
       </c>
       <c r="B47" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5985,34 +5938,38 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>478138.936023809</v>
+        <v>477842.7544549896</v>
       </c>
       <c r="R47" t="n">
-        <v>7034834.816035185</v>
+        <v>7034195.008388352</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6055,6 +6012,11 @@
       <c r="AB47" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6081,7 +6043,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111901533</v>
+        <v>111901581</v>
       </c>
       <c r="B48" t="n">
         <v>56398</v>
@@ -6125,10 +6087,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>478206.6279368462</v>
+        <v>477791.9273844106</v>
       </c>
       <c r="R48" t="n">
-        <v>7034443.621060859</v>
+        <v>7034363.220776994</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6175,7 +6137,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6202,10 +6164,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111901536</v>
+        <v>111901521</v>
       </c>
       <c r="B49" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6214,42 +6176,38 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>478002.2311527666</v>
+        <v>478416.8277586199</v>
       </c>
       <c r="R49" t="n">
-        <v>7034180.925310614</v>
+        <v>7034575.129493972</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6292,11 +6250,6 @@
       <c r="AB49" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6323,10 +6276,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111901591</v>
+        <v>111901555</v>
       </c>
       <c r="B50" t="n">
-        <v>56414</v>
+        <v>56398</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6339,16 +6292,16 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -6367,10 +6320,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>477120.8792542543</v>
+        <v>477075.053782316</v>
       </c>
       <c r="R50" t="n">
-        <v>7033665.121892933</v>
+        <v>7033651.571049522</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6417,7 +6370,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>hack</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6444,7 +6397,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111901530</v>
+        <v>111901552</v>
       </c>
       <c r="B51" t="n">
         <v>56398</v>
@@ -6488,10 +6441,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>478301.071792486</v>
+        <v>477255.574404106</v>
       </c>
       <c r="R51" t="n">
-        <v>7034490.871451757</v>
+        <v>7033441.19203402</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6538,7 +6491,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6565,10 +6518,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111901599</v>
+        <v>111901536</v>
       </c>
       <c r="B52" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6581,34 +6534,38 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>478180.8349914302</v>
+        <v>478002.2311527666</v>
       </c>
       <c r="R52" t="n">
-        <v>7034276.389581721</v>
+        <v>7034180.925310614</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6651,6 +6608,11 @@
       <c r="AB52" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6677,10 +6639,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111901604</v>
+        <v>111901563</v>
       </c>
       <c r="B53" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6693,34 +6655,38 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>477225.7321345775</v>
+        <v>477360.4012637081</v>
       </c>
       <c r="R53" t="n">
-        <v>7033657.657507668</v>
+        <v>7033682.220543981</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6763,6 +6729,11 @@
       <c r="AB53" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6789,7 +6760,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111901552</v>
+        <v>111901582</v>
       </c>
       <c r="B54" t="n">
         <v>56398</v>
@@ -6833,10 +6804,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>477255.574404106</v>
+        <v>478099.9358829815</v>
       </c>
       <c r="R54" t="n">
-        <v>7033441.19203402</v>
+        <v>7034963.974146471</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6883,7 +6854,7 @@
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6910,7 +6881,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111901561</v>
+        <v>111901533</v>
       </c>
       <c r="B55" t="n">
         <v>56398</v>
@@ -6954,10 +6925,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>477353.6324963307</v>
+        <v>478206.6279368462</v>
       </c>
       <c r="R55" t="n">
-        <v>7033676.000540117</v>
+        <v>7034443.621060859</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7031,10 +7002,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111901602</v>
+        <v>111901590</v>
       </c>
       <c r="B56" t="n">
-        <v>89423</v>
+        <v>56414</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7047,34 +7018,38 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5432</v>
+        <v>100049</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>477078.4058219322</v>
+        <v>477995.937568082</v>
       </c>
       <c r="R56" t="n">
-        <v>7033618.863656485</v>
+        <v>7034178.282797099</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7117,6 +7092,11 @@
       <c r="AB56" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7143,10 +7123,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111901563</v>
+        <v>111901611</v>
       </c>
       <c r="B57" t="n">
-        <v>56398</v>
+        <v>88899</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7159,38 +7139,34 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100109</v>
+        <v>3286</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>477360.4012637081</v>
+        <v>478050.6335314792</v>
       </c>
       <c r="R57" t="n">
-        <v>7033682.220543981</v>
+        <v>7035158.534338644</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7235,17 +7211,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
-        </is>
-      </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
       <c r="AE57" t="b">
         <v>0</v>
       </c>
+      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -7264,10 +7236,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111901523</v>
+        <v>111901591</v>
       </c>
       <c r="B58" t="n">
-        <v>90087</v>
+        <v>56414</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7276,38 +7248,42 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>3298</v>
+        <v>100049</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>478095.1199801999</v>
+        <v>477120.8792542543</v>
       </c>
       <c r="R58" t="n">
-        <v>7035045.903991099</v>
+        <v>7033665.121892933</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7350,6 +7326,11 @@
       <c r="AB58" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7376,10 +7357,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111901565</v>
+        <v>111901612</v>
       </c>
       <c r="B59" t="n">
-        <v>56398</v>
+        <v>95674</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7388,42 +7369,38 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>100109</v>
+        <v>222741</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>477372.8710303173</v>
+        <v>478173.6911794385</v>
       </c>
       <c r="R59" t="n">
-        <v>7033670.491777684</v>
+        <v>7034280.466984005</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7466,11 +7443,6 @@
       <c r="AB59" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7497,10 +7469,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111901594</v>
+        <v>111901535</v>
       </c>
       <c r="B60" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7513,34 +7485,38 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>478158.0786587475</v>
+        <v>478133.153488568</v>
       </c>
       <c r="R60" t="n">
-        <v>7034881.677253954</v>
+        <v>7034251.648335411</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7583,6 +7559,11 @@
       <c r="AB60" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7609,10 +7590,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111901589</v>
+        <v>111901608</v>
       </c>
       <c r="B61" t="n">
-        <v>90092</v>
+        <v>89423</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7621,25 +7602,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>67</v>
+        <v>5432</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Sprickporing</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Diplomitoporus crustulinus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Bres.) Domański</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7649,10 +7630,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>477449.9680636173</v>
+        <v>478032.3625065266</v>
       </c>
       <c r="R61" t="n">
-        <v>7033732.178319109</v>
+        <v>7035108.091747497</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7703,7 +7684,6 @@
       <c r="AE61" t="b">
         <v>0</v>
       </c>
-      <c r="AF61" t="inlineStr"/>
       <c r="AG61" t="b">
         <v>0</v>
       </c>
@@ -7722,10 +7702,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111901521</v>
+        <v>111901573</v>
       </c>
       <c r="B62" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7734,38 +7714,42 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>478416.8277586199</v>
+        <v>477537.5564934253</v>
       </c>
       <c r="R62" t="n">
-        <v>7034575.129493972</v>
+        <v>7034011.363671634</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7808,6 +7792,11 @@
       <c r="AB62" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7834,10 +7823,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111901612</v>
+        <v>111901600</v>
       </c>
       <c r="B63" t="n">
-        <v>95674</v>
+        <v>89423</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7846,25 +7835,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>222741</v>
+        <v>5432</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7874,10 +7863,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>478173.6911794385</v>
+        <v>478177.1393061698</v>
       </c>
       <c r="R63" t="n">
-        <v>7034280.466984005</v>
+        <v>7034260.300264063</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7946,10 +7935,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111901595</v>
+        <v>111901556</v>
       </c>
       <c r="B64" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7962,34 +7951,38 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>478119.5332644144</v>
+        <v>477225.8246246836</v>
       </c>
       <c r="R64" t="n">
-        <v>7034946.386193739</v>
+        <v>7033670.640521363</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8032,6 +8025,11 @@
       <c r="AB64" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8058,7 +8056,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111901527</v>
+        <v>111901583</v>
       </c>
       <c r="B65" t="n">
         <v>56398</v>
@@ -8102,10 +8100,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>478330.4582599134</v>
+        <v>478099.0396604858</v>
       </c>
       <c r="R65" t="n">
-        <v>7034528.269818945</v>
+        <v>7034963.980289284</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8152,7 +8150,7 @@
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8179,10 +8177,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111901610</v>
+        <v>111901520</v>
       </c>
       <c r="B66" t="n">
-        <v>77515</v>
+        <v>89405</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8195,21 +8193,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8219,10 +8217,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>478113.3056525883</v>
+        <v>477844.0012352917</v>
       </c>
       <c r="R66" t="n">
-        <v>7034953.141815373</v>
+        <v>7034116.214604673</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8291,10 +8289,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111901607</v>
+        <v>111901528</v>
       </c>
       <c r="B67" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8307,34 +8305,38 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>478095.1015727581</v>
+        <v>478333.5954659996</v>
       </c>
       <c r="R67" t="n">
-        <v>7035043.219008418</v>
+        <v>7034528.248548109</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8377,6 +8379,11 @@
       <c r="AB67" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>ringhack färska, 2 träd</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8403,10 +8410,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111901608</v>
+        <v>111901541</v>
       </c>
       <c r="B68" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8419,34 +8426,38 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>478032.3625065266</v>
+        <v>477527.5603965624</v>
       </c>
       <c r="R68" t="n">
-        <v>7035108.091747497</v>
+        <v>7033673.430039096</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8489,6 +8500,11 @@
       <c r="AB68" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8515,7 +8531,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111901555</v>
+        <v>111901572</v>
       </c>
       <c r="B69" t="n">
         <v>56398</v>
@@ -8559,10 +8575,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>477075.053782316</v>
+        <v>477384.4771520677</v>
       </c>
       <c r="R69" t="n">
-        <v>7033651.571049522</v>
+        <v>7033853.518474016</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8609,7 +8625,7 @@
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8636,10 +8652,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111901564</v>
+        <v>111901602</v>
       </c>
       <c r="B70" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8652,38 +8668,34 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>477365.3609946552</v>
+        <v>477078.4058219322</v>
       </c>
       <c r="R70" t="n">
-        <v>7033686.214811271</v>
+        <v>7033618.863656485</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8726,11 +8738,6 @@
       <c r="AB70" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC70" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8757,7 +8764,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111901553</v>
+        <v>111901540</v>
       </c>
       <c r="B71" t="n">
         <v>56398</v>
@@ -8801,10 +8808,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>477099.1032443722</v>
+        <v>477528.5199198141</v>
       </c>
       <c r="R71" t="n">
-        <v>7033504.097089833</v>
+        <v>7033682.377499279</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8851,7 +8858,7 @@
       </c>
       <c r="AC71" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8878,10 +8885,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111901575</v>
+        <v>111901596</v>
       </c>
       <c r="B72" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8894,38 +8901,34 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>477476.8538289875</v>
+        <v>478096.0619985596</v>
       </c>
       <c r="R72" t="n">
-        <v>7034048.499043919</v>
+        <v>7035117.947114002</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8968,11 +8971,6 @@
       <c r="AB72" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC72" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8999,10 +8997,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111901520</v>
+        <v>111901561</v>
       </c>
       <c r="B73" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9015,34 +9013,38 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>477844.0012352917</v>
+        <v>477353.6324963307</v>
       </c>
       <c r="R73" t="n">
-        <v>7034116.214604673</v>
+        <v>7033676.000540117</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9085,6 +9087,11 @@
       <c r="AB73" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9111,7 +9118,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111901581</v>
+        <v>111901570</v>
       </c>
       <c r="B74" t="n">
         <v>56398</v>
@@ -9155,10 +9162,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>477791.9273844106</v>
+        <v>477406.0214198313</v>
       </c>
       <c r="R74" t="n">
-        <v>7034363.220776994</v>
+        <v>7033793.823331236</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9205,7 +9212,7 @@
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9232,10 +9239,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111901622</v>
+        <v>111901523</v>
       </c>
       <c r="B75" t="n">
-        <v>85062</v>
+        <v>90087</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9244,25 +9251,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>249278</v>
+        <v>3298</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9272,10 +9279,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>478165.647914707</v>
+        <v>478095.1199801999</v>
       </c>
       <c r="R75" t="n">
-        <v>7034284.10291774</v>
+        <v>7035045.903991099</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9344,10 +9351,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111901554</v>
+        <v>111901522</v>
       </c>
       <c r="B76" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9356,42 +9363,38 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>477059.476171807</v>
+        <v>477298.4037140894</v>
       </c>
       <c r="R76" t="n">
-        <v>7033542.438482954</v>
+        <v>7033474.468247524</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9434,11 +9437,6 @@
       <c r="AB76" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC76" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9465,7 +9463,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111901573</v>
+        <v>111901553</v>
       </c>
       <c r="B77" t="n">
         <v>56398</v>
@@ -9509,10 +9507,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>477537.5564934253</v>
+        <v>477099.1032443722</v>
       </c>
       <c r="R77" t="n">
-        <v>7034011.363671634</v>
+        <v>7033504.097089833</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9559,7 +9557,7 @@
       </c>
       <c r="AC77" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9586,10 +9584,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111901570</v>
+        <v>111901609</v>
       </c>
       <c r="B78" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9602,38 +9600,34 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>477406.0214198313</v>
+        <v>478140.6856806503</v>
       </c>
       <c r="R78" t="n">
-        <v>7033793.823331236</v>
+        <v>7034828.538396582</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9676,11 +9670,6 @@
       <c r="AB78" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC78" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9707,7 +9696,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111901532</v>
+        <v>111901527</v>
       </c>
       <c r="B79" t="n">
         <v>56398</v>
@@ -9751,10 +9740,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>478222.3906325128</v>
+        <v>478330.4582599134</v>
       </c>
       <c r="R79" t="n">
-        <v>7034454.703636711</v>
+        <v>7034528.269818945</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9801,7 +9790,7 @@
       </c>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9828,10 +9817,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111901606</v>
+        <v>111901589</v>
       </c>
       <c r="B80" t="n">
-        <v>89423</v>
+        <v>90092</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9840,25 +9829,25 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>5432</v>
+        <v>67</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Sprickporing</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Diplomitoporus crustulinus</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Bres.) Domański</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9868,10 +9857,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>477306.6698846163</v>
+        <v>477449.9680636173</v>
       </c>
       <c r="R80" t="n">
-        <v>7033691.555703563</v>
+        <v>7033732.178319109</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9922,6 +9911,7 @@
       <c r="AE80" t="b">
         <v>0</v>
       </c>
+      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="b">
         <v>0</v>
       </c>
@@ -9940,7 +9930,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111901600</v>
+        <v>111901606</v>
       </c>
       <c r="B81" t="n">
         <v>89423</v>
@@ -9980,10 +9970,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>478177.1393061698</v>
+        <v>477306.6698846163</v>
       </c>
       <c r="R81" t="n">
-        <v>7034260.300264063</v>
+        <v>7033691.555703563</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -10052,10 +10042,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111901556</v>
+        <v>111901610</v>
       </c>
       <c r="B82" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10068,38 +10058,34 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>477225.8246246836</v>
+        <v>478113.3056525883</v>
       </c>
       <c r="R82" t="n">
-        <v>7033670.640521363</v>
+        <v>7034953.141815373</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -10142,11 +10128,6 @@
       <c r="AB82" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC82" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -10173,7 +10154,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111901572</v>
+        <v>111901539</v>
       </c>
       <c r="B83" t="n">
         <v>56398</v>
@@ -10217,10 +10198,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>477384.4771520677</v>
+        <v>477543.7160649595</v>
       </c>
       <c r="R83" t="n">
-        <v>7033853.518474016</v>
+        <v>7033739.577035171</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -10267,7 +10248,7 @@
       </c>
       <c r="AC83" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -10294,7 +10275,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111901579</v>
+        <v>111901569</v>
       </c>
       <c r="B84" t="n">
         <v>56398</v>
@@ -10338,10 +10319,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>477842.7544549896</v>
+        <v>477398.2994504073</v>
       </c>
       <c r="R84" t="n">
-        <v>7034195.008388352</v>
+        <v>7033779.55166768</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -10415,7 +10396,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111901571</v>
+        <v>111901526</v>
       </c>
       <c r="B85" t="n">
         <v>56398</v>
@@ -10459,10 +10440,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>477388.9837839347</v>
+        <v>478353.0790921703</v>
       </c>
       <c r="R85" t="n">
-        <v>7033793.496102724</v>
+        <v>7034559.44764189</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -10509,7 +10490,7 @@
       </c>
       <c r="AC85" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -10536,10 +10517,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111901583</v>
+        <v>111901604</v>
       </c>
       <c r="B86" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10552,38 +10533,34 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>478099.0396604858</v>
+        <v>477225.7321345775</v>
       </c>
       <c r="R86" t="n">
-        <v>7034963.980289284</v>
+        <v>7033657.657507668</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -10626,11 +10603,6 @@
       <c r="AB86" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC86" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10657,10 +10629,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111901598</v>
+        <v>111901565</v>
       </c>
       <c r="B87" t="n">
-        <v>88966</v>
+        <v>56398</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10673,34 +10645,38 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>5754</v>
+        <v>100109</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>478095.3749122242</v>
+        <v>477372.8710303173</v>
       </c>
       <c r="R87" t="n">
-        <v>7034233.1065605</v>
+        <v>7033670.491777684</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -10745,13 +10721,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC87" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
       <c r="AD87" t="b">
         <v>0</v>
       </c>
       <c r="AE87" t="b">
         <v>0</v>
       </c>
-      <c r="AF87" t="inlineStr"/>
       <c r="AG87" t="b">
         <v>0</v>
       </c>
@@ -10770,10 +10750,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111901569</v>
+        <v>111901593</v>
       </c>
       <c r="B88" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10786,38 +10766,34 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>477398.2994504073</v>
+        <v>478138.936023809</v>
       </c>
       <c r="R88" t="n">
-        <v>7033779.55166768</v>
+        <v>7034834.816035185</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10860,11 +10836,6 @@
       <c r="AB88" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC88" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10891,10 +10862,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111901623</v>
+        <v>111901524</v>
       </c>
       <c r="B89" t="n">
-        <v>85062</v>
+        <v>56398</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10907,34 +10878,38 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>249278</v>
+        <v>100109</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>478122.1132110448</v>
+        <v>478393.0053771812</v>
       </c>
       <c r="R89" t="n">
-        <v>7035061.382136666</v>
+        <v>7034564.99604707</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10977,6 +10952,11 @@
       <c r="AB89" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC89" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -11003,10 +10983,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111901588</v>
+        <v>111901531</v>
       </c>
       <c r="B90" t="n">
-        <v>90332</v>
+        <v>56398</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -11015,38 +10995,42 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>4769</v>
+        <v>100109</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>477431.6258370291</v>
+        <v>478266.0134983131</v>
       </c>
       <c r="R90" t="n">
-        <v>7033674.105856254</v>
+        <v>7034476.339010282</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -11089,6 +11073,11 @@
       <c r="AB90" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC90" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -11115,7 +11104,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111901576</v>
+        <v>111901537</v>
       </c>
       <c r="B91" t="n">
         <v>56398</v>
@@ -11159,10 +11148,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>477473.7729348365</v>
+        <v>477585.6298561281</v>
       </c>
       <c r="R91" t="n">
-        <v>7034056.578599731</v>
+        <v>7033835.089579746</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -11236,10 +11225,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111901590</v>
+        <v>111901567</v>
       </c>
       <c r="B92" t="n">
-        <v>56414</v>
+        <v>56398</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11252,16 +11241,16 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -11269,21 +11258,37 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P92" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>477995.937568082</v>
+        <v>477452.815646043</v>
       </c>
       <c r="R92" t="n">
-        <v>7034178.282797099</v>
+        <v>7033754.54329758</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -11326,11 +11331,6 @@
       <c r="AB92" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC92" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -11357,7 +11357,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111901540</v>
+        <v>111901538</v>
       </c>
       <c r="B93" t="n">
         <v>56398</v>
@@ -11401,10 +11401,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>477528.5199198141</v>
+        <v>477551.196685652</v>
       </c>
       <c r="R93" t="n">
-        <v>7033682.377499279</v>
+        <v>7033783.398951175</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -11478,7 +11478,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111901582</v>
+        <v>111901571</v>
       </c>
       <c r="B94" t="n">
         <v>56398</v>
@@ -11522,10 +11522,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>478099.9358829815</v>
+        <v>477388.9837839347</v>
       </c>
       <c r="R94" t="n">
-        <v>7034963.974146471</v>
+        <v>7033793.496102724</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -11572,7 +11572,7 @@
       </c>
       <c r="AC94" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -11599,10 +11599,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111901522</v>
+        <v>111901576</v>
       </c>
       <c r="B95" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11611,38 +11611,42 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>477298.4037140894</v>
+        <v>477473.7729348365</v>
       </c>
       <c r="R95" t="n">
-        <v>7033474.468247524</v>
+        <v>7034056.578599731</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -11685,6 +11689,11 @@
       <c r="AB95" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC95" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11711,7 +11720,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111901524</v>
+        <v>111901534</v>
       </c>
       <c r="B96" t="n">
         <v>56398</v>
@@ -11755,10 +11764,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>478393.0053771812</v>
+        <v>478196.6579575058</v>
       </c>
       <c r="R96" t="n">
-        <v>7034564.99604707</v>
+        <v>7034427.575356619</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -11805,7 +11814,7 @@
       </c>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11832,7 +11841,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111901539</v>
+        <v>111901580</v>
       </c>
       <c r="B97" t="n">
         <v>56398</v>
@@ -11876,10 +11885,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>477543.7160649595</v>
+        <v>477852.1205313139</v>
       </c>
       <c r="R97" t="n">
-        <v>7033739.577035171</v>
+        <v>7034188.228905845</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11953,10 +11962,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111901596</v>
+        <v>111901529</v>
       </c>
       <c r="B98" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11969,34 +11978,38 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>478096.0619985596</v>
+        <v>478295.8274075754</v>
       </c>
       <c r="R98" t="n">
-        <v>7035117.947114002</v>
+        <v>7034510.601185531</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -12039,6 +12052,11 @@
       <c r="AB98" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC98" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -12065,7 +12083,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111901578</v>
+        <v>111901554</v>
       </c>
       <c r="B99" t="n">
         <v>56398</v>
@@ -12109,10 +12127,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>477843.0506277476</v>
+        <v>477059.476171807</v>
       </c>
       <c r="R99" t="n">
-        <v>7034173.07203023</v>
+        <v>7033542.438482954</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -12159,7 +12177,7 @@
       </c>
       <c r="AC99" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -12186,10 +12204,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111901625</v>
+        <v>111901620</v>
       </c>
       <c r="B100" t="n">
-        <v>89747</v>
+        <v>85062</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12198,25 +12216,25 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>2063</v>
+        <v>249278</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -12226,10 +12244,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>478182.0360042938</v>
+        <v>478428.8768750167</v>
       </c>
       <c r="R100" t="n">
-        <v>7034255.342927237</v>
+        <v>7034567.439219557</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -12298,10 +12316,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111901531</v>
+        <v>111901588</v>
       </c>
       <c r="B101" t="n">
-        <v>56398</v>
+        <v>90332</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12310,42 +12328,38 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>100109</v>
+        <v>4769</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>478266.0134983131</v>
+        <v>477431.6258370291</v>
       </c>
       <c r="R101" t="n">
-        <v>7034476.339010282</v>
+        <v>7033674.105856254</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -12388,11 +12402,6 @@
       <c r="AB101" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC101" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12419,10 +12428,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111901609</v>
+        <v>111901530</v>
       </c>
       <c r="B102" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12435,34 +12444,38 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>478140.6856806503</v>
+        <v>478301.071792486</v>
       </c>
       <c r="R102" t="n">
-        <v>7034828.538396582</v>
+        <v>7034490.871451757</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -12505,6 +12518,11 @@
       <c r="AB102" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC102" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12531,10 +12549,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111901534</v>
+        <v>111901622</v>
       </c>
       <c r="B103" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12547,38 +12565,34 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>478196.6579575058</v>
+        <v>478165.647914707</v>
       </c>
       <c r="R103" t="n">
-        <v>7034427.575356619</v>
+        <v>7034284.10291774</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -12621,11 +12635,6 @@
       <c r="AB103" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC103" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12652,10 +12661,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111901541</v>
+        <v>111901595</v>
       </c>
       <c r="B104" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12668,38 +12677,34 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>477527.5603965624</v>
+        <v>478119.5332644144</v>
       </c>
       <c r="R104" t="n">
-        <v>7033673.430039096</v>
+        <v>7034946.386193739</v>
       </c>
       <c r="S104" t="n">
         <v>10</v>
@@ -12742,11 +12747,6 @@
       <c r="AB104" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC104" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD104" t="b">

--- a/artfynd/A 37096-2023.xlsx
+++ b/artfynd/A 37096-2023.xlsx
@@ -3700,7 +3700,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111769093</v>
+        <v>111759273</v>
       </c>
       <c r="B28" t="n">
         <v>82949</v>
@@ -3734,22 +3734,20 @@
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Storbäcken (Storbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>478247.7891202001</v>
+        <v>478158.3876210112</v>
       </c>
       <c r="R28" t="n">
-        <v>7034762.017267247</v>
+        <v>7034926.8764399</v>
       </c>
       <c r="S28" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3797,7 +3795,6 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3816,7 +3813,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111759273</v>
+        <v>111769093</v>
       </c>
       <c r="B29" t="n">
         <v>82949</v>
@@ -3850,20 +3847,22 @@
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Storbäcken (Storbäcken), Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>478158.3876210112</v>
+        <v>478247.7891202001</v>
       </c>
       <c r="R29" t="n">
-        <v>7034926.8764399</v>
+        <v>7034762.017267247</v>
       </c>
       <c r="S29" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3911,6 +3910,7 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 37096-2023.xlsx
+++ b/artfynd/A 37096-2023.xlsx
@@ -2431,10 +2431,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111769042</v>
+        <v>111769093</v>
       </c>
       <c r="B17" t="n">
-        <v>96326</v>
+        <v>82949</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2443,45 +2443,44 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>219798</v>
+        <v>5589</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>477548.844789583</v>
+        <v>478247.7891202001</v>
       </c>
       <c r="R17" t="n">
-        <v>7033895.337382489</v>
+        <v>7034762.017267247</v>
       </c>
       <c r="S17" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2548,10 +2547,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111769066</v>
+        <v>111769105</v>
       </c>
       <c r="B18" t="n">
-        <v>96253</v>
+        <v>82949</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2560,42 +2559,41 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>504</v>
+        <v>5589</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>477894.260786515</v>
+        <v>478264.7846321497</v>
       </c>
       <c r="R18" t="n">
-        <v>7034318.644870933</v>
+        <v>7034493.356013894</v>
       </c>
       <c r="S18" t="n">
         <v>50</v>
@@ -2665,10 +2663,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111769051</v>
+        <v>111769066</v>
       </c>
       <c r="B19" t="n">
-        <v>73688</v>
+        <v>96253</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2677,41 +2675,42 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Smalskaftslav</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chaenotheca gracilenta</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>477242.2415391286</v>
+        <v>477894.260786515</v>
       </c>
       <c r="R19" t="n">
-        <v>7033394.72120441</v>
+        <v>7034318.644870933</v>
       </c>
       <c r="S19" t="n">
         <v>50</v>
@@ -2781,10 +2780,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111769028</v>
+        <v>111769169</v>
       </c>
       <c r="B20" t="n">
-        <v>82949</v>
+        <v>88956</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2793,25 +2792,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5589</v>
+        <v>5747</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2820,14 +2819,14 @@
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>477173.4934072607</v>
+        <v>477542.7220056681</v>
       </c>
       <c r="R20" t="n">
-        <v>7033624.899085587</v>
+        <v>7033725.70523841</v>
       </c>
       <c r="S20" t="n">
         <v>50</v>
@@ -2897,10 +2896,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111758961</v>
+        <v>111759358</v>
       </c>
       <c r="B21" t="n">
-        <v>86223</v>
+        <v>88899</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2913,21 +2912,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4412</v>
+        <v>3286</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2938,10 +2937,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>478081.61875638</v>
+        <v>478195.3064424611</v>
       </c>
       <c r="R21" t="n">
-        <v>7035102.830858655</v>
+        <v>7034886.345942191</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3010,10 +3009,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111758748</v>
+        <v>111769042</v>
       </c>
       <c r="B22" t="n">
-        <v>88033</v>
+        <v>96326</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3022,42 +3021,45 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1599</v>
+        <v>219798</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Fjällfotad musseron</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Tricholoma olivaceotinctum</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Storbäcken (Storbäcken), Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>478042.3229088559</v>
+        <v>477548.844789583</v>
       </c>
       <c r="R22" t="n">
-        <v>7035188.126460684</v>
+        <v>7033895.337382489</v>
       </c>
       <c r="S22" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3105,6 +3107,7 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3123,10 +3126,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111769105</v>
+        <v>111758961</v>
       </c>
       <c r="B23" t="n">
-        <v>82949</v>
+        <v>86223</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3139,40 +3142,38 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5589</v>
+        <v>4412</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Storbäcken (Storbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>478264.7846321497</v>
+        <v>478081.61875638</v>
       </c>
       <c r="R23" t="n">
-        <v>7034493.356013894</v>
+        <v>7035102.830858655</v>
       </c>
       <c r="S23" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3220,7 +3221,6 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111769149</v>
+        <v>111769028</v>
       </c>
       <c r="B24" t="n">
         <v>82949</v>
@@ -3278,14 +3278,14 @@
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>477459.6755572999</v>
+        <v>477173.4934072607</v>
       </c>
       <c r="R24" t="n">
-        <v>7033837.318297116</v>
+        <v>7033624.899085587</v>
       </c>
       <c r="S24" t="n">
         <v>50</v>
@@ -3355,10 +3355,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111769169</v>
+        <v>111769051</v>
       </c>
       <c r="B25" t="n">
-        <v>88956</v>
+        <v>73688</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3371,21 +3371,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5747</v>
+        <v>492</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Smalskaftslav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Chaenotheca gracilenta</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3394,14 +3394,14 @@
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>477542.7220056681</v>
+        <v>477242.2415391286</v>
       </c>
       <c r="R25" t="n">
-        <v>7033725.70523841</v>
+        <v>7033394.72120441</v>
       </c>
       <c r="S25" t="n">
         <v>50</v>
@@ -3471,10 +3471,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111759358</v>
+        <v>111759273</v>
       </c>
       <c r="B26" t="n">
-        <v>88899</v>
+        <v>82949</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3487,21 +3487,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3286</v>
+        <v>5589</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3512,10 +3512,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>478195.3064424611</v>
+        <v>478158.3876210112</v>
       </c>
       <c r="R26" t="n">
-        <v>7034886.345942191</v>
+        <v>7034926.8764399</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3700,10 +3700,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111759273</v>
+        <v>111758748</v>
       </c>
       <c r="B28" t="n">
-        <v>82949</v>
+        <v>88033</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3712,25 +3712,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5589</v>
+        <v>1599</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Fjällfotad musseron</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Tricholoma olivaceotinctum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3741,10 +3741,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>478158.3876210112</v>
+        <v>478042.3229088559</v>
       </c>
       <c r="R28" t="n">
-        <v>7034926.8764399</v>
+        <v>7035188.126460684</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111769093</v>
+        <v>111769149</v>
       </c>
       <c r="B29" t="n">
         <v>82949</v>
@@ -3852,17 +3852,17 @@
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>478247.7891202001</v>
+        <v>477459.6755572999</v>
       </c>
       <c r="R29" t="n">
-        <v>7034762.017267247</v>
+        <v>7033837.318297116</v>
       </c>
       <c r="S29" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -4282,10 +4282,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111901598</v>
+        <v>111901569</v>
       </c>
       <c r="B33" t="n">
-        <v>88966</v>
+        <v>56398</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4298,34 +4298,38 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5754</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>478095.3749122242</v>
+        <v>477398.2994504073</v>
       </c>
       <c r="R33" t="n">
-        <v>7034233.1065605</v>
+        <v>7033779.55166768</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4370,13 +4374,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
@@ -4395,10 +4403,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111901594</v>
+        <v>111901557</v>
       </c>
       <c r="B34" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4411,34 +4419,42 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>478158.0786587475</v>
+        <v>477301.6306204998</v>
       </c>
       <c r="R34" t="n">
-        <v>7034881.677253954</v>
+        <v>7033676.369342894</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4507,10 +4523,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111901607</v>
+        <v>111901526</v>
       </c>
       <c r="B35" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4523,34 +4539,38 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>478095.1015727581</v>
+        <v>478353.0790921703</v>
       </c>
       <c r="R35" t="n">
-        <v>7035043.219008418</v>
+        <v>7034559.44764189</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4593,6 +4613,11 @@
       <c r="AB35" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4619,7 +4644,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111901557</v>
+        <v>111901561</v>
       </c>
       <c r="B36" t="n">
         <v>56398</v>
@@ -4655,11 +4680,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
+      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
@@ -4667,10 +4688,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>477301.6306204998</v>
+        <v>477353.6324963307</v>
       </c>
       <c r="R36" t="n">
-        <v>7033676.369342894</v>
+        <v>7033676.000540117</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4713,6 +4734,11 @@
       <c r="AB36" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4739,7 +4765,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111901568</v>
+        <v>111901540</v>
       </c>
       <c r="B37" t="n">
         <v>56398</v>
@@ -4783,10 +4809,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>477444.339370368</v>
+        <v>477528.5199198141</v>
       </c>
       <c r="R37" t="n">
-        <v>7033760.423184556</v>
+        <v>7033682.377499279</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4860,7 +4886,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111901564</v>
+        <v>111901573</v>
       </c>
       <c r="B38" t="n">
         <v>56398</v>
@@ -4904,10 +4930,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>477365.3609946552</v>
+        <v>477537.5564934253</v>
       </c>
       <c r="R38" t="n">
-        <v>7033686.214811271</v>
+        <v>7034011.363671634</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4954,7 +4980,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4981,7 +5007,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111901575</v>
+        <v>111901574</v>
       </c>
       <c r="B39" t="n">
         <v>56398</v>
@@ -5025,10 +5051,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>477476.8538289875</v>
+        <v>477521.0595750482</v>
       </c>
       <c r="R39" t="n">
-        <v>7034048.499043919</v>
+        <v>7034024.014202636</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5075,7 +5101,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5102,7 +5128,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111901574</v>
+        <v>111901570</v>
       </c>
       <c r="B40" t="n">
         <v>56398</v>
@@ -5146,10 +5172,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>477521.0595750482</v>
+        <v>477406.0214198313</v>
       </c>
       <c r="R40" t="n">
-        <v>7034024.014202636</v>
+        <v>7033793.823331236</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5196,7 +5222,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5223,10 +5249,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111901599</v>
+        <v>111901564</v>
       </c>
       <c r="B41" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5239,34 +5265,38 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>478180.8349914302</v>
+        <v>477365.3609946552</v>
       </c>
       <c r="R41" t="n">
-        <v>7034276.389581721</v>
+        <v>7033686.214811271</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5309,6 +5339,11 @@
       <c r="AB41" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5335,10 +5370,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111901578</v>
+        <v>111901607</v>
       </c>
       <c r="B42" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5351,38 +5386,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>477843.0506277476</v>
+        <v>478095.1015727581</v>
       </c>
       <c r="R42" t="n">
-        <v>7034173.07203023</v>
+        <v>7035043.219008418</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5425,11 +5456,6 @@
       <c r="AB42" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5456,10 +5482,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111901625</v>
+        <v>111901536</v>
       </c>
       <c r="B43" t="n">
-        <v>89747</v>
+        <v>56398</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5468,38 +5494,42 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2063</v>
+        <v>100109</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>478182.0360042938</v>
+        <v>478002.2311527666</v>
       </c>
       <c r="R43" t="n">
-        <v>7034255.342927237</v>
+        <v>7034180.925310614</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5542,6 +5572,11 @@
       <c r="AB43" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5568,7 +5603,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111901532</v>
+        <v>111901529</v>
       </c>
       <c r="B44" t="n">
         <v>56398</v>
@@ -5612,10 +5647,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>478222.3906325128</v>
+        <v>478295.8274075754</v>
       </c>
       <c r="R44" t="n">
-        <v>7034454.703636711</v>
+        <v>7034510.601185531</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5662,7 +5697,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5689,10 +5724,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111901623</v>
+        <v>111901554</v>
       </c>
       <c r="B45" t="n">
-        <v>85062</v>
+        <v>56398</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5705,34 +5740,38 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>249278</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>478122.1132110448</v>
+        <v>477059.476171807</v>
       </c>
       <c r="R45" t="n">
-        <v>7035061.382136666</v>
+        <v>7033542.438482954</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5775,6 +5814,11 @@
       <c r="AB45" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5801,7 +5845,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111901577</v>
+        <v>111901541</v>
       </c>
       <c r="B46" t="n">
         <v>56398</v>
@@ -5845,10 +5889,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>477611.1407894194</v>
+        <v>477527.5603965624</v>
       </c>
       <c r="R46" t="n">
-        <v>7034021.143660905</v>
+        <v>7033673.430039096</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5895,7 +5939,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5922,7 +5966,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111901579</v>
+        <v>111901534</v>
       </c>
       <c r="B47" t="n">
         <v>56398</v>
@@ -5966,10 +6010,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>477842.7544549896</v>
+        <v>478196.6579575058</v>
       </c>
       <c r="R47" t="n">
-        <v>7034195.008388352</v>
+        <v>7034427.575356619</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6043,10 +6087,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111901581</v>
+        <v>111901611</v>
       </c>
       <c r="B48" t="n">
-        <v>56398</v>
+        <v>88899</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6059,38 +6103,34 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>3286</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>477791.9273844106</v>
+        <v>478050.6335314792</v>
       </c>
       <c r="R48" t="n">
-        <v>7034363.220776994</v>
+        <v>7035158.534338644</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6135,17 +6175,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
-        </is>
-      </c>
       <c r="AD48" t="b">
         <v>0</v>
       </c>
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6164,10 +6200,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111901521</v>
+        <v>111901591</v>
       </c>
       <c r="B49" t="n">
-        <v>90087</v>
+        <v>56414</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6176,38 +6212,42 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>3298</v>
+        <v>100049</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>478416.8277586199</v>
+        <v>477120.8792542543</v>
       </c>
       <c r="R49" t="n">
-        <v>7034575.129493972</v>
+        <v>7033665.121892933</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6250,6 +6290,11 @@
       <c r="AB49" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6276,7 +6321,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111901555</v>
+        <v>111901579</v>
       </c>
       <c r="B50" t="n">
         <v>56398</v>
@@ -6320,10 +6365,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>477075.053782316</v>
+        <v>477842.7544549896</v>
       </c>
       <c r="R50" t="n">
-        <v>7033651.571049522</v>
+        <v>7034195.008388352</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6397,10 +6442,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111901552</v>
+        <v>111901612</v>
       </c>
       <c r="B51" t="n">
-        <v>56398</v>
+        <v>95674</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6409,42 +6454,38 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100109</v>
+        <v>222741</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>477255.574404106</v>
+        <v>478173.6911794385</v>
       </c>
       <c r="R51" t="n">
-        <v>7033441.19203402</v>
+        <v>7034280.466984005</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6487,11 +6528,6 @@
       <c r="AB51" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6518,7 +6554,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111901536</v>
+        <v>111901538</v>
       </c>
       <c r="B52" t="n">
         <v>56398</v>
@@ -6562,10 +6598,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>478002.2311527666</v>
+        <v>477551.196685652</v>
       </c>
       <c r="R52" t="n">
-        <v>7034180.925310614</v>
+        <v>7033783.398951175</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6612,7 +6648,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6639,10 +6675,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111901563</v>
+        <v>111901609</v>
       </c>
       <c r="B53" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6655,38 +6691,34 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>477360.4012637081</v>
+        <v>478140.6856806503</v>
       </c>
       <c r="R53" t="n">
-        <v>7033682.220543981</v>
+        <v>7034828.538396582</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6729,11 +6761,6 @@
       <c r="AB53" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6760,10 +6787,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111901582</v>
+        <v>111901610</v>
       </c>
       <c r="B54" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6776,38 +6803,34 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>478099.9358829815</v>
+        <v>478113.3056525883</v>
       </c>
       <c r="R54" t="n">
-        <v>7034963.974146471</v>
+        <v>7034953.141815373</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6850,11 +6873,6 @@
       <c r="AB54" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6881,7 +6899,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111901533</v>
+        <v>111901556</v>
       </c>
       <c r="B55" t="n">
         <v>56398</v>
@@ -6925,10 +6943,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>478206.6279368462</v>
+        <v>477225.8246246836</v>
       </c>
       <c r="R55" t="n">
-        <v>7034443.621060859</v>
+        <v>7033670.640521363</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7002,10 +7020,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111901590</v>
+        <v>111901596</v>
       </c>
       <c r="B56" t="n">
-        <v>56414</v>
+        <v>78578</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7018,38 +7036,34 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100049</v>
+        <v>6458</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>477995.937568082</v>
+        <v>478096.0619985596</v>
       </c>
       <c r="R56" t="n">
-        <v>7034178.282797099</v>
+        <v>7035117.947114002</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7092,11 +7106,6 @@
       <c r="AB56" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7123,10 +7132,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111901611</v>
+        <v>111901598</v>
       </c>
       <c r="B57" t="n">
-        <v>88899</v>
+        <v>88966</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7139,21 +7148,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3286</v>
+        <v>5754</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -7163,10 +7172,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>478050.6335314792</v>
+        <v>478095.3749122242</v>
       </c>
       <c r="R57" t="n">
-        <v>7035158.534338644</v>
+        <v>7034233.1065605</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7236,10 +7245,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111901591</v>
+        <v>111901528</v>
       </c>
       <c r="B58" t="n">
-        <v>56414</v>
+        <v>56398</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7252,16 +7261,16 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -7280,10 +7289,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>477120.8792542543</v>
+        <v>478333.5954659996</v>
       </c>
       <c r="R58" t="n">
-        <v>7033665.121892933</v>
+        <v>7034528.248548109</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7330,7 +7339,7 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>hack</t>
+          <t>ringhack färska, 2 träd</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7357,10 +7366,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111901612</v>
+        <v>111901532</v>
       </c>
       <c r="B59" t="n">
-        <v>95674</v>
+        <v>56398</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7369,38 +7378,42 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>222741</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>478173.6911794385</v>
+        <v>478222.3906325128</v>
       </c>
       <c r="R59" t="n">
-        <v>7034280.466984005</v>
+        <v>7034454.703636711</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7443,6 +7456,11 @@
       <c r="AB59" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7469,7 +7487,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111901535</v>
+        <v>111901524</v>
       </c>
       <c r="B60" t="n">
         <v>56398</v>
@@ -7513,10 +7531,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>478133.153488568</v>
+        <v>478393.0053771812</v>
       </c>
       <c r="R60" t="n">
-        <v>7034251.648335411</v>
+        <v>7034564.99604707</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7590,10 +7608,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111901608</v>
+        <v>111901527</v>
       </c>
       <c r="B61" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7606,34 +7624,38 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>478032.3625065266</v>
+        <v>478330.4582599134</v>
       </c>
       <c r="R61" t="n">
-        <v>7035108.091747497</v>
+        <v>7034528.269818945</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7676,6 +7698,11 @@
       <c r="AB61" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7702,10 +7729,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111901573</v>
+        <v>111901520</v>
       </c>
       <c r="B62" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7718,38 +7745,34 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>477537.5564934253</v>
+        <v>477844.0012352917</v>
       </c>
       <c r="R62" t="n">
-        <v>7034011.363671634</v>
+        <v>7034116.214604673</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7792,11 +7815,6 @@
       <c r="AB62" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7823,10 +7841,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111901600</v>
+        <v>111901563</v>
       </c>
       <c r="B63" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7839,34 +7857,38 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>478177.1393061698</v>
+        <v>477360.4012637081</v>
       </c>
       <c r="R63" t="n">
-        <v>7034260.300264063</v>
+        <v>7033682.220543981</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7909,6 +7931,11 @@
       <c r="AB63" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7935,10 +7962,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111901556</v>
+        <v>111901622</v>
       </c>
       <c r="B64" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7951,38 +7978,34 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>477225.8246246836</v>
+        <v>478165.647914707</v>
       </c>
       <c r="R64" t="n">
-        <v>7033670.640521363</v>
+        <v>7034284.10291774</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8025,11 +8048,6 @@
       <c r="AB64" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC64" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8056,7 +8074,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111901583</v>
+        <v>111901530</v>
       </c>
       <c r="B65" t="n">
         <v>56398</v>
@@ -8100,10 +8118,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>478099.0396604858</v>
+        <v>478301.071792486</v>
       </c>
       <c r="R65" t="n">
-        <v>7034963.980289284</v>
+        <v>7034490.871451757</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8150,7 +8168,7 @@
       </c>
       <c r="AC65" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8177,10 +8195,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111901520</v>
+        <v>111901604</v>
       </c>
       <c r="B66" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8193,21 +8211,21 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8217,10 +8235,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>477844.0012352917</v>
+        <v>477225.7321345775</v>
       </c>
       <c r="R66" t="n">
-        <v>7034116.214604673</v>
+        <v>7033657.657507668</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8289,10 +8307,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111901528</v>
+        <v>111901594</v>
       </c>
       <c r="B67" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8305,38 +8323,34 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>478333.5954659996</v>
+        <v>478158.0786587475</v>
       </c>
       <c r="R67" t="n">
-        <v>7034528.248548109</v>
+        <v>7034881.677253954</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8379,11 +8393,6 @@
       <c r="AB67" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>ringhack färska, 2 träd</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8410,7 +8419,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111901541</v>
+        <v>111901555</v>
       </c>
       <c r="B68" t="n">
         <v>56398</v>
@@ -8454,10 +8463,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>477527.5603965624</v>
+        <v>477075.053782316</v>
       </c>
       <c r="R68" t="n">
-        <v>7033673.430039096</v>
+        <v>7033651.571049522</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8504,7 +8513,7 @@
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8531,10 +8540,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111901572</v>
+        <v>111901620</v>
       </c>
       <c r="B69" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8547,38 +8556,34 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>477384.4771520677</v>
+        <v>478428.8768750167</v>
       </c>
       <c r="R69" t="n">
-        <v>7033853.518474016</v>
+        <v>7034567.439219557</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8621,11 +8626,6 @@
       <c r="AB69" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC69" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8652,10 +8652,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111901602</v>
+        <v>111901531</v>
       </c>
       <c r="B70" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8668,34 +8668,38 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>477078.4058219322</v>
+        <v>478266.0134983131</v>
       </c>
       <c r="R70" t="n">
-        <v>7033618.863656485</v>
+        <v>7034476.339010282</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8738,6 +8742,11 @@
       <c r="AB70" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC70" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8764,7 +8773,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111901540</v>
+        <v>111901577</v>
       </c>
       <c r="B71" t="n">
         <v>56398</v>
@@ -8808,10 +8817,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>477528.5199198141</v>
+        <v>477611.1407894194</v>
       </c>
       <c r="R71" t="n">
-        <v>7033682.377499279</v>
+        <v>7034021.143660905</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8858,7 +8867,7 @@
       </c>
       <c r="AC71" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8885,10 +8894,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111901596</v>
+        <v>111901568</v>
       </c>
       <c r="B72" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8901,34 +8910,38 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>478096.0619985596</v>
+        <v>477444.339370368</v>
       </c>
       <c r="R72" t="n">
-        <v>7035117.947114002</v>
+        <v>7033760.423184556</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8971,6 +8984,11 @@
       <c r="AB72" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8997,10 +9015,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111901561</v>
+        <v>111901600</v>
       </c>
       <c r="B73" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9013,38 +9031,34 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>477353.6324963307</v>
+        <v>478177.1393061698</v>
       </c>
       <c r="R73" t="n">
-        <v>7033676.000540117</v>
+        <v>7034260.300264063</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9087,11 +9101,6 @@
       <c r="AB73" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC73" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9118,7 +9127,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111901570</v>
+        <v>111901535</v>
       </c>
       <c r="B74" t="n">
         <v>56398</v>
@@ -9162,10 +9171,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>477406.0214198313</v>
+        <v>478133.153488568</v>
       </c>
       <c r="R74" t="n">
-        <v>7033793.823331236</v>
+        <v>7034251.648335411</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9212,7 +9221,7 @@
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9239,10 +9248,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111901523</v>
+        <v>111901606</v>
       </c>
       <c r="B75" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9251,25 +9260,25 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9279,10 +9288,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>478095.1199801999</v>
+        <v>477306.6698846163</v>
       </c>
       <c r="R75" t="n">
-        <v>7035045.903991099</v>
+        <v>7033691.555703563</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9351,10 +9360,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111901522</v>
+        <v>111901625</v>
       </c>
       <c r="B76" t="n">
-        <v>90087</v>
+        <v>89747</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9363,25 +9372,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>3298</v>
+        <v>2063</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9391,10 +9400,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>477298.4037140894</v>
+        <v>478182.0360042938</v>
       </c>
       <c r="R76" t="n">
-        <v>7033474.468247524</v>
+        <v>7034255.342927237</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9463,10 +9472,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111901553</v>
+        <v>111901595</v>
       </c>
       <c r="B77" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9479,38 +9488,34 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>477099.1032443722</v>
+        <v>478119.5332644144</v>
       </c>
       <c r="R77" t="n">
-        <v>7033504.097089833</v>
+        <v>7034946.386193739</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9553,11 +9558,6 @@
       <c r="AB77" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC77" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9584,10 +9584,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111901609</v>
+        <v>111901523</v>
       </c>
       <c r="B78" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9596,25 +9596,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9624,10 +9624,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>478140.6856806503</v>
+        <v>478095.1199801999</v>
       </c>
       <c r="R78" t="n">
-        <v>7034828.538396582</v>
+        <v>7035045.903991099</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9696,10 +9696,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111901527</v>
+        <v>111901602</v>
       </c>
       <c r="B79" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9712,38 +9712,34 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>478330.4582599134</v>
+        <v>477078.4058219322</v>
       </c>
       <c r="R79" t="n">
-        <v>7034528.269818945</v>
+        <v>7033618.863656485</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9786,11 +9782,6 @@
       <c r="AB79" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC79" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9817,10 +9808,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111901589</v>
+        <v>111901590</v>
       </c>
       <c r="B80" t="n">
-        <v>90092</v>
+        <v>56414</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9829,38 +9820,42 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>67</v>
+        <v>100049</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Sprickporing</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Diplomitoporus crustulinus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Bres.) Domański</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>477449.9680636173</v>
+        <v>477995.937568082</v>
       </c>
       <c r="R80" t="n">
-        <v>7033732.178319109</v>
+        <v>7034178.282797099</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9905,13 +9900,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC80" t="inlineStr">
+        <is>
+          <t>hack</t>
+        </is>
+      </c>
       <c r="AD80" t="b">
         <v>0</v>
       </c>
       <c r="AE80" t="b">
         <v>0</v>
       </c>
-      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="b">
         <v>0</v>
       </c>
@@ -9930,10 +9929,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111901606</v>
+        <v>111901567</v>
       </c>
       <c r="B81" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9946,34 +9945,54 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I81" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P81" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>477306.6698846163</v>
+        <v>477452.815646043</v>
       </c>
       <c r="R81" t="n">
-        <v>7033691.555703563</v>
+        <v>7033754.54329758</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -10042,10 +10061,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111901610</v>
+        <v>111901578</v>
       </c>
       <c r="B82" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10058,34 +10077,38 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>478113.3056525883</v>
+        <v>477843.0506277476</v>
       </c>
       <c r="R82" t="n">
-        <v>7034953.141815373</v>
+        <v>7034173.07203023</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -10128,6 +10151,11 @@
       <c r="AB82" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC82" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -10154,10 +10182,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111901539</v>
+        <v>111901593</v>
       </c>
       <c r="B83" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -10170,38 +10198,34 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>477543.7160649595</v>
+        <v>478138.936023809</v>
       </c>
       <c r="R83" t="n">
-        <v>7033739.577035171</v>
+        <v>7034834.816035185</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -10244,11 +10268,6 @@
       <c r="AB83" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC83" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -10275,7 +10294,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111901569</v>
+        <v>111901537</v>
       </c>
       <c r="B84" t="n">
         <v>56398</v>
@@ -10319,10 +10338,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>477398.2994504073</v>
+        <v>477585.6298561281</v>
       </c>
       <c r="R84" t="n">
-        <v>7033779.55166768</v>
+        <v>7033835.089579746</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -10369,7 +10388,7 @@
       </c>
       <c r="AC84" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -10396,7 +10415,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111901526</v>
+        <v>111901539</v>
       </c>
       <c r="B85" t="n">
         <v>56398</v>
@@ -10440,10 +10459,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>478353.0790921703</v>
+        <v>477543.7160649595</v>
       </c>
       <c r="R85" t="n">
-        <v>7034559.44764189</v>
+        <v>7033739.577035171</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -10490,7 +10509,7 @@
       </c>
       <c r="AC85" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -10517,10 +10536,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111901604</v>
+        <v>111901572</v>
       </c>
       <c r="B86" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10533,34 +10552,38 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>477225.7321345775</v>
+        <v>477384.4771520677</v>
       </c>
       <c r="R86" t="n">
-        <v>7033657.657507668</v>
+        <v>7033853.518474016</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -10603,6 +10626,11 @@
       <c r="AB86" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC86" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10629,10 +10657,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111901565</v>
+        <v>111901608</v>
       </c>
       <c r="B87" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10645,38 +10673,34 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>477372.8710303173</v>
+        <v>478032.3625065266</v>
       </c>
       <c r="R87" t="n">
-        <v>7033670.491777684</v>
+        <v>7035108.091747497</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -10719,11 +10743,6 @@
       <c r="AB87" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC87" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10750,10 +10769,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111901593</v>
+        <v>111901589</v>
       </c>
       <c r="B88" t="n">
-        <v>78578</v>
+        <v>90092</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10762,25 +10781,25 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6458</v>
+        <v>67</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Sprickporing</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Diplomitoporus crustulinus</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Bres.) Domański</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10790,10 +10809,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>478138.936023809</v>
+        <v>477449.9680636173</v>
       </c>
       <c r="R88" t="n">
-        <v>7034834.816035185</v>
+        <v>7033732.178319109</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10844,6 +10863,7 @@
       <c r="AE88" t="b">
         <v>0</v>
       </c>
+      <c r="AF88" t="inlineStr"/>
       <c r="AG88" t="b">
         <v>0</v>
       </c>
@@ -10862,10 +10882,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111901524</v>
+        <v>111901623</v>
       </c>
       <c r="B89" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10878,38 +10898,34 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>478393.0053771812</v>
+        <v>478122.1132110448</v>
       </c>
       <c r="R89" t="n">
-        <v>7034564.99604707</v>
+        <v>7035061.382136666</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10952,11 +10968,6 @@
       <c r="AB89" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC89" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10983,10 +10994,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111901531</v>
+        <v>111901522</v>
       </c>
       <c r="B90" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10995,42 +11006,38 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>478266.0134983131</v>
+        <v>477298.4037140894</v>
       </c>
       <c r="R90" t="n">
-        <v>7034476.339010282</v>
+        <v>7033474.468247524</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -11073,11 +11080,6 @@
       <c r="AB90" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC90" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -11104,7 +11106,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111901537</v>
+        <v>111901553</v>
       </c>
       <c r="B91" t="n">
         <v>56398</v>
@@ -11148,10 +11150,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>477585.6298561281</v>
+        <v>477099.1032443722</v>
       </c>
       <c r="R91" t="n">
-        <v>7033835.089579746</v>
+        <v>7033504.097089833</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -11198,7 +11200,7 @@
       </c>
       <c r="AC91" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -11225,10 +11227,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111901567</v>
+        <v>111901588</v>
       </c>
       <c r="B92" t="n">
-        <v>56398</v>
+        <v>90332</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11237,58 +11239,38 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>100109</v>
+        <v>4769</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I92" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Scop.:Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>477452.815646043</v>
+        <v>477431.6258370291</v>
       </c>
       <c r="R92" t="n">
-        <v>7033754.54329758</v>
+        <v>7033674.105856254</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -11357,7 +11339,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111901538</v>
+        <v>111901571</v>
       </c>
       <c r="B93" t="n">
         <v>56398</v>
@@ -11401,10 +11383,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>477551.196685652</v>
+        <v>477388.9837839347</v>
       </c>
       <c r="R93" t="n">
-        <v>7033783.398951175</v>
+        <v>7033793.496102724</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -11451,7 +11433,7 @@
       </c>
       <c r="AC93" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -11478,7 +11460,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111901571</v>
+        <v>111901582</v>
       </c>
       <c r="B94" t="n">
         <v>56398</v>
@@ -11522,10 +11504,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>477388.9837839347</v>
+        <v>478099.9358829815</v>
       </c>
       <c r="R94" t="n">
-        <v>7033793.496102724</v>
+        <v>7034963.974146471</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -11572,7 +11554,7 @@
       </c>
       <c r="AC94" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -11599,7 +11581,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111901576</v>
+        <v>111901565</v>
       </c>
       <c r="B95" t="n">
         <v>56398</v>
@@ -11643,10 +11625,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>477473.7729348365</v>
+        <v>477372.8710303173</v>
       </c>
       <c r="R95" t="n">
-        <v>7034056.578599731</v>
+        <v>7033670.491777684</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -11693,7 +11675,7 @@
       </c>
       <c r="AC95" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11720,7 +11702,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111901534</v>
+        <v>111901533</v>
       </c>
       <c r="B96" t="n">
         <v>56398</v>
@@ -11764,10 +11746,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>478196.6579575058</v>
+        <v>478206.6279368462</v>
       </c>
       <c r="R96" t="n">
-        <v>7034427.575356619</v>
+        <v>7034443.621060859</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -11841,10 +11823,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111901580</v>
+        <v>111901521</v>
       </c>
       <c r="B97" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11853,42 +11835,38 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>477852.1205313139</v>
+        <v>478416.8277586199</v>
       </c>
       <c r="R97" t="n">
-        <v>7034188.228905845</v>
+        <v>7034575.129493972</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11931,11 +11909,6 @@
       <c r="AB97" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC97" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11962,7 +11935,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111901529</v>
+        <v>111901583</v>
       </c>
       <c r="B98" t="n">
         <v>56398</v>
@@ -12006,10 +11979,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>478295.8274075754</v>
+        <v>478099.0396604858</v>
       </c>
       <c r="R98" t="n">
-        <v>7034510.601185531</v>
+        <v>7034963.980289284</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -12083,7 +12056,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111901554</v>
+        <v>111901576</v>
       </c>
       <c r="B99" t="n">
         <v>56398</v>
@@ -12127,10 +12100,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>477059.476171807</v>
+        <v>477473.7729348365</v>
       </c>
       <c r="R99" t="n">
-        <v>7033542.438482954</v>
+        <v>7034056.578599731</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -12177,7 +12150,7 @@
       </c>
       <c r="AC99" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -12204,10 +12177,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111901620</v>
+        <v>111901580</v>
       </c>
       <c r="B100" t="n">
-        <v>85062</v>
+        <v>56398</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12220,34 +12193,38 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>249278</v>
+        <v>100109</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>478428.8768750167</v>
+        <v>477852.1205313139</v>
       </c>
       <c r="R100" t="n">
-        <v>7034567.439219557</v>
+        <v>7034188.228905845</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -12290,6 +12267,11 @@
       <c r="AB100" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC100" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -12316,10 +12298,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111901588</v>
+        <v>111901581</v>
       </c>
       <c r="B101" t="n">
-        <v>90332</v>
+        <v>56398</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12328,38 +12310,42 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>4769</v>
+        <v>100109</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>477431.6258370291</v>
+        <v>477791.9273844106</v>
       </c>
       <c r="R101" t="n">
-        <v>7033674.105856254</v>
+        <v>7034363.220776994</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -12402,6 +12388,11 @@
       <c r="AB101" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC101" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12428,10 +12419,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111901530</v>
+        <v>111901599</v>
       </c>
       <c r="B102" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12444,38 +12435,34 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>478301.071792486</v>
+        <v>478180.8349914302</v>
       </c>
       <c r="R102" t="n">
-        <v>7034490.871451757</v>
+        <v>7034276.389581721</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -12518,11 +12505,6 @@
       <c r="AB102" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC102" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12549,10 +12531,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111901622</v>
+        <v>111901552</v>
       </c>
       <c r="B103" t="n">
-        <v>85062</v>
+        <v>56398</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12565,34 +12547,38 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>249278</v>
+        <v>100109</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>478165.647914707</v>
+        <v>477255.574404106</v>
       </c>
       <c r="R103" t="n">
-        <v>7034284.10291774</v>
+        <v>7033441.19203402</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -12635,6 +12621,11 @@
       <c r="AB103" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC103" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12661,10 +12652,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111901595</v>
+        <v>111901575</v>
       </c>
       <c r="B104" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12677,34 +12668,38 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>478119.5332644144</v>
+        <v>477476.8538289875</v>
       </c>
       <c r="R104" t="n">
-        <v>7034946.386193739</v>
+        <v>7034048.499043919</v>
       </c>
       <c r="S104" t="n">
         <v>10</v>
@@ -12747,6 +12742,11 @@
       <c r="AB104" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC104" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD104" t="b">

--- a/artfynd/A 37096-2023.xlsx
+++ b/artfynd/A 37096-2023.xlsx
@@ -8894,10 +8894,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111901568</v>
+        <v>111901600</v>
       </c>
       <c r="B72" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8910,38 +8910,34 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>477444.339370368</v>
+        <v>478177.1393061698</v>
       </c>
       <c r="R72" t="n">
-        <v>7033760.423184556</v>
+        <v>7034260.300264063</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8984,11 +8980,6 @@
       <c r="AB72" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC72" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -9015,10 +9006,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111901600</v>
+        <v>111901568</v>
       </c>
       <c r="B73" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9031,34 +9022,38 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>478177.1393061698</v>
+        <v>477444.339370368</v>
       </c>
       <c r="R73" t="n">
-        <v>7034260.300264063</v>
+        <v>7033760.423184556</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9101,6 +9096,11 @@
       <c r="AB73" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD73" t="b">

--- a/artfynd/A 37096-2023.xlsx
+++ b/artfynd/A 37096-2023.xlsx
@@ -2431,10 +2431,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111769093</v>
+        <v>111769051</v>
       </c>
       <c r="B17" t="n">
-        <v>82949</v>
+        <v>73688</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2443,25 +2443,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5589</v>
+        <v>492</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Smalskaftslav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Chaenotheca gracilenta</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2474,13 +2474,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>478247.7891202001</v>
+        <v>477242.2415391286</v>
       </c>
       <c r="R17" t="n">
-        <v>7034762.017267247</v>
+        <v>7033394.72120441</v>
       </c>
       <c r="S17" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2547,10 +2547,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111769105</v>
+        <v>111769066</v>
       </c>
       <c r="B18" t="n">
-        <v>82949</v>
+        <v>96253</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2559,41 +2559,42 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5589</v>
+        <v>504</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>478264.7846321497</v>
+        <v>477894.260786515</v>
       </c>
       <c r="R18" t="n">
-        <v>7034493.356013894</v>
+        <v>7034318.644870933</v>
       </c>
       <c r="S18" t="n">
         <v>50</v>
@@ -2663,10 +2664,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111769066</v>
+        <v>111769169</v>
       </c>
       <c r="B19" t="n">
-        <v>96253</v>
+        <v>88956</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2675,31 +2676,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>504</v>
+        <v>5747</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>477894.260786515</v>
+        <v>477542.7220056681</v>
       </c>
       <c r="R19" t="n">
-        <v>7034318.644870933</v>
+        <v>7033725.70523841</v>
       </c>
       <c r="S19" t="n">
         <v>50</v>
@@ -2780,10 +2780,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111769169</v>
+        <v>111769105</v>
       </c>
       <c r="B20" t="n">
-        <v>88956</v>
+        <v>82949</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2792,25 +2792,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5747</v>
+        <v>5589</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2819,14 +2819,14 @@
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>477542.7220056681</v>
+        <v>478264.7846321497</v>
       </c>
       <c r="R20" t="n">
-        <v>7033725.70523841</v>
+        <v>7034493.356013894</v>
       </c>
       <c r="S20" t="n">
         <v>50</v>
@@ -2896,10 +2896,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111759358</v>
+        <v>111759273</v>
       </c>
       <c r="B21" t="n">
-        <v>88899</v>
+        <v>82949</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2912,21 +2912,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3286</v>
+        <v>5589</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2937,10 +2937,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>478195.3064424611</v>
+        <v>478158.3876210112</v>
       </c>
       <c r="R21" t="n">
-        <v>7034886.345942191</v>
+        <v>7034926.8764399</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3126,10 +3126,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111758961</v>
+        <v>111769149</v>
       </c>
       <c r="B23" t="n">
-        <v>86223</v>
+        <v>82949</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3142,38 +3142,40 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4412</v>
+        <v>5589</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Storbäcken (Storbäcken), Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>478081.61875638</v>
+        <v>477459.6755572999</v>
       </c>
       <c r="R23" t="n">
-        <v>7035102.830858655</v>
+        <v>7033837.318297116</v>
       </c>
       <c r="S23" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3221,6 +3223,7 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3239,10 +3242,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111769028</v>
+        <v>111759358</v>
       </c>
       <c r="B24" t="n">
-        <v>82949</v>
+        <v>88899</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3255,40 +3258,38 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5589</v>
+        <v>3286</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Storbäcken (Storbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>477173.4934072607</v>
+        <v>478195.3064424611</v>
       </c>
       <c r="R24" t="n">
-        <v>7033624.899085587</v>
+        <v>7034886.345942191</v>
       </c>
       <c r="S24" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3336,7 +3337,6 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3355,10 +3355,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111769051</v>
+        <v>111769034</v>
       </c>
       <c r="B25" t="n">
-        <v>73688</v>
+        <v>86223</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3367,25 +3367,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>492</v>
+        <v>4412</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Smalskaftslav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Chaenotheca gracilenta</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3398,10 +3398,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>477242.2415391286</v>
+        <v>477427.7828955905</v>
       </c>
       <c r="R25" t="n">
-        <v>7033394.72120441</v>
+        <v>7033574.291879836</v>
       </c>
       <c r="S25" t="n">
         <v>50</v>
@@ -3471,10 +3471,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111759273</v>
+        <v>111758748</v>
       </c>
       <c r="B26" t="n">
-        <v>82949</v>
+        <v>88033</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3483,25 +3483,25 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5589</v>
+        <v>1599</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Fjällfotad musseron</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Tricholoma olivaceotinctum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3512,10 +3512,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>478158.3876210112</v>
+        <v>478042.3229088559</v>
       </c>
       <c r="R26" t="n">
-        <v>7034926.8764399</v>
+        <v>7035188.126460684</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3584,10 +3584,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111769034</v>
+        <v>111769028</v>
       </c>
       <c r="B27" t="n">
-        <v>86223</v>
+        <v>82949</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3600,21 +3600,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4412</v>
+        <v>5589</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3627,10 +3627,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>477427.7828955905</v>
+        <v>477173.4934072607</v>
       </c>
       <c r="R27" t="n">
-        <v>7033574.291879836</v>
+        <v>7033624.899085587</v>
       </c>
       <c r="S27" t="n">
         <v>50</v>
@@ -3700,10 +3700,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111758748</v>
+        <v>111769093</v>
       </c>
       <c r="B28" t="n">
-        <v>88033</v>
+        <v>82949</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3712,42 +3712,44 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1599</v>
+        <v>5589</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Fjällfotad musseron</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Tricholoma olivaceotinctum</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Storbäcken (Storbäcken), Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>478042.3229088559</v>
+        <v>478247.7891202001</v>
       </c>
       <c r="R28" t="n">
-        <v>7035188.126460684</v>
+        <v>7034762.017267247</v>
       </c>
       <c r="S28" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3795,6 +3797,7 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3813,10 +3816,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111769149</v>
+        <v>111758961</v>
       </c>
       <c r="B29" t="n">
-        <v>82949</v>
+        <v>86223</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3829,40 +3832,38 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5589</v>
+        <v>4412</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Storbäcken (Storbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>477459.6755572999</v>
+        <v>478081.61875638</v>
       </c>
       <c r="R29" t="n">
-        <v>7033837.318297116</v>
+        <v>7035102.830858655</v>
       </c>
       <c r="S29" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3910,7 +3911,6 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4282,10 +4282,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111901569</v>
+        <v>111901521</v>
       </c>
       <c r="B33" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4294,42 +4294,38 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>477398.2994504073</v>
+        <v>478416.8277586199</v>
       </c>
       <c r="R33" t="n">
-        <v>7033779.55166768</v>
+        <v>7034575.129493972</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4372,11 +4368,6 @@
       <c r="AB33" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4403,10 +4394,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111901557</v>
+        <v>111901602</v>
       </c>
       <c r="B34" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4419,42 +4410,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>477301.6306204998</v>
+        <v>477078.4058219322</v>
       </c>
       <c r="R34" t="n">
-        <v>7033676.369342894</v>
+        <v>7033618.863656485</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4523,10 +4506,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111901526</v>
+        <v>111901612</v>
       </c>
       <c r="B35" t="n">
-        <v>56398</v>
+        <v>95674</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4535,42 +4518,38 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>222741</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>478353.0790921703</v>
+        <v>478173.6911794385</v>
       </c>
       <c r="R35" t="n">
-        <v>7034559.44764189</v>
+        <v>7034280.466984005</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4613,11 +4592,6 @@
       <c r="AB35" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4644,7 +4618,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111901561</v>
+        <v>111901552</v>
       </c>
       <c r="B36" t="n">
         <v>56398</v>
@@ -4688,10 +4662,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>477353.6324963307</v>
+        <v>477255.574404106</v>
       </c>
       <c r="R36" t="n">
-        <v>7033676.000540117</v>
+        <v>7033441.19203402</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4738,7 +4712,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4765,7 +4739,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111901540</v>
+        <v>111901579</v>
       </c>
       <c r="B37" t="n">
         <v>56398</v>
@@ -4809,10 +4783,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>477528.5199198141</v>
+        <v>477842.7544549896</v>
       </c>
       <c r="R37" t="n">
-        <v>7033682.377499279</v>
+        <v>7034195.008388352</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4859,7 +4833,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4886,7 +4860,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111901573</v>
+        <v>111901565</v>
       </c>
       <c r="B38" t="n">
         <v>56398</v>
@@ -4930,10 +4904,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>477537.5564934253</v>
+        <v>477372.8710303173</v>
       </c>
       <c r="R38" t="n">
-        <v>7034011.363671634</v>
+        <v>7033670.491777684</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4980,7 +4954,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -5007,7 +4981,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111901574</v>
+        <v>111901561</v>
       </c>
       <c r="B39" t="n">
         <v>56398</v>
@@ -5051,10 +5025,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>477521.0595750482</v>
+        <v>477353.6324963307</v>
       </c>
       <c r="R39" t="n">
-        <v>7034024.014202636</v>
+        <v>7033676.000540117</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5101,7 +5075,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5128,7 +5102,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111901570</v>
+        <v>111901581</v>
       </c>
       <c r="B40" t="n">
         <v>56398</v>
@@ -5172,10 +5146,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>477406.0214198313</v>
+        <v>477791.9273844106</v>
       </c>
       <c r="R40" t="n">
-        <v>7033793.823331236</v>
+        <v>7034363.220776994</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5222,7 +5196,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5249,10 +5223,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111901564</v>
+        <v>111901620</v>
       </c>
       <c r="B41" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5265,38 +5239,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>477365.3609946552</v>
+        <v>478428.8768750167</v>
       </c>
       <c r="R41" t="n">
-        <v>7033686.214811271</v>
+        <v>7034567.439219557</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5339,11 +5309,6 @@
       <c r="AB41" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5370,10 +5335,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111901607</v>
+        <v>111901528</v>
       </c>
       <c r="B42" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5386,34 +5351,38 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>478095.1015727581</v>
+        <v>478333.5954659996</v>
       </c>
       <c r="R42" t="n">
-        <v>7035043.219008418</v>
+        <v>7034528.248548109</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5456,6 +5425,11 @@
       <c r="AB42" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>ringhack färska, 2 träd</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5482,7 +5456,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111901536</v>
+        <v>111901529</v>
       </c>
       <c r="B43" t="n">
         <v>56398</v>
@@ -5526,10 +5500,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>478002.2311527666</v>
+        <v>478295.8274075754</v>
       </c>
       <c r="R43" t="n">
-        <v>7034180.925310614</v>
+        <v>7034510.601185531</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5603,10 +5577,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111901529</v>
+        <v>111901623</v>
       </c>
       <c r="B44" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5619,38 +5593,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>478295.8274075754</v>
+        <v>478122.1132110448</v>
       </c>
       <c r="R44" t="n">
-        <v>7034510.601185531</v>
+        <v>7035061.382136666</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5693,11 +5663,6 @@
       <c r="AB44" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5724,7 +5689,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111901554</v>
+        <v>111901540</v>
       </c>
       <c r="B45" t="n">
         <v>56398</v>
@@ -5768,10 +5733,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>477059.476171807</v>
+        <v>477528.5199198141</v>
       </c>
       <c r="R45" t="n">
-        <v>7033542.438482954</v>
+        <v>7033682.377499279</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5845,10 +5810,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111901541</v>
+        <v>111901610</v>
       </c>
       <c r="B46" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5861,38 +5826,34 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>477527.5603965624</v>
+        <v>478113.3056525883</v>
       </c>
       <c r="R46" t="n">
-        <v>7033673.430039096</v>
+        <v>7034953.141815373</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5935,11 +5896,6 @@
       <c r="AB46" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5966,10 +5922,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111901534</v>
+        <v>111901611</v>
       </c>
       <c r="B47" t="n">
-        <v>56398</v>
+        <v>88899</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5982,38 +5938,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>3286</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>478196.6579575058</v>
+        <v>478050.6335314792</v>
       </c>
       <c r="R47" t="n">
-        <v>7034427.575356619</v>
+        <v>7035158.534338644</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6058,17 +6010,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>ringhack</t>
-        </is>
-      </c>
       <c r="AD47" t="b">
         <v>0</v>
       </c>
       <c r="AE47" t="b">
         <v>0</v>
       </c>
+      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -6087,10 +6035,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111901611</v>
+        <v>111901595</v>
       </c>
       <c r="B48" t="n">
-        <v>88899</v>
+        <v>78578</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6103,21 +6051,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3286</v>
+        <v>6458</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6127,10 +6075,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>478050.6335314792</v>
+        <v>478119.5332644144</v>
       </c>
       <c r="R48" t="n">
-        <v>7035158.534338644</v>
+        <v>7034946.386193739</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6181,7 +6129,6 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
-      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
@@ -6200,10 +6147,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111901591</v>
+        <v>111901600</v>
       </c>
       <c r="B49" t="n">
-        <v>56414</v>
+        <v>89423</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6216,38 +6163,34 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100049</v>
+        <v>5432</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>477120.8792542543</v>
+        <v>478177.1393061698</v>
       </c>
       <c r="R49" t="n">
-        <v>7033665.121892933</v>
+        <v>7034260.300264063</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6290,11 +6233,6 @@
       <c r="AB49" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6321,7 +6259,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111901579</v>
+        <v>111901555</v>
       </c>
       <c r="B50" t="n">
         <v>56398</v>
@@ -6365,10 +6303,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>477842.7544549896</v>
+        <v>477075.053782316</v>
       </c>
       <c r="R50" t="n">
-        <v>7034195.008388352</v>
+        <v>7033651.571049522</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6442,10 +6380,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111901612</v>
+        <v>111901563</v>
       </c>
       <c r="B51" t="n">
-        <v>95674</v>
+        <v>56398</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6454,38 +6392,42 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>222741</v>
+        <v>100109</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>478173.6911794385</v>
+        <v>477360.4012637081</v>
       </c>
       <c r="R51" t="n">
-        <v>7034280.466984005</v>
+        <v>7033682.220543981</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6528,6 +6470,11 @@
       <c r="AB51" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6554,7 +6501,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111901538</v>
+        <v>111901564</v>
       </c>
       <c r="B52" t="n">
         <v>56398</v>
@@ -6598,10 +6545,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>477551.196685652</v>
+        <v>477365.3609946552</v>
       </c>
       <c r="R52" t="n">
-        <v>7033783.398951175</v>
+        <v>7033686.214811271</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6648,7 +6595,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6675,10 +6622,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111901609</v>
+        <v>111901593</v>
       </c>
       <c r="B53" t="n">
-        <v>77515</v>
+        <v>78578</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6691,21 +6638,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6715,10 +6662,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>478140.6856806503</v>
+        <v>478138.936023809</v>
       </c>
       <c r="R53" t="n">
-        <v>7034828.538396582</v>
+        <v>7034834.816035185</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6787,10 +6734,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111901610</v>
+        <v>111901531</v>
       </c>
       <c r="B54" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6803,34 +6750,38 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>478113.3056525883</v>
+        <v>478266.0134983131</v>
       </c>
       <c r="R54" t="n">
-        <v>7034953.141815373</v>
+        <v>7034476.339010282</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6873,6 +6824,11 @@
       <c r="AB54" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6899,7 +6855,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111901556</v>
+        <v>111901534</v>
       </c>
       <c r="B55" t="n">
         <v>56398</v>
@@ -6943,10 +6899,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>477225.8246246836</v>
+        <v>478196.6579575058</v>
       </c>
       <c r="R55" t="n">
-        <v>7033670.640521363</v>
+        <v>7034427.575356619</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -7020,10 +6976,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111901596</v>
+        <v>111901571</v>
       </c>
       <c r="B56" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7036,34 +6992,38 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>478096.0619985596</v>
+        <v>477388.9837839347</v>
       </c>
       <c r="R56" t="n">
-        <v>7035117.947114002</v>
+        <v>7033793.496102724</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7106,6 +7066,11 @@
       <c r="AB56" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7132,10 +7097,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111901598</v>
+        <v>111901568</v>
       </c>
       <c r="B57" t="n">
-        <v>88966</v>
+        <v>56398</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7148,34 +7113,38 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5754</v>
+        <v>100109</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>478095.3749122242</v>
+        <v>477444.339370368</v>
       </c>
       <c r="R57" t="n">
-        <v>7034233.1065605</v>
+        <v>7033760.423184556</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7220,13 +7189,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
       <c r="AD57" t="b">
         <v>0</v>
       </c>
       <c r="AE57" t="b">
         <v>0</v>
       </c>
-      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
@@ -7245,10 +7218,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111901528</v>
+        <v>111901622</v>
       </c>
       <c r="B58" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7261,38 +7234,34 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>478333.5954659996</v>
+        <v>478165.647914707</v>
       </c>
       <c r="R58" t="n">
-        <v>7034528.248548109</v>
+        <v>7034284.10291774</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7335,11 +7304,6 @@
       <c r="AB58" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>ringhack färska, 2 träd</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7366,10 +7330,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111901532</v>
+        <v>111901625</v>
       </c>
       <c r="B59" t="n">
-        <v>56398</v>
+        <v>89747</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7378,42 +7342,38 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>100109</v>
+        <v>2063</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>478222.3906325128</v>
+        <v>478182.0360042938</v>
       </c>
       <c r="R59" t="n">
-        <v>7034454.703636711</v>
+        <v>7034255.342927237</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7456,11 +7416,6 @@
       <c r="AB59" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7487,10 +7442,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111901524</v>
+        <v>111901596</v>
       </c>
       <c r="B60" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7503,38 +7458,34 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>478393.0053771812</v>
+        <v>478096.0619985596</v>
       </c>
       <c r="R60" t="n">
-        <v>7034564.99604707</v>
+        <v>7035117.947114002</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7577,11 +7528,6 @@
       <c r="AB60" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7608,7 +7554,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111901527</v>
+        <v>111901569</v>
       </c>
       <c r="B61" t="n">
         <v>56398</v>
@@ -7652,10 +7598,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>478330.4582599134</v>
+        <v>477398.2994504073</v>
       </c>
       <c r="R61" t="n">
-        <v>7034528.269818945</v>
+        <v>7033779.55166768</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7702,7 +7648,7 @@
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7729,10 +7675,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111901520</v>
+        <v>111901608</v>
       </c>
       <c r="B62" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7745,21 +7691,21 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7769,10 +7715,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>477844.0012352917</v>
+        <v>478032.3625065266</v>
       </c>
       <c r="R62" t="n">
-        <v>7034116.214604673</v>
+        <v>7035108.091747497</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7841,10 +7787,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111901563</v>
+        <v>111901607</v>
       </c>
       <c r="B63" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7857,38 +7803,34 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>477360.4012637081</v>
+        <v>478095.1015727581</v>
       </c>
       <c r="R63" t="n">
-        <v>7033682.220543981</v>
+        <v>7035043.219008418</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7931,11 +7873,6 @@
       <c r="AB63" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7962,10 +7899,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111901622</v>
+        <v>111901539</v>
       </c>
       <c r="B64" t="n">
-        <v>85062</v>
+        <v>56398</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7978,34 +7915,38 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>249278</v>
+        <v>100109</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>478165.647914707</v>
+        <v>477543.7160649595</v>
       </c>
       <c r="R64" t="n">
-        <v>7034284.10291774</v>
+        <v>7033739.577035171</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8048,6 +7989,11 @@
       <c r="AB64" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8074,7 +8020,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111901530</v>
+        <v>111901574</v>
       </c>
       <c r="B65" t="n">
         <v>56398</v>
@@ -8118,10 +8064,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>478301.071792486</v>
+        <v>477521.0595750482</v>
       </c>
       <c r="R65" t="n">
-        <v>7034490.871451757</v>
+        <v>7034024.014202636</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8195,7 +8141,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111901604</v>
+        <v>111901606</v>
       </c>
       <c r="B66" t="n">
         <v>89423</v>
@@ -8235,10 +8181,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>477225.7321345775</v>
+        <v>477306.6698846163</v>
       </c>
       <c r="R66" t="n">
-        <v>7033657.657507668</v>
+        <v>7033691.555703563</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8307,10 +8253,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111901594</v>
+        <v>111901598</v>
       </c>
       <c r="B67" t="n">
-        <v>78578</v>
+        <v>88966</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8323,21 +8269,21 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6458</v>
+        <v>5754</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8347,10 +8293,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>478158.0786587475</v>
+        <v>478095.3749122242</v>
       </c>
       <c r="R67" t="n">
-        <v>7034881.677253954</v>
+        <v>7034233.1065605</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8401,6 +8347,7 @@
       <c r="AE67" t="b">
         <v>0</v>
       </c>
+      <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="b">
         <v>0</v>
       </c>
@@ -8419,7 +8366,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111901555</v>
+        <v>111901582</v>
       </c>
       <c r="B68" t="n">
         <v>56398</v>
@@ -8463,10 +8410,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>477075.053782316</v>
+        <v>478099.9358829815</v>
       </c>
       <c r="R68" t="n">
-        <v>7033651.571049522</v>
+        <v>7034963.974146471</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8513,7 +8460,7 @@
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8540,10 +8487,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111901620</v>
+        <v>111901522</v>
       </c>
       <c r="B69" t="n">
-        <v>85062</v>
+        <v>90087</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8552,25 +8499,25 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>249278</v>
+        <v>3298</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8580,10 +8527,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>478428.8768750167</v>
+        <v>477298.4037140894</v>
       </c>
       <c r="R69" t="n">
-        <v>7034567.439219557</v>
+        <v>7033474.468247524</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8652,7 +8599,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111901531</v>
+        <v>111901527</v>
       </c>
       <c r="B70" t="n">
         <v>56398</v>
@@ -8696,10 +8643,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>478266.0134983131</v>
+        <v>478330.4582599134</v>
       </c>
       <c r="R70" t="n">
-        <v>7034476.339010282</v>
+        <v>7034528.269818945</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8773,7 +8720,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111901577</v>
+        <v>111901554</v>
       </c>
       <c r="B71" t="n">
         <v>56398</v>
@@ -8817,10 +8764,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>477611.1407894194</v>
+        <v>477059.476171807</v>
       </c>
       <c r="R71" t="n">
-        <v>7034021.143660905</v>
+        <v>7033542.438482954</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8867,7 +8814,7 @@
       </c>
       <c r="AC71" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8894,10 +8841,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111901600</v>
+        <v>111901609</v>
       </c>
       <c r="B72" t="n">
-        <v>89423</v>
+        <v>77515</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8910,21 +8857,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8934,10 +8881,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>478177.1393061698</v>
+        <v>478140.6856806503</v>
       </c>
       <c r="R72" t="n">
-        <v>7034260.300264063</v>
+        <v>7034828.538396582</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -9006,7 +8953,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111901568</v>
+        <v>111901567</v>
       </c>
       <c r="B73" t="n">
         <v>56398</v>
@@ -9039,21 +8986,37 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P73" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>477444.339370368</v>
+        <v>477452.815646043</v>
       </c>
       <c r="R73" t="n">
-        <v>7033760.423184556</v>
+        <v>7033754.54329758</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9096,11 +9059,6 @@
       <c r="AB73" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC73" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9127,7 +9085,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111901535</v>
+        <v>111901536</v>
       </c>
       <c r="B74" t="n">
         <v>56398</v>
@@ -9171,10 +9129,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>478133.153488568</v>
+        <v>478002.2311527666</v>
       </c>
       <c r="R74" t="n">
-        <v>7034251.648335411</v>
+        <v>7034180.925310614</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9221,7 +9179,7 @@
       </c>
       <c r="AC74" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9248,10 +9206,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111901606</v>
+        <v>111901594</v>
       </c>
       <c r="B75" t="n">
-        <v>89423</v>
+        <v>78578</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9264,21 +9222,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>5432</v>
+        <v>6458</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -9288,10 +9246,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>477306.6698846163</v>
+        <v>478158.0786587475</v>
       </c>
       <c r="R75" t="n">
-        <v>7033691.555703563</v>
+        <v>7034881.677253954</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9360,10 +9318,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111901625</v>
+        <v>111901588</v>
       </c>
       <c r="B76" t="n">
-        <v>89747</v>
+        <v>90332</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9372,25 +9330,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2063</v>
+        <v>4769</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9400,10 +9358,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>478182.0360042938</v>
+        <v>477431.6258370291</v>
       </c>
       <c r="R76" t="n">
-        <v>7034255.342927237</v>
+        <v>7033674.105856254</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9472,10 +9430,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111901595</v>
+        <v>111901599</v>
       </c>
       <c r="B77" t="n">
-        <v>78578</v>
+        <v>89423</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9488,21 +9446,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9512,10 +9470,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>478119.5332644144</v>
+        <v>478180.8349914302</v>
       </c>
       <c r="R77" t="n">
-        <v>7034946.386193739</v>
+        <v>7034276.389581721</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9584,10 +9542,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111901523</v>
+        <v>111901575</v>
       </c>
       <c r="B78" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9596,38 +9554,42 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>478095.1199801999</v>
+        <v>477476.8538289875</v>
       </c>
       <c r="R78" t="n">
-        <v>7035045.903991099</v>
+        <v>7034048.499043919</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9670,6 +9632,11 @@
       <c r="AB78" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9696,10 +9663,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111901602</v>
+        <v>111901577</v>
       </c>
       <c r="B79" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9712,34 +9679,38 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>477078.4058219322</v>
+        <v>477611.1407894194</v>
       </c>
       <c r="R79" t="n">
-        <v>7033618.863656485</v>
+        <v>7034021.143660905</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9782,6 +9753,11 @@
       <c r="AB79" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC79" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9808,7 +9784,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111901590</v>
+        <v>111901591</v>
       </c>
       <c r="B80" t="n">
         <v>56414</v>
@@ -9852,10 +9828,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>477995.937568082</v>
+        <v>477120.8792542543</v>
       </c>
       <c r="R80" t="n">
-        <v>7034178.282797099</v>
+        <v>7033665.121892933</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9929,7 +9905,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111901567</v>
+        <v>111901553</v>
       </c>
       <c r="B81" t="n">
         <v>56398</v>
@@ -9962,37 +9938,21 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>477452.815646043</v>
+        <v>477099.1032443722</v>
       </c>
       <c r="R81" t="n">
-        <v>7033754.54329758</v>
+        <v>7033504.097089833</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -10035,6 +9995,11 @@
       <c r="AB81" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC81" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -10061,10 +10026,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111901578</v>
+        <v>111901604</v>
       </c>
       <c r="B82" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10077,38 +10042,34 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>477843.0506277476</v>
+        <v>477225.7321345775</v>
       </c>
       <c r="R82" t="n">
-        <v>7034173.07203023</v>
+        <v>7033657.657507668</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -10151,11 +10112,6 @@
       <c r="AB82" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC82" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -10182,10 +10138,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111901593</v>
+        <v>111901572</v>
       </c>
       <c r="B83" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -10198,34 +10154,38 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>478138.936023809</v>
+        <v>477384.4771520677</v>
       </c>
       <c r="R83" t="n">
-        <v>7034834.816035185</v>
+        <v>7033853.518474016</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -10268,6 +10228,11 @@
       <c r="AB83" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC83" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -10294,7 +10259,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111901537</v>
+        <v>111901570</v>
       </c>
       <c r="B84" t="n">
         <v>56398</v>
@@ -10338,10 +10303,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>477585.6298561281</v>
+        <v>477406.0214198313</v>
       </c>
       <c r="R84" t="n">
-        <v>7033835.089579746</v>
+        <v>7033793.823331236</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -10388,7 +10353,7 @@
       </c>
       <c r="AC84" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -10415,7 +10380,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111901539</v>
+        <v>111901573</v>
       </c>
       <c r="B85" t="n">
         <v>56398</v>
@@ -10459,10 +10424,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>477543.7160649595</v>
+        <v>477537.5564934253</v>
       </c>
       <c r="R85" t="n">
-        <v>7033739.577035171</v>
+        <v>7034011.363671634</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -10509,7 +10474,7 @@
       </c>
       <c r="AC85" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -10536,7 +10501,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111901572</v>
+        <v>111901580</v>
       </c>
       <c r="B86" t="n">
         <v>56398</v>
@@ -10580,10 +10545,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>477384.4771520677</v>
+        <v>477852.1205313139</v>
       </c>
       <c r="R86" t="n">
-        <v>7033853.518474016</v>
+        <v>7034188.228905845</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -10630,7 +10595,7 @@
       </c>
       <c r="AC86" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10657,10 +10622,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111901608</v>
+        <v>111901583</v>
       </c>
       <c r="B87" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10673,34 +10638,38 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>478032.3625065266</v>
+        <v>478099.0396604858</v>
       </c>
       <c r="R87" t="n">
-        <v>7035108.091747497</v>
+        <v>7034963.980289284</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -10743,6 +10712,11 @@
       <c r="AB87" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC87" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10769,10 +10743,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111901589</v>
+        <v>111901532</v>
       </c>
       <c r="B88" t="n">
-        <v>90092</v>
+        <v>56398</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10781,38 +10755,42 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>67</v>
+        <v>100109</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Sprickporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Diplomitoporus crustulinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Bres.) Domański</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>477449.9680636173</v>
+        <v>478222.3906325128</v>
       </c>
       <c r="R88" t="n">
-        <v>7033732.178319109</v>
+        <v>7034454.703636711</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10857,13 +10835,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC88" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
       <c r="AD88" t="b">
         <v>0</v>
       </c>
       <c r="AE88" t="b">
         <v>0</v>
       </c>
-      <c r="AF88" t="inlineStr"/>
       <c r="AG88" t="b">
         <v>0</v>
       </c>
@@ -10882,10 +10864,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111901623</v>
+        <v>111901523</v>
       </c>
       <c r="B89" t="n">
-        <v>85062</v>
+        <v>90087</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10894,25 +10876,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>249278</v>
+        <v>3298</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10922,10 +10904,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>478122.1132110448</v>
+        <v>478095.1199801999</v>
       </c>
       <c r="R89" t="n">
-        <v>7035061.382136666</v>
+        <v>7035045.903991099</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10994,10 +10976,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111901522</v>
+        <v>111901524</v>
       </c>
       <c r="B90" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -11006,38 +10988,42 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>477298.4037140894</v>
+        <v>478393.0053771812</v>
       </c>
       <c r="R90" t="n">
-        <v>7033474.468247524</v>
+        <v>7034564.99604707</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -11080,6 +11066,11 @@
       <c r="AB90" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC90" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -11106,10 +11097,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111901553</v>
+        <v>111901590</v>
       </c>
       <c r="B91" t="n">
-        <v>56398</v>
+        <v>56414</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11122,16 +11113,16 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -11150,10 +11141,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>477099.1032443722</v>
+        <v>477995.937568082</v>
       </c>
       <c r="R91" t="n">
-        <v>7033504.097089833</v>
+        <v>7034178.282797099</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -11200,7 +11191,7 @@
       </c>
       <c r="AC91" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -11227,10 +11218,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111901588</v>
+        <v>111901541</v>
       </c>
       <c r="B92" t="n">
-        <v>90332</v>
+        <v>56398</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11239,38 +11230,42 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>4769</v>
+        <v>100109</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>477431.6258370291</v>
+        <v>477527.5603965624</v>
       </c>
       <c r="R92" t="n">
-        <v>7033674.105856254</v>
+        <v>7033673.430039096</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -11313,6 +11308,11 @@
       <c r="AB92" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC92" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -11339,7 +11339,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111901571</v>
+        <v>111901530</v>
       </c>
       <c r="B93" t="n">
         <v>56398</v>
@@ -11383,10 +11383,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>477388.9837839347</v>
+        <v>478301.071792486</v>
       </c>
       <c r="R93" t="n">
-        <v>7033793.496102724</v>
+        <v>7034490.871451757</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -11433,7 +11433,7 @@
       </c>
       <c r="AC93" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -11460,10 +11460,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111901582</v>
+        <v>111901520</v>
       </c>
       <c r="B94" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11476,38 +11476,34 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>478099.9358829815</v>
+        <v>477844.0012352917</v>
       </c>
       <c r="R94" t="n">
-        <v>7034963.974146471</v>
+        <v>7034116.214604673</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -11550,11 +11546,6 @@
       <c r="AB94" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC94" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -11581,7 +11572,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111901565</v>
+        <v>111901556</v>
       </c>
       <c r="B95" t="n">
         <v>56398</v>
@@ -11625,10 +11616,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>477372.8710303173</v>
+        <v>477225.8246246836</v>
       </c>
       <c r="R95" t="n">
-        <v>7033670.491777684</v>
+        <v>7033670.640521363</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -11675,7 +11666,7 @@
       </c>
       <c r="AC95" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11702,7 +11693,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111901533</v>
+        <v>111901557</v>
       </c>
       <c r="B96" t="n">
         <v>56398</v>
@@ -11738,7 +11729,11 @@
       <c r="I96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
@@ -11746,10 +11741,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>478206.6279368462</v>
+        <v>477301.6306204998</v>
       </c>
       <c r="R96" t="n">
-        <v>7034443.621060859</v>
+        <v>7033676.369342894</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -11792,11 +11787,6 @@
       <c r="AB96" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC96" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11823,10 +11813,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111901521</v>
+        <v>111901576</v>
       </c>
       <c r="B97" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11835,38 +11825,42 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>478416.8277586199</v>
+        <v>477473.7729348365</v>
       </c>
       <c r="R97" t="n">
-        <v>7034575.129493972</v>
+        <v>7034056.578599731</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11909,6 +11903,11 @@
       <c r="AB97" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC97" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11935,7 +11934,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111901583</v>
+        <v>111901526</v>
       </c>
       <c r="B98" t="n">
         <v>56398</v>
@@ -11979,10 +11978,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>478099.0396604858</v>
+        <v>478353.0790921703</v>
       </c>
       <c r="R98" t="n">
-        <v>7034963.980289284</v>
+        <v>7034559.44764189</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -12029,7 +12028,7 @@
       </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -12056,7 +12055,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111901576</v>
+        <v>111901535</v>
       </c>
       <c r="B99" t="n">
         <v>56398</v>
@@ -12100,10 +12099,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>477473.7729348365</v>
+        <v>478133.153488568</v>
       </c>
       <c r="R99" t="n">
-        <v>7034056.578599731</v>
+        <v>7034251.648335411</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -12150,7 +12149,7 @@
       </c>
       <c r="AC99" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -12177,10 +12176,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111901580</v>
+        <v>111901589</v>
       </c>
       <c r="B100" t="n">
-        <v>56398</v>
+        <v>90092</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12189,42 +12188,38 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>100109</v>
+        <v>67</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Sprickporing</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Diplomitoporus crustulinus</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Bres.) Domański</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>477852.1205313139</v>
+        <v>477449.9680636173</v>
       </c>
       <c r="R100" t="n">
-        <v>7034188.228905845</v>
+        <v>7033732.178319109</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -12269,17 +12264,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC100" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
-        </is>
-      </c>
       <c r="AD100" t="b">
         <v>0</v>
       </c>
       <c r="AE100" t="b">
         <v>0</v>
       </c>
+      <c r="AF100" t="inlineStr"/>
       <c r="AG100" t="b">
         <v>0</v>
       </c>
@@ -12298,7 +12289,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111901581</v>
+        <v>111901578</v>
       </c>
       <c r="B101" t="n">
         <v>56398</v>
@@ -12342,10 +12333,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>477791.9273844106</v>
+        <v>477843.0506277476</v>
       </c>
       <c r="R101" t="n">
-        <v>7034363.220776994</v>
+        <v>7034173.07203023</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -12392,7 +12383,7 @@
       </c>
       <c r="AC101" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12419,10 +12410,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111901599</v>
+        <v>111901537</v>
       </c>
       <c r="B102" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12435,34 +12426,38 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>478180.8349914302</v>
+        <v>477585.6298561281</v>
       </c>
       <c r="R102" t="n">
-        <v>7034276.389581721</v>
+        <v>7033835.089579746</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -12505,6 +12500,11 @@
       <c r="AB102" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC102" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12531,7 +12531,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111901552</v>
+        <v>111901533</v>
       </c>
       <c r="B103" t="n">
         <v>56398</v>
@@ -12575,10 +12575,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>477255.574404106</v>
+        <v>478206.6279368462</v>
       </c>
       <c r="R103" t="n">
-        <v>7033441.19203402</v>
+        <v>7034443.621060859</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="AC103" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12652,7 +12652,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111901575</v>
+        <v>111901538</v>
       </c>
       <c r="B104" t="n">
         <v>56398</v>
@@ -12696,10 +12696,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>477476.8538289875</v>
+        <v>477551.196685652</v>
       </c>
       <c r="R104" t="n">
-        <v>7034048.499043919</v>
+        <v>7033783.398951175</v>
       </c>
       <c r="S104" t="n">
         <v>10</v>
@@ -12746,7 +12746,7 @@
       </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD104" t="b">

--- a/artfynd/A 37096-2023.xlsx
+++ b/artfynd/A 37096-2023.xlsx
@@ -3242,10 +3242,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111759358</v>
+        <v>111769034</v>
       </c>
       <c r="B24" t="n">
-        <v>88899</v>
+        <v>86223</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3258,38 +3258,40 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3286</v>
+        <v>4412</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Storbäcken (Storbäcken), Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>478195.3064424611</v>
+        <v>477427.7828955905</v>
       </c>
       <c r="R24" t="n">
-        <v>7034886.345942191</v>
+        <v>7033574.291879836</v>
       </c>
       <c r="S24" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3337,6 +3339,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3355,10 +3358,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111769034</v>
+        <v>111759358</v>
       </c>
       <c r="B25" t="n">
-        <v>86223</v>
+        <v>88899</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3371,40 +3374,38 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4412</v>
+        <v>3286</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Storbäcken (Storbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>477427.7828955905</v>
+        <v>478195.3064424611</v>
       </c>
       <c r="R25" t="n">
-        <v>7033574.291879836</v>
+        <v>7034886.345942191</v>
       </c>
       <c r="S25" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3452,7 +3453,6 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 37096-2023.xlsx
+++ b/artfynd/A 37096-2023.xlsx
@@ -2431,10 +2431,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111769051</v>
+        <v>111759273</v>
       </c>
       <c r="B17" t="n">
-        <v>73688</v>
+        <v>82949</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2443,44 +2443,42 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>492</v>
+        <v>5589</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Smalskaftslav</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chaenotheca gracilenta</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Storbäcken (Storbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>477242.2415391286</v>
+        <v>478158.3876210112</v>
       </c>
       <c r="R17" t="n">
-        <v>7033394.72120441</v>
+        <v>7034926.8764399</v>
       </c>
       <c r="S17" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2528,7 +2526,6 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2547,10 +2544,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111769066</v>
+        <v>111769105</v>
       </c>
       <c r="B18" t="n">
-        <v>96253</v>
+        <v>82949</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2559,42 +2556,41 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>504</v>
+        <v>5589</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>477894.260786515</v>
+        <v>478264.7846321497</v>
       </c>
       <c r="R18" t="n">
-        <v>7034318.644870933</v>
+        <v>7034493.356013894</v>
       </c>
       <c r="S18" t="n">
         <v>50</v>
@@ -2780,10 +2776,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111769105</v>
+        <v>111758748</v>
       </c>
       <c r="B20" t="n">
-        <v>82949</v>
+        <v>88033</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2792,44 +2788,42 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5589</v>
+        <v>1599</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Fjällfotad musseron</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Tricholoma olivaceotinctum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Storbäcken (Storbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>478264.7846321497</v>
+        <v>478042.3229088559</v>
       </c>
       <c r="R20" t="n">
-        <v>7034493.356013894</v>
+        <v>7035188.126460684</v>
       </c>
       <c r="S20" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2877,7 +2871,6 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2896,10 +2889,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111759273</v>
+        <v>111769066</v>
       </c>
       <c r="B21" t="n">
-        <v>82949</v>
+        <v>96253</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2908,42 +2901,45 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5589</v>
+        <v>504</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Storbäcken (Storbäcken), Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>478158.3876210112</v>
+        <v>477894.260786515</v>
       </c>
       <c r="R21" t="n">
-        <v>7034926.8764399</v>
+        <v>7034318.644870933</v>
       </c>
       <c r="S21" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2991,6 +2987,7 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3009,10 +3006,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111769042</v>
+        <v>111759358</v>
       </c>
       <c r="B22" t="n">
-        <v>96326</v>
+        <v>88899</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3021,45 +3018,42 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>219798</v>
+        <v>3286</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Storbäcken (Storbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>477548.844789583</v>
+        <v>478195.3064424611</v>
       </c>
       <c r="R22" t="n">
-        <v>7033895.337382489</v>
+        <v>7034886.345942191</v>
       </c>
       <c r="S22" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3107,7 +3101,6 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3126,7 +3119,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111769149</v>
+        <v>111769093</v>
       </c>
       <c r="B23" t="n">
         <v>82949</v>
@@ -3165,17 +3158,17 @@
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>477459.6755572999</v>
+        <v>478247.7891202001</v>
       </c>
       <c r="R23" t="n">
-        <v>7033837.318297116</v>
+        <v>7034762.017267247</v>
       </c>
       <c r="S23" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3358,10 +3351,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111759358</v>
+        <v>111769051</v>
       </c>
       <c r="B25" t="n">
-        <v>88899</v>
+        <v>73688</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3370,42 +3363,44 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3286</v>
+        <v>492</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Smalskaftslav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Chaenotheca gracilenta</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Storbäcken (Storbäcken), Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>478195.3064424611</v>
+        <v>477242.2415391286</v>
       </c>
       <c r="R25" t="n">
-        <v>7034886.345942191</v>
+        <v>7033394.72120441</v>
       </c>
       <c r="S25" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3453,6 +3448,7 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3471,10 +3467,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111758748</v>
+        <v>111769149</v>
       </c>
       <c r="B26" t="n">
-        <v>88033</v>
+        <v>82949</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3483,42 +3479,44 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1599</v>
+        <v>5589</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Fjällfotad musseron</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tricholoma olivaceotinctum</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Storbäcken (Storbäcken), Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>478042.3229088559</v>
+        <v>477459.6755572999</v>
       </c>
       <c r="R26" t="n">
-        <v>7035188.126460684</v>
+        <v>7033837.318297116</v>
       </c>
       <c r="S26" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3566,6 +3564,7 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3584,10 +3583,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111769028</v>
+        <v>111758961</v>
       </c>
       <c r="B27" t="n">
-        <v>82949</v>
+        <v>86223</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3600,40 +3599,38 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5589</v>
+        <v>4412</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Storbäcken (Storbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>477173.4934072607</v>
+        <v>478081.61875638</v>
       </c>
       <c r="R27" t="n">
-        <v>7033624.899085587</v>
+        <v>7035102.830858655</v>
       </c>
       <c r="S27" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3681,7 +3678,6 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3700,7 +3696,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111769093</v>
+        <v>111769028</v>
       </c>
       <c r="B28" t="n">
         <v>82949</v>
@@ -3743,13 +3739,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>478247.7891202001</v>
+        <v>477173.4934072607</v>
       </c>
       <c r="R28" t="n">
-        <v>7034762.017267247</v>
+        <v>7033624.899085587</v>
       </c>
       <c r="S28" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3816,10 +3812,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111758961</v>
+        <v>111769042</v>
       </c>
       <c r="B29" t="n">
-        <v>86223</v>
+        <v>96326</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3828,42 +3824,45 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>4412</v>
+        <v>219798</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Storbäcken (Storbäcken), Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>478081.61875638</v>
+        <v>477548.844789583</v>
       </c>
       <c r="R29" t="n">
-        <v>7035102.830858655</v>
+        <v>7033895.337382489</v>
       </c>
       <c r="S29" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3911,6 +3910,7 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4282,10 +4282,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111901521</v>
+        <v>111901536</v>
       </c>
       <c r="B33" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4294,38 +4294,42 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>478416.8277586199</v>
+        <v>478002.2311527666</v>
       </c>
       <c r="R33" t="n">
-        <v>7034575.129493972</v>
+        <v>7034180.925310614</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4368,6 +4372,11 @@
       <c r="AB33" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4394,10 +4403,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111901602</v>
+        <v>111901598</v>
       </c>
       <c r="B34" t="n">
-        <v>89423</v>
+        <v>88966</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4410,21 +4419,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5432</v>
+        <v>5754</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4434,10 +4443,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>477078.4058219322</v>
+        <v>478095.3749122242</v>
       </c>
       <c r="R34" t="n">
-        <v>7033618.863656485</v>
+        <v>7034233.1065605</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4488,6 +4497,7 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4506,10 +4516,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111901612</v>
+        <v>111901541</v>
       </c>
       <c r="B35" t="n">
-        <v>95674</v>
+        <v>56398</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4518,38 +4528,42 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>222741</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>478173.6911794385</v>
+        <v>477527.5603965624</v>
       </c>
       <c r="R35" t="n">
-        <v>7034280.466984005</v>
+        <v>7033673.430039096</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4592,6 +4606,11 @@
       <c r="AB35" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4618,10 +4637,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111901552</v>
+        <v>111901602</v>
       </c>
       <c r="B36" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4634,38 +4653,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>477255.574404106</v>
+        <v>477078.4058219322</v>
       </c>
       <c r="R36" t="n">
-        <v>7033441.19203402</v>
+        <v>7033618.863656485</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4708,11 +4723,6 @@
       <c r="AB36" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4739,7 +4749,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111901579</v>
+        <v>111901537</v>
       </c>
       <c r="B37" t="n">
         <v>56398</v>
@@ -4783,10 +4793,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>477842.7544549896</v>
+        <v>477585.6298561281</v>
       </c>
       <c r="R37" t="n">
-        <v>7034195.008388352</v>
+        <v>7033835.089579746</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4833,7 +4843,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4860,7 +4870,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111901565</v>
+        <v>111901533</v>
       </c>
       <c r="B38" t="n">
         <v>56398</v>
@@ -4904,10 +4914,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>477372.8710303173</v>
+        <v>478206.6279368462</v>
       </c>
       <c r="R38" t="n">
-        <v>7033670.491777684</v>
+        <v>7034443.621060859</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4954,7 +4964,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4981,7 +4991,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111901561</v>
+        <v>111901538</v>
       </c>
       <c r="B39" t="n">
         <v>56398</v>
@@ -5025,10 +5035,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>477353.6324963307</v>
+        <v>477551.196685652</v>
       </c>
       <c r="R39" t="n">
-        <v>7033676.000540117</v>
+        <v>7033783.398951175</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5075,7 +5085,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5102,7 +5112,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111901581</v>
+        <v>111901534</v>
       </c>
       <c r="B40" t="n">
         <v>56398</v>
@@ -5146,10 +5156,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>477791.9273844106</v>
+        <v>478196.6579575058</v>
       </c>
       <c r="R40" t="n">
-        <v>7034363.220776994</v>
+        <v>7034427.575356619</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5196,7 +5206,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5223,10 +5233,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111901620</v>
+        <v>111901572</v>
       </c>
       <c r="B41" t="n">
-        <v>85062</v>
+        <v>56398</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5239,34 +5249,38 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>249278</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>478428.8768750167</v>
+        <v>477384.4771520677</v>
       </c>
       <c r="R41" t="n">
-        <v>7034567.439219557</v>
+        <v>7033853.518474016</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5309,6 +5323,11 @@
       <c r="AB41" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5335,7 +5354,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111901528</v>
+        <v>111901535</v>
       </c>
       <c r="B42" t="n">
         <v>56398</v>
@@ -5379,10 +5398,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>478333.5954659996</v>
+        <v>478133.153488568</v>
       </c>
       <c r="R42" t="n">
-        <v>7034528.248548109</v>
+        <v>7034251.648335411</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5429,7 +5448,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>ringhack färska, 2 träd</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5456,7 +5475,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111901529</v>
+        <v>111901565</v>
       </c>
       <c r="B43" t="n">
         <v>56398</v>
@@ -5500,10 +5519,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>478295.8274075754</v>
+        <v>477372.8710303173</v>
       </c>
       <c r="R43" t="n">
-        <v>7034510.601185531</v>
+        <v>7033670.491777684</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5550,7 +5569,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5577,10 +5596,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111901623</v>
+        <v>111901625</v>
       </c>
       <c r="B44" t="n">
-        <v>85062</v>
+        <v>89747</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5589,25 +5608,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>249278</v>
+        <v>2063</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5617,10 +5636,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>478122.1132110448</v>
+        <v>478182.0360042938</v>
       </c>
       <c r="R44" t="n">
-        <v>7035061.382136666</v>
+        <v>7034255.342927237</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5689,7 +5708,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111901540</v>
+        <v>111901532</v>
       </c>
       <c r="B45" t="n">
         <v>56398</v>
@@ -5733,10 +5752,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>477528.5199198141</v>
+        <v>478222.3906325128</v>
       </c>
       <c r="R45" t="n">
-        <v>7033682.377499279</v>
+        <v>7034454.703636711</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5783,7 +5802,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5810,10 +5829,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111901610</v>
+        <v>111901577</v>
       </c>
       <c r="B46" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5826,34 +5845,38 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>478113.3056525883</v>
+        <v>477611.1407894194</v>
       </c>
       <c r="R46" t="n">
-        <v>7034953.141815373</v>
+        <v>7034021.143660905</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5896,6 +5919,11 @@
       <c r="AB46" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5922,10 +5950,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111901611</v>
+        <v>111901609</v>
       </c>
       <c r="B47" t="n">
-        <v>88899</v>
+        <v>77515</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5938,21 +5966,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>3286</v>
+        <v>6425</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5962,10 +5990,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>478050.6335314792</v>
+        <v>478140.6856806503</v>
       </c>
       <c r="R47" t="n">
-        <v>7035158.534338644</v>
+        <v>7034828.538396582</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6016,7 +6044,6 @@
       <c r="AE47" t="b">
         <v>0</v>
       </c>
-      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -6035,10 +6062,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111901595</v>
+        <v>111901612</v>
       </c>
       <c r="B48" t="n">
-        <v>78578</v>
+        <v>95674</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6047,25 +6074,25 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6458</v>
+        <v>222741</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -6075,10 +6102,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>478119.5332644144</v>
+        <v>478173.6911794385</v>
       </c>
       <c r="R48" t="n">
-        <v>7034946.386193739</v>
+        <v>7034280.466984005</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6147,10 +6174,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111901600</v>
+        <v>111901570</v>
       </c>
       <c r="B49" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6163,34 +6190,38 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>478177.1393061698</v>
+        <v>477406.0214198313</v>
       </c>
       <c r="R49" t="n">
-        <v>7034260.300264063</v>
+        <v>7033793.823331236</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6233,6 +6264,11 @@
       <c r="AB49" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6259,7 +6295,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111901555</v>
+        <v>111901526</v>
       </c>
       <c r="B50" t="n">
         <v>56398</v>
@@ -6303,10 +6339,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>477075.053782316</v>
+        <v>478353.0790921703</v>
       </c>
       <c r="R50" t="n">
-        <v>7033651.571049522</v>
+        <v>7034559.44764189</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6380,10 +6416,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111901563</v>
+        <v>111901607</v>
       </c>
       <c r="B51" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6396,38 +6432,34 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>477360.4012637081</v>
+        <v>478095.1015727581</v>
       </c>
       <c r="R51" t="n">
-        <v>7033682.220543981</v>
+        <v>7035043.219008418</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6470,11 +6502,6 @@
       <c r="AB51" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6501,10 +6528,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111901564</v>
+        <v>111901595</v>
       </c>
       <c r="B52" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6517,38 +6544,34 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>477365.3609946552</v>
+        <v>478119.5332644144</v>
       </c>
       <c r="R52" t="n">
-        <v>7033686.214811271</v>
+        <v>7034946.386193739</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6591,11 +6614,6 @@
       <c r="AB52" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6622,10 +6640,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111901593</v>
+        <v>111901557</v>
       </c>
       <c r="B53" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6638,34 +6656,42 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>478138.936023809</v>
+        <v>477301.6306204998</v>
       </c>
       <c r="R53" t="n">
-        <v>7034834.816035185</v>
+        <v>7033676.369342894</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6734,10 +6760,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111901531</v>
+        <v>111901590</v>
       </c>
       <c r="B54" t="n">
-        <v>56398</v>
+        <v>56414</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6750,16 +6776,16 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -6778,10 +6804,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>478266.0134983131</v>
+        <v>477995.937568082</v>
       </c>
       <c r="R54" t="n">
-        <v>7034476.339010282</v>
+        <v>7034178.282797099</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6828,7 +6854,7 @@
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6855,7 +6881,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111901534</v>
+        <v>111901564</v>
       </c>
       <c r="B55" t="n">
         <v>56398</v>
@@ -6899,10 +6925,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>478196.6579575058</v>
+        <v>477365.3609946552</v>
       </c>
       <c r="R55" t="n">
-        <v>7034427.575356619</v>
+        <v>7033686.214811271</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6976,7 +7002,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111901571</v>
+        <v>111901554</v>
       </c>
       <c r="B56" t="n">
         <v>56398</v>
@@ -7020,10 +7046,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>477388.9837839347</v>
+        <v>477059.476171807</v>
       </c>
       <c r="R56" t="n">
-        <v>7033793.496102724</v>
+        <v>7033542.438482954</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7070,7 +7096,7 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7097,10 +7123,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111901568</v>
+        <v>111901604</v>
       </c>
       <c r="B57" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7113,38 +7139,34 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>477444.339370368</v>
+        <v>477225.7321345775</v>
       </c>
       <c r="R57" t="n">
-        <v>7033760.423184556</v>
+        <v>7033657.657507668</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7187,11 +7209,6 @@
       <c r="AB57" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7218,10 +7235,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111901622</v>
+        <v>111901594</v>
       </c>
       <c r="B58" t="n">
-        <v>85062</v>
+        <v>78578</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7234,21 +7251,21 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>249278</v>
+        <v>6458</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7258,10 +7275,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>478165.647914707</v>
+        <v>478158.0786587475</v>
       </c>
       <c r="R58" t="n">
-        <v>7034284.10291774</v>
+        <v>7034881.677253954</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7330,10 +7347,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111901625</v>
+        <v>111901561</v>
       </c>
       <c r="B59" t="n">
-        <v>89747</v>
+        <v>56398</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7342,38 +7359,42 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2063</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>478182.0360042938</v>
+        <v>477353.6324963307</v>
       </c>
       <c r="R59" t="n">
-        <v>7034255.342927237</v>
+        <v>7033676.000540117</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7416,6 +7437,11 @@
       <c r="AB59" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7442,10 +7468,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111901596</v>
+        <v>111901571</v>
       </c>
       <c r="B60" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7458,34 +7484,38 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>478096.0619985596</v>
+        <v>477388.9837839347</v>
       </c>
       <c r="R60" t="n">
-        <v>7035117.947114002</v>
+        <v>7033793.496102724</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7528,6 +7558,11 @@
       <c r="AB60" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7554,7 +7589,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111901569</v>
+        <v>111901556</v>
       </c>
       <c r="B61" t="n">
         <v>56398</v>
@@ -7598,10 +7633,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>477398.2994504073</v>
+        <v>477225.8246246836</v>
       </c>
       <c r="R61" t="n">
-        <v>7033779.55166768</v>
+        <v>7033670.640521363</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7675,10 +7710,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111901608</v>
+        <v>111901574</v>
       </c>
       <c r="B62" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7691,34 +7726,38 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>478032.3625065266</v>
+        <v>477521.0595750482</v>
       </c>
       <c r="R62" t="n">
-        <v>7035108.091747497</v>
+        <v>7034024.014202636</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7761,6 +7800,11 @@
       <c r="AB62" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC62" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7787,10 +7831,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111901607</v>
+        <v>111901589</v>
       </c>
       <c r="B63" t="n">
-        <v>89423</v>
+        <v>90092</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7799,25 +7843,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>5432</v>
+        <v>67</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Sprickporing</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Diplomitoporus crustulinus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Bres.) Domański</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7827,10 +7871,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>478095.1015727581</v>
+        <v>477449.9680636173</v>
       </c>
       <c r="R63" t="n">
-        <v>7035043.219008418</v>
+        <v>7033732.178319109</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7881,6 +7925,7 @@
       <c r="AE63" t="b">
         <v>0</v>
       </c>
+      <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="b">
         <v>0</v>
       </c>
@@ -7899,7 +7944,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111901539</v>
+        <v>111901573</v>
       </c>
       <c r="B64" t="n">
         <v>56398</v>
@@ -7943,10 +7988,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>477543.7160649595</v>
+        <v>477537.5564934253</v>
       </c>
       <c r="R64" t="n">
-        <v>7033739.577035171</v>
+        <v>7034011.363671634</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7993,7 +8038,7 @@
       </c>
       <c r="AC64" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8020,7 +8065,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111901574</v>
+        <v>111901581</v>
       </c>
       <c r="B65" t="n">
         <v>56398</v>
@@ -8064,10 +8109,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>477521.0595750482</v>
+        <v>477791.9273844106</v>
       </c>
       <c r="R65" t="n">
-        <v>7034024.014202636</v>
+        <v>7034363.220776994</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8141,10 +8186,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111901606</v>
+        <v>111901530</v>
       </c>
       <c r="B66" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8157,34 +8202,38 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>477306.6698846163</v>
+        <v>478301.071792486</v>
       </c>
       <c r="R66" t="n">
-        <v>7033691.555703563</v>
+        <v>7034490.871451757</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8227,6 +8276,11 @@
       <c r="AB66" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8253,10 +8307,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111901598</v>
+        <v>111901524</v>
       </c>
       <c r="B67" t="n">
-        <v>88966</v>
+        <v>56398</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8269,34 +8323,38 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>5754</v>
+        <v>100109</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>478095.3749122242</v>
+        <v>478393.0053771812</v>
       </c>
       <c r="R67" t="n">
-        <v>7034233.1065605</v>
+        <v>7034564.99604707</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8341,13 +8399,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
       <c r="AD67" t="b">
         <v>0</v>
       </c>
       <c r="AE67" t="b">
         <v>0</v>
       </c>
-      <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="b">
         <v>0</v>
       </c>
@@ -8366,7 +8428,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111901582</v>
+        <v>111901580</v>
       </c>
       <c r="B68" t="n">
         <v>56398</v>
@@ -8410,10 +8472,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>478099.9358829815</v>
+        <v>477852.1205313139</v>
       </c>
       <c r="R68" t="n">
-        <v>7034963.974146471</v>
+        <v>7034188.228905845</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8487,10 +8549,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111901522</v>
+        <v>111901540</v>
       </c>
       <c r="B69" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8499,38 +8561,42 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>477298.4037140894</v>
+        <v>477528.5199198141</v>
       </c>
       <c r="R69" t="n">
-        <v>7033474.468247524</v>
+        <v>7033682.377499279</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8573,6 +8639,11 @@
       <c r="AB69" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC69" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8599,10 +8670,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111901527</v>
+        <v>111901521</v>
       </c>
       <c r="B70" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8611,42 +8682,38 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>478330.4582599134</v>
+        <v>478416.8277586199</v>
       </c>
       <c r="R70" t="n">
-        <v>7034528.269818945</v>
+        <v>7034575.129493972</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8689,11 +8756,6 @@
       <c r="AB70" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC70" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8720,7 +8782,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111901554</v>
+        <v>111901583</v>
       </c>
       <c r="B71" t="n">
         <v>56398</v>
@@ -8764,10 +8826,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>477059.476171807</v>
+        <v>478099.0396604858</v>
       </c>
       <c r="R71" t="n">
-        <v>7033542.438482954</v>
+        <v>7034963.980289284</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8814,7 +8876,7 @@
       </c>
       <c r="AC71" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8841,10 +8903,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111901609</v>
+        <v>111901555</v>
       </c>
       <c r="B72" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8857,34 +8919,38 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>478140.6856806503</v>
+        <v>477075.053782316</v>
       </c>
       <c r="R72" t="n">
-        <v>7034828.538396582</v>
+        <v>7033651.571049522</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8927,6 +8993,11 @@
       <c r="AB72" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8953,7 +9024,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111901567</v>
+        <v>111901575</v>
       </c>
       <c r="B73" t="n">
         <v>56398</v>
@@ -8986,37 +9057,21 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>477452.815646043</v>
+        <v>477476.8538289875</v>
       </c>
       <c r="R73" t="n">
-        <v>7033754.54329758</v>
+        <v>7034048.499043919</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9059,6 +9114,11 @@
       <c r="AB73" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9085,7 +9145,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111901536</v>
+        <v>111901529</v>
       </c>
       <c r="B74" t="n">
         <v>56398</v>
@@ -9129,10 +9189,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>478002.2311527666</v>
+        <v>478295.8274075754</v>
       </c>
       <c r="R74" t="n">
-        <v>7034180.925310614</v>
+        <v>7034510.601185531</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9206,10 +9266,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111901594</v>
+        <v>111901576</v>
       </c>
       <c r="B75" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9222,34 +9282,38 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>478158.0786587475</v>
+        <v>477473.7729348365</v>
       </c>
       <c r="R75" t="n">
-        <v>7034881.677253954</v>
+        <v>7034056.578599731</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9292,6 +9356,11 @@
       <c r="AB75" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9318,10 +9387,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111901588</v>
+        <v>111901593</v>
       </c>
       <c r="B76" t="n">
-        <v>90332</v>
+        <v>78578</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9330,25 +9399,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>4769</v>
+        <v>6458</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9358,10 +9427,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>477431.6258370291</v>
+        <v>478138.936023809</v>
       </c>
       <c r="R76" t="n">
-        <v>7033674.105856254</v>
+        <v>7034834.816035185</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9430,10 +9499,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111901599</v>
+        <v>111901520</v>
       </c>
       <c r="B77" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9446,21 +9515,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9470,10 +9539,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>478180.8349914302</v>
+        <v>477844.0012352917</v>
       </c>
       <c r="R77" t="n">
-        <v>7034276.389581721</v>
+        <v>7034116.214604673</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9542,10 +9611,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111901575</v>
+        <v>111901610</v>
       </c>
       <c r="B78" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9558,38 +9627,34 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>477476.8538289875</v>
+        <v>478113.3056525883</v>
       </c>
       <c r="R78" t="n">
-        <v>7034048.499043919</v>
+        <v>7034953.141815373</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9632,11 +9697,6 @@
       <c r="AB78" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC78" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9663,10 +9723,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111901577</v>
+        <v>111901522</v>
       </c>
       <c r="B79" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9675,42 +9735,38 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>477611.1407894194</v>
+        <v>477298.4037140894</v>
       </c>
       <c r="R79" t="n">
-        <v>7034021.143660905</v>
+        <v>7033474.468247524</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9753,11 +9809,6 @@
       <c r="AB79" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC79" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9784,10 +9835,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111901591</v>
+        <v>111901611</v>
       </c>
       <c r="B80" t="n">
-        <v>56414</v>
+        <v>88899</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9800,38 +9851,34 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>100049</v>
+        <v>3286</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>477120.8792542543</v>
+        <v>478050.6335314792</v>
       </c>
       <c r="R80" t="n">
-        <v>7033665.121892933</v>
+        <v>7035158.534338644</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9876,17 +9923,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC80" t="inlineStr">
-        <is>
-          <t>hack</t>
-        </is>
-      </c>
       <c r="AD80" t="b">
         <v>0</v>
       </c>
       <c r="AE80" t="b">
         <v>0</v>
       </c>
+      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="b">
         <v>0</v>
       </c>
@@ -9905,7 +9948,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111901553</v>
+        <v>111901531</v>
       </c>
       <c r="B81" t="n">
         <v>56398</v>
@@ -9949,10 +9992,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>477099.1032443722</v>
+        <v>478266.0134983131</v>
       </c>
       <c r="R81" t="n">
-        <v>7033504.097089833</v>
+        <v>7034476.339010282</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9999,7 +10042,7 @@
       </c>
       <c r="AC81" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -10026,10 +10069,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111901604</v>
+        <v>111901528</v>
       </c>
       <c r="B82" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10042,34 +10085,38 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>477225.7321345775</v>
+        <v>478333.5954659996</v>
       </c>
       <c r="R82" t="n">
-        <v>7033657.657507668</v>
+        <v>7034528.248548109</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -10112,6 +10159,11 @@
       <c r="AB82" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC82" t="inlineStr">
+        <is>
+          <t>ringhack färska, 2 träd</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -10138,10 +10190,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111901572</v>
+        <v>111901591</v>
       </c>
       <c r="B83" t="n">
-        <v>56398</v>
+        <v>56414</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -10154,16 +10206,16 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -10182,10 +10234,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>477384.4771520677</v>
+        <v>477120.8792542543</v>
       </c>
       <c r="R83" t="n">
-        <v>7033853.518474016</v>
+        <v>7033665.121892933</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -10232,7 +10284,7 @@
       </c>
       <c r="AC83" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -10259,10 +10311,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111901570</v>
+        <v>111901600</v>
       </c>
       <c r="B84" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -10275,38 +10327,34 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>477406.0214198313</v>
+        <v>478177.1393061698</v>
       </c>
       <c r="R84" t="n">
-        <v>7033793.823331236</v>
+        <v>7034260.300264063</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -10349,11 +10397,6 @@
       <c r="AB84" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC84" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -10380,10 +10423,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111901573</v>
+        <v>111901588</v>
       </c>
       <c r="B85" t="n">
-        <v>56398</v>
+        <v>90332</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10392,42 +10435,38 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>100109</v>
+        <v>4769</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>477537.5564934253</v>
+        <v>477431.6258370291</v>
       </c>
       <c r="R85" t="n">
-        <v>7034011.363671634</v>
+        <v>7033674.105856254</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -10470,11 +10509,6 @@
       <c r="AB85" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC85" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -10501,10 +10535,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111901580</v>
+        <v>111901622</v>
       </c>
       <c r="B86" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10517,38 +10551,34 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>477852.1205313139</v>
+        <v>478165.647914707</v>
       </c>
       <c r="R86" t="n">
-        <v>7034188.228905845</v>
+        <v>7034284.10291774</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -10591,11 +10621,6 @@
       <c r="AB86" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC86" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10622,10 +10647,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111901583</v>
+        <v>111901620</v>
       </c>
       <c r="B87" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10638,38 +10663,34 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>478099.0396604858</v>
+        <v>478428.8768750167</v>
       </c>
       <c r="R87" t="n">
-        <v>7034963.980289284</v>
+        <v>7034567.439219557</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -10712,11 +10733,6 @@
       <c r="AB87" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC87" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10743,10 +10759,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111901532</v>
+        <v>111901623</v>
       </c>
       <c r="B88" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10759,38 +10775,34 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>478222.3906325128</v>
+        <v>478122.1132110448</v>
       </c>
       <c r="R88" t="n">
-        <v>7034454.703636711</v>
+        <v>7035061.382136666</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10833,11 +10845,6 @@
       <c r="AB88" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC88" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10864,10 +10871,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111901523</v>
+        <v>111901579</v>
       </c>
       <c r="B89" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10876,38 +10883,42 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>478095.1199801999</v>
+        <v>477842.7544549896</v>
       </c>
       <c r="R89" t="n">
-        <v>7035045.903991099</v>
+        <v>7034195.008388352</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10950,6 +10961,11 @@
       <c r="AB89" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC89" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10976,7 +10992,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111901524</v>
+        <v>111901539</v>
       </c>
       <c r="B90" t="n">
         <v>56398</v>
@@ -11020,10 +11036,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>478393.0053771812</v>
+        <v>477543.7160649595</v>
       </c>
       <c r="R90" t="n">
-        <v>7034564.99604707</v>
+        <v>7033739.577035171</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -11097,10 +11113,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111901590</v>
+        <v>111901523</v>
       </c>
       <c r="B91" t="n">
-        <v>56414</v>
+        <v>90087</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11109,42 +11125,38 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>100049</v>
+        <v>3298</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>477995.937568082</v>
+        <v>478095.1199801999</v>
       </c>
       <c r="R91" t="n">
-        <v>7034178.282797099</v>
+        <v>7035045.903991099</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -11187,11 +11199,6 @@
       <c r="AB91" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC91" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -11218,7 +11225,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111901541</v>
+        <v>111901527</v>
       </c>
       <c r="B92" t="n">
         <v>56398</v>
@@ -11262,10 +11269,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>477527.5603965624</v>
+        <v>478330.4582599134</v>
       </c>
       <c r="R92" t="n">
-        <v>7033673.430039096</v>
+        <v>7034528.269818945</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -11339,7 +11346,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111901530</v>
+        <v>111901563</v>
       </c>
       <c r="B93" t="n">
         <v>56398</v>
@@ -11383,10 +11390,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>478301.071792486</v>
+        <v>477360.4012637081</v>
       </c>
       <c r="R93" t="n">
-        <v>7034490.871451757</v>
+        <v>7033682.220543981</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -11460,10 +11467,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111901520</v>
+        <v>111901552</v>
       </c>
       <c r="B94" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11476,34 +11483,38 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>477844.0012352917</v>
+        <v>477255.574404106</v>
       </c>
       <c r="R94" t="n">
-        <v>7034116.214604673</v>
+        <v>7033441.19203402</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -11546,6 +11557,11 @@
       <c r="AB94" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC94" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -11572,10 +11588,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111901556</v>
+        <v>111901606</v>
       </c>
       <c r="B95" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11588,38 +11604,34 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>477225.8246246836</v>
+        <v>477306.6698846163</v>
       </c>
       <c r="R95" t="n">
-        <v>7033670.640521363</v>
+        <v>7033691.555703563</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -11662,11 +11674,6 @@
       <c r="AB95" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC95" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11693,7 +11700,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111901557</v>
+        <v>111901568</v>
       </c>
       <c r="B96" t="n">
         <v>56398</v>
@@ -11729,11 +11736,7 @@
       <c r="I96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
+      <c r="M96" t="inlineStr"/>
       <c r="N96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
@@ -11741,10 +11744,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>477301.6306204998</v>
+        <v>477444.339370368</v>
       </c>
       <c r="R96" t="n">
-        <v>7033676.369342894</v>
+        <v>7033760.423184556</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -11787,6 +11790,11 @@
       <c r="AB96" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC96" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11813,10 +11821,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111901576</v>
+        <v>111901596</v>
       </c>
       <c r="B97" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11829,38 +11837,34 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>477473.7729348365</v>
+        <v>478096.0619985596</v>
       </c>
       <c r="R97" t="n">
-        <v>7034056.578599731</v>
+        <v>7035117.947114002</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11903,11 +11907,6 @@
       <c r="AB97" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC97" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11934,10 +11933,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111901526</v>
+        <v>111901599</v>
       </c>
       <c r="B98" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11950,38 +11949,34 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>478353.0790921703</v>
+        <v>478180.8349914302</v>
       </c>
       <c r="R98" t="n">
-        <v>7034559.44764189</v>
+        <v>7034276.389581721</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -12024,11 +12019,6 @@
       <c r="AB98" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC98" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -12055,7 +12045,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111901535</v>
+        <v>111901582</v>
       </c>
       <c r="B99" t="n">
         <v>56398</v>
@@ -12099,10 +12089,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>478133.153488568</v>
+        <v>478099.9358829815</v>
       </c>
       <c r="R99" t="n">
-        <v>7034251.648335411</v>
+        <v>7034963.974146471</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -12176,10 +12166,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111901589</v>
+        <v>111901567</v>
       </c>
       <c r="B100" t="n">
-        <v>90092</v>
+        <v>56398</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12188,38 +12178,58 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>67</v>
+        <v>100109</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Sprickporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Diplomitoporus crustulinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Bres.) Domański</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P100" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>477449.9680636173</v>
+        <v>477452.815646043</v>
       </c>
       <c r="R100" t="n">
-        <v>7033732.178319109</v>
+        <v>7033754.54329758</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -12270,7 +12280,6 @@
       <c r="AE100" t="b">
         <v>0</v>
       </c>
-      <c r="AF100" t="inlineStr"/>
       <c r="AG100" t="b">
         <v>0</v>
       </c>
@@ -12289,10 +12298,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111901578</v>
+        <v>111901608</v>
       </c>
       <c r="B101" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12305,38 +12314,34 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>477843.0506277476</v>
+        <v>478032.3625065266</v>
       </c>
       <c r="R101" t="n">
-        <v>7034173.07203023</v>
+        <v>7035108.091747497</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -12379,11 +12384,6 @@
       <c r="AB101" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC101" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12410,7 +12410,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111901537</v>
+        <v>111901578</v>
       </c>
       <c r="B102" t="n">
         <v>56398</v>
@@ -12454,10 +12454,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>477585.6298561281</v>
+        <v>477843.0506277476</v>
       </c>
       <c r="R102" t="n">
-        <v>7033835.089579746</v>
+        <v>7034173.07203023</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -12504,7 +12504,7 @@
       </c>
       <c r="AC102" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12531,7 +12531,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111901533</v>
+        <v>111901553</v>
       </c>
       <c r="B103" t="n">
         <v>56398</v>
@@ -12575,10 +12575,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>478206.6279368462</v>
+        <v>477099.1032443722</v>
       </c>
       <c r="R103" t="n">
-        <v>7034443.621060859</v>
+        <v>7033504.097089833</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -12652,7 +12652,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111901538</v>
+        <v>111901569</v>
       </c>
       <c r="B104" t="n">
         <v>56398</v>
@@ -12696,10 +12696,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>477551.196685652</v>
+        <v>477398.2994504073</v>
       </c>
       <c r="R104" t="n">
-        <v>7033783.398951175</v>
+        <v>7033779.55166768</v>
       </c>
       <c r="S104" t="n">
         <v>10</v>
@@ -12746,7 +12746,7 @@
       </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD104" t="b">

--- a/artfynd/A 37096-2023.xlsx
+++ b/artfynd/A 37096-2023.xlsx
@@ -2431,10 +2431,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111759273</v>
+        <v>111769051</v>
       </c>
       <c r="B17" t="n">
-        <v>82949</v>
+        <v>73688</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2443,42 +2443,44 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5589</v>
+        <v>492</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Smalskaftslav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Chaenotheca gracilenta</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Storbäcken (Storbäcken), Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>478158.3876210112</v>
+        <v>477242.2415391286</v>
       </c>
       <c r="R17" t="n">
-        <v>7034926.8764399</v>
+        <v>7033394.72120441</v>
       </c>
       <c r="S17" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2526,6 +2528,7 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2544,7 +2547,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111769105</v>
+        <v>111769093</v>
       </c>
       <c r="B18" t="n">
         <v>82949</v>
@@ -2587,13 +2590,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>478264.7846321497</v>
+        <v>478247.7891202001</v>
       </c>
       <c r="R18" t="n">
-        <v>7034493.356013894</v>
+        <v>7034762.017267247</v>
       </c>
       <c r="S18" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2660,10 +2663,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111769169</v>
+        <v>111769028</v>
       </c>
       <c r="B19" t="n">
-        <v>88956</v>
+        <v>82949</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2672,25 +2675,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5747</v>
+        <v>5589</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2699,14 +2702,14 @@
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>477542.7220056681</v>
+        <v>477173.4934072607</v>
       </c>
       <c r="R19" t="n">
-        <v>7033725.70523841</v>
+        <v>7033624.899085587</v>
       </c>
       <c r="S19" t="n">
         <v>50</v>
@@ -2776,10 +2779,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111758748</v>
+        <v>111769066</v>
       </c>
       <c r="B20" t="n">
-        <v>88033</v>
+        <v>96253</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2788,42 +2791,45 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1599</v>
+        <v>504</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Fjällfotad musseron</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Tricholoma olivaceotinctum</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Storbäcken (Storbäcken), Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>478042.3229088559</v>
+        <v>477894.260786515</v>
       </c>
       <c r="R20" t="n">
-        <v>7035188.126460684</v>
+        <v>7034318.644870933</v>
       </c>
       <c r="S20" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2871,6 +2877,7 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2889,10 +2896,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111769066</v>
+        <v>111759273</v>
       </c>
       <c r="B21" t="n">
-        <v>96253</v>
+        <v>82949</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2901,45 +2908,42 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>504</v>
+        <v>5589</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Storbäcken (Storbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>477894.260786515</v>
+        <v>478158.3876210112</v>
       </c>
       <c r="R21" t="n">
-        <v>7034318.644870933</v>
+        <v>7034926.8764399</v>
       </c>
       <c r="S21" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2987,7 +2991,6 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3006,10 +3009,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111759358</v>
+        <v>111769034</v>
       </c>
       <c r="B22" t="n">
-        <v>88899</v>
+        <v>86223</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3022,38 +3025,40 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3286</v>
+        <v>4412</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Storbäcken (Storbäcken), Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>478195.3064424611</v>
+        <v>477427.7828955905</v>
       </c>
       <c r="R22" t="n">
-        <v>7034886.345942191</v>
+        <v>7033574.291879836</v>
       </c>
       <c r="S22" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3101,6 +3106,7 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3119,10 +3125,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111769093</v>
+        <v>111759358</v>
       </c>
       <c r="B23" t="n">
-        <v>82949</v>
+        <v>88899</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3135,40 +3141,38 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5589</v>
+        <v>3286</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Storbäcken (Storbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>478247.7891202001</v>
+        <v>478195.3064424611</v>
       </c>
       <c r="R23" t="n">
-        <v>7034762.017267247</v>
+        <v>7034886.345942191</v>
       </c>
       <c r="S23" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3216,7 +3220,6 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3235,10 +3238,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111769034</v>
+        <v>111769042</v>
       </c>
       <c r="B24" t="n">
-        <v>86223</v>
+        <v>96326</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3247,41 +3250,42 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4412</v>
+        <v>219798</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>477427.7828955905</v>
+        <v>477548.844789583</v>
       </c>
       <c r="R24" t="n">
-        <v>7033574.291879836</v>
+        <v>7033895.337382489</v>
       </c>
       <c r="S24" t="n">
         <v>50</v>
@@ -3351,10 +3355,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111769051</v>
+        <v>111769169</v>
       </c>
       <c r="B25" t="n">
-        <v>73688</v>
+        <v>88956</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3367,21 +3371,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>492</v>
+        <v>5747</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Smalskaftslav</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Chaenotheca gracilenta</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3390,14 +3394,14 @@
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>477242.2415391286</v>
+        <v>477542.7220056681</v>
       </c>
       <c r="R25" t="n">
-        <v>7033394.72120441</v>
+        <v>7033725.70523841</v>
       </c>
       <c r="S25" t="n">
         <v>50</v>
@@ -3467,10 +3471,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111769149</v>
+        <v>111758961</v>
       </c>
       <c r="B26" t="n">
-        <v>82949</v>
+        <v>86223</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3483,40 +3487,38 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5589</v>
+        <v>4412</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Storbäcken (Storbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>477459.6755572999</v>
+        <v>478081.61875638</v>
       </c>
       <c r="R26" t="n">
-        <v>7033837.318297116</v>
+        <v>7035102.830858655</v>
       </c>
       <c r="S26" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3564,7 +3566,6 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3583,10 +3584,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111758961</v>
+        <v>111769149</v>
       </c>
       <c r="B27" t="n">
-        <v>86223</v>
+        <v>82949</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3599,38 +3600,40 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4412</v>
+        <v>5589</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Storbäcken (Storbäcken), Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>478081.61875638</v>
+        <v>477459.6755572999</v>
       </c>
       <c r="R27" t="n">
-        <v>7035102.830858655</v>
+        <v>7033837.318297116</v>
       </c>
       <c r="S27" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3678,6 +3681,7 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3696,10 +3700,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111769028</v>
+        <v>111758748</v>
       </c>
       <c r="B28" t="n">
-        <v>82949</v>
+        <v>88033</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3708,44 +3712,42 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5589</v>
+        <v>1599</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Fjällfotad musseron</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Tricholoma olivaceotinctum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Storbäcken (Storbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>477173.4934072607</v>
+        <v>478042.3229088559</v>
       </c>
       <c r="R28" t="n">
-        <v>7033624.899085587</v>
+        <v>7035188.126460684</v>
       </c>
       <c r="S28" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3793,7 +3795,6 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3812,10 +3813,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111769042</v>
+        <v>111769105</v>
       </c>
       <c r="B29" t="n">
-        <v>96326</v>
+        <v>82949</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3824,42 +3825,41 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>219798</v>
+        <v>5589</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>477548.844789583</v>
+        <v>478264.7846321497</v>
       </c>
       <c r="R29" t="n">
-        <v>7033895.337382489</v>
+        <v>7034493.356013894</v>
       </c>
       <c r="S29" t="n">
         <v>50</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111901536</v>
+        <v>111901557</v>
       </c>
       <c r="B33" t="n">
         <v>56398</v>
@@ -4318,7 +4318,11 @@
       <c r="I33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -4326,10 +4330,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>478002.2311527666</v>
+        <v>477301.6306204998</v>
       </c>
       <c r="R33" t="n">
-        <v>7034180.925310614</v>
+        <v>7033676.369342894</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4372,11 +4376,6 @@
       <c r="AB33" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4403,10 +4402,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111901598</v>
+        <v>111901622</v>
       </c>
       <c r="B34" t="n">
-        <v>88966</v>
+        <v>85062</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4419,21 +4418,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5754</v>
+        <v>249278</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4443,10 +4442,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>478095.3749122242</v>
+        <v>478165.647914707</v>
       </c>
       <c r="R34" t="n">
-        <v>7034233.1065605</v>
+        <v>7034284.10291774</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4497,7 +4496,6 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
-      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4516,7 +4514,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111901541</v>
+        <v>111901561</v>
       </c>
       <c r="B35" t="n">
         <v>56398</v>
@@ -4560,10 +4558,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>477527.5603965624</v>
+        <v>477353.6324963307</v>
       </c>
       <c r="R35" t="n">
-        <v>7033673.430039096</v>
+        <v>7033676.000540117</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4610,7 +4608,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4637,10 +4635,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111901602</v>
+        <v>111901577</v>
       </c>
       <c r="B36" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4653,34 +4651,38 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>477078.4058219322</v>
+        <v>477611.1407894194</v>
       </c>
       <c r="R36" t="n">
-        <v>7033618.863656485</v>
+        <v>7034021.143660905</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4723,6 +4725,11 @@
       <c r="AB36" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4749,10 +4756,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111901537</v>
+        <v>111901590</v>
       </c>
       <c r="B37" t="n">
-        <v>56398</v>
+        <v>56414</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4765,16 +4772,16 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -4793,10 +4800,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>477585.6298561281</v>
+        <v>477995.937568082</v>
       </c>
       <c r="R37" t="n">
-        <v>7033835.089579746</v>
+        <v>7034178.282797099</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4843,7 +4850,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4870,7 +4877,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111901533</v>
+        <v>111901582</v>
       </c>
       <c r="B38" t="n">
         <v>56398</v>
@@ -4914,10 +4921,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>478206.6279368462</v>
+        <v>478099.9358829815</v>
       </c>
       <c r="R38" t="n">
-        <v>7034443.621060859</v>
+        <v>7034963.974146471</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4964,7 +4971,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4991,7 +4998,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111901538</v>
+        <v>111901540</v>
       </c>
       <c r="B39" t="n">
         <v>56398</v>
@@ -5035,10 +5042,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>477551.196685652</v>
+        <v>477528.5199198141</v>
       </c>
       <c r="R39" t="n">
-        <v>7033783.398951175</v>
+        <v>7033682.377499279</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5112,10 +5119,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111901534</v>
+        <v>111901522</v>
       </c>
       <c r="B40" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5124,42 +5131,38 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>478196.6579575058</v>
+        <v>477298.4037140894</v>
       </c>
       <c r="R40" t="n">
-        <v>7034427.575356619</v>
+        <v>7033474.468247524</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5202,11 +5205,6 @@
       <c r="AB40" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5475,7 +5473,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111901565</v>
+        <v>111901533</v>
       </c>
       <c r="B43" t="n">
         <v>56398</v>
@@ -5519,10 +5517,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>477372.8710303173</v>
+        <v>478206.6279368462</v>
       </c>
       <c r="R43" t="n">
-        <v>7033670.491777684</v>
+        <v>7034443.621060859</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5569,7 +5567,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5596,10 +5594,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111901625</v>
+        <v>111901578</v>
       </c>
       <c r="B44" t="n">
-        <v>89747</v>
+        <v>56398</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5608,38 +5606,42 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2063</v>
+        <v>100109</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>478182.0360042938</v>
+        <v>477843.0506277476</v>
       </c>
       <c r="R44" t="n">
-        <v>7034255.342927237</v>
+        <v>7034173.07203023</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5682,6 +5684,11 @@
       <c r="AB44" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5708,7 +5715,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111901532</v>
+        <v>111901530</v>
       </c>
       <c r="B45" t="n">
         <v>56398</v>
@@ -5752,10 +5759,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>478222.3906325128</v>
+        <v>478301.071792486</v>
       </c>
       <c r="R45" t="n">
-        <v>7034454.703636711</v>
+        <v>7034490.871451757</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5802,7 +5809,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5829,7 +5836,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111901577</v>
+        <v>111901538</v>
       </c>
       <c r="B46" t="n">
         <v>56398</v>
@@ -5873,10 +5880,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>477611.1407894194</v>
+        <v>477551.196685652</v>
       </c>
       <c r="R46" t="n">
-        <v>7034021.143660905</v>
+        <v>7033783.398951175</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5923,7 +5930,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5950,10 +5957,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111901609</v>
+        <v>111901604</v>
       </c>
       <c r="B47" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5966,21 +5973,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5990,10 +5997,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>478140.6856806503</v>
+        <v>477225.7321345775</v>
       </c>
       <c r="R47" t="n">
-        <v>7034828.538396582</v>
+        <v>7033657.657507668</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6062,10 +6069,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111901612</v>
+        <v>111901573</v>
       </c>
       <c r="B48" t="n">
-        <v>95674</v>
+        <v>56398</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6074,38 +6081,42 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>222741</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>478173.6911794385</v>
+        <v>477537.5564934253</v>
       </c>
       <c r="R48" t="n">
-        <v>7034280.466984005</v>
+        <v>7034011.363671634</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6148,6 +6159,11 @@
       <c r="AB48" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6174,7 +6190,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111901570</v>
+        <v>111901539</v>
       </c>
       <c r="B49" t="n">
         <v>56398</v>
@@ -6218,10 +6234,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>477406.0214198313</v>
+        <v>477543.7160649595</v>
       </c>
       <c r="R49" t="n">
-        <v>7033793.823331236</v>
+        <v>7033739.577035171</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6268,7 +6284,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6295,7 +6311,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111901526</v>
+        <v>111901580</v>
       </c>
       <c r="B50" t="n">
         <v>56398</v>
@@ -6339,10 +6355,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>478353.0790921703</v>
+        <v>477852.1205313139</v>
       </c>
       <c r="R50" t="n">
-        <v>7034559.44764189</v>
+        <v>7034188.228905845</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6389,7 +6405,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6416,10 +6432,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111901607</v>
+        <v>111901620</v>
       </c>
       <c r="B51" t="n">
-        <v>89423</v>
+        <v>85062</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6432,21 +6448,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5432</v>
+        <v>249278</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6456,10 +6472,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>478095.1015727581</v>
+        <v>478428.8768750167</v>
       </c>
       <c r="R51" t="n">
-        <v>7035043.219008418</v>
+        <v>7034567.439219557</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6528,10 +6544,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111901595</v>
+        <v>111901579</v>
       </c>
       <c r="B52" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6544,34 +6560,38 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>478119.5332644144</v>
+        <v>477842.7544549896</v>
       </c>
       <c r="R52" t="n">
-        <v>7034946.386193739</v>
+        <v>7034195.008388352</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6614,6 +6634,11 @@
       <c r="AB52" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6640,10 +6665,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111901557</v>
+        <v>111901589</v>
       </c>
       <c r="B53" t="n">
-        <v>56398</v>
+        <v>90092</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6652,46 +6677,38 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100109</v>
+        <v>67</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Sprickporing</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Diplomitoporus crustulinus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Bres.) Domański</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>477301.6306204998</v>
+        <v>477449.9680636173</v>
       </c>
       <c r="R53" t="n">
-        <v>7033676.369342894</v>
+        <v>7033732.178319109</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6742,6 +6759,7 @@
       <c r="AE53" t="b">
         <v>0</v>
       </c>
+      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
       </c>
@@ -6760,10 +6778,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111901590</v>
+        <v>111901552</v>
       </c>
       <c r="B54" t="n">
-        <v>56414</v>
+        <v>56398</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6776,16 +6794,16 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -6804,10 +6822,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>477995.937568082</v>
+        <v>477255.574404106</v>
       </c>
       <c r="R54" t="n">
-        <v>7034178.282797099</v>
+        <v>7033441.19203402</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6854,7 +6872,7 @@
       </c>
       <c r="AC54" t="inlineStr">
         <is>
-          <t>hack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6881,7 +6899,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111901564</v>
+        <v>111901576</v>
       </c>
       <c r="B55" t="n">
         <v>56398</v>
@@ -6925,10 +6943,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>477365.3609946552</v>
+        <v>477473.7729348365</v>
       </c>
       <c r="R55" t="n">
-        <v>7033686.214811271</v>
+        <v>7034056.578599731</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6975,7 +6993,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7002,10 +7020,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111901554</v>
+        <v>111901594</v>
       </c>
       <c r="B56" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7018,38 +7036,34 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>477059.476171807</v>
+        <v>478158.0786587475</v>
       </c>
       <c r="R56" t="n">
-        <v>7033542.438482954</v>
+        <v>7034881.677253954</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7092,11 +7106,6 @@
       <c r="AB56" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7123,10 +7132,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111901604</v>
+        <v>111901528</v>
       </c>
       <c r="B57" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7139,34 +7148,38 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>477225.7321345775</v>
+        <v>478333.5954659996</v>
       </c>
       <c r="R57" t="n">
-        <v>7033657.657507668</v>
+        <v>7034528.248548109</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7209,6 +7222,11 @@
       <c r="AB57" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>ringhack färska, 2 träd</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7235,10 +7253,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111901594</v>
+        <v>111901554</v>
       </c>
       <c r="B58" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7251,34 +7269,38 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>478158.0786587475</v>
+        <v>477059.476171807</v>
       </c>
       <c r="R58" t="n">
-        <v>7034881.677253954</v>
+        <v>7033542.438482954</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7321,6 +7343,11 @@
       <c r="AB58" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7347,10 +7374,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111901561</v>
+        <v>111901600</v>
       </c>
       <c r="B59" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7363,38 +7390,34 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>477353.6324963307</v>
+        <v>478177.1393061698</v>
       </c>
       <c r="R59" t="n">
-        <v>7033676.000540117</v>
+        <v>7034260.300264063</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7437,11 +7460,6 @@
       <c r="AB59" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7710,7 +7728,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111901574</v>
+        <v>111901553</v>
       </c>
       <c r="B62" t="n">
         <v>56398</v>
@@ -7754,10 +7772,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>477521.0595750482</v>
+        <v>477099.1032443722</v>
       </c>
       <c r="R62" t="n">
-        <v>7034024.014202636</v>
+        <v>7033504.097089833</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7804,7 +7822,7 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7831,10 +7849,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111901589</v>
+        <v>111901523</v>
       </c>
       <c r="B63" t="n">
-        <v>90092</v>
+        <v>90087</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7843,25 +7861,25 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>67</v>
+        <v>3298</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Sprickporing</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Diplomitoporus crustulinus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Bres.) Domański</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7871,10 +7889,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>477449.9680636173</v>
+        <v>478095.1199801999</v>
       </c>
       <c r="R63" t="n">
-        <v>7033732.178319109</v>
+        <v>7035045.903991099</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7925,7 +7943,6 @@
       <c r="AE63" t="b">
         <v>0</v>
       </c>
-      <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="b">
         <v>0</v>
       </c>
@@ -7944,10 +7961,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111901573</v>
+        <v>111901588</v>
       </c>
       <c r="B64" t="n">
-        <v>56398</v>
+        <v>90332</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7956,42 +7973,38 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>100109</v>
+        <v>4769</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>477537.5564934253</v>
+        <v>477431.6258370291</v>
       </c>
       <c r="R64" t="n">
-        <v>7034011.363671634</v>
+        <v>7033674.105856254</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8034,11 +8047,6 @@
       <c r="AB64" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC64" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8065,10 +8073,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111901581</v>
+        <v>111901608</v>
       </c>
       <c r="B65" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8081,38 +8089,34 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>477791.9273844106</v>
+        <v>478032.3625065266</v>
       </c>
       <c r="R65" t="n">
-        <v>7034363.220776994</v>
+        <v>7035108.091747497</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8155,11 +8159,6 @@
       <c r="AB65" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC65" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8186,10 +8185,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111901530</v>
+        <v>111901593</v>
       </c>
       <c r="B66" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8202,38 +8201,34 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>478301.071792486</v>
+        <v>478138.936023809</v>
       </c>
       <c r="R66" t="n">
-        <v>7034490.871451757</v>
+        <v>7034834.816035185</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8276,11 +8271,6 @@
       <c r="AB66" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8307,7 +8297,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111901524</v>
+        <v>111901570</v>
       </c>
       <c r="B67" t="n">
         <v>56398</v>
@@ -8351,10 +8341,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>478393.0053771812</v>
+        <v>477406.0214198313</v>
       </c>
       <c r="R67" t="n">
-        <v>7034564.99604707</v>
+        <v>7033793.823331236</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8401,7 +8391,7 @@
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8428,7 +8418,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111901580</v>
+        <v>111901555</v>
       </c>
       <c r="B68" t="n">
         <v>56398</v>
@@ -8472,10 +8462,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>477852.1205313139</v>
+        <v>477075.053782316</v>
       </c>
       <c r="R68" t="n">
-        <v>7034188.228905845</v>
+        <v>7033651.571049522</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8522,7 +8512,7 @@
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8549,7 +8539,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111901540</v>
+        <v>111901568</v>
       </c>
       <c r="B69" t="n">
         <v>56398</v>
@@ -8593,10 +8583,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>477528.5199198141</v>
+        <v>477444.339370368</v>
       </c>
       <c r="R69" t="n">
-        <v>7033682.377499279</v>
+        <v>7033760.423184556</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8670,10 +8660,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111901521</v>
+        <v>111901524</v>
       </c>
       <c r="B70" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8682,38 +8672,42 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>478416.8277586199</v>
+        <v>478393.0053771812</v>
       </c>
       <c r="R70" t="n">
-        <v>7034575.129493972</v>
+        <v>7034564.99604707</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8756,6 +8750,11 @@
       <c r="AB70" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC70" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8782,7 +8781,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111901583</v>
+        <v>111901565</v>
       </c>
       <c r="B71" t="n">
         <v>56398</v>
@@ -8826,10 +8825,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>478099.0396604858</v>
+        <v>477372.8710303173</v>
       </c>
       <c r="R71" t="n">
-        <v>7034963.980289284</v>
+        <v>7033670.491777684</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8876,7 +8875,7 @@
       </c>
       <c r="AC71" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8903,10 +8902,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111901555</v>
+        <v>111901609</v>
       </c>
       <c r="B72" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8919,38 +8918,34 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>477075.053782316</v>
+        <v>478140.6856806503</v>
       </c>
       <c r="R72" t="n">
-        <v>7033651.571049522</v>
+        <v>7034828.538396582</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8993,11 +8988,6 @@
       <c r="AB72" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC72" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -9024,7 +9014,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111901575</v>
+        <v>111901529</v>
       </c>
       <c r="B73" t="n">
         <v>56398</v>
@@ -9068,10 +9058,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>477476.8538289875</v>
+        <v>478295.8274075754</v>
       </c>
       <c r="R73" t="n">
-        <v>7034048.499043919</v>
+        <v>7034510.601185531</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9118,7 +9108,7 @@
       </c>
       <c r="AC73" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9145,10 +9135,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111901529</v>
+        <v>111901625</v>
       </c>
       <c r="B74" t="n">
-        <v>56398</v>
+        <v>89747</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9157,42 +9147,38 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>100109</v>
+        <v>2063</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>478295.8274075754</v>
+        <v>478182.0360042938</v>
       </c>
       <c r="R74" t="n">
-        <v>7034510.601185531</v>
+        <v>7034255.342927237</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9235,11 +9221,6 @@
       <c r="AB74" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC74" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9266,7 +9247,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111901576</v>
+        <v>111901564</v>
       </c>
       <c r="B75" t="n">
         <v>56398</v>
@@ -9310,10 +9291,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>477473.7729348365</v>
+        <v>477365.3609946552</v>
       </c>
       <c r="R75" t="n">
-        <v>7034056.578599731</v>
+        <v>7033686.214811271</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9360,7 +9341,7 @@
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9387,10 +9368,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111901593</v>
+        <v>111901574</v>
       </c>
       <c r="B76" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9403,34 +9384,38 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>478138.936023809</v>
+        <v>477521.0595750482</v>
       </c>
       <c r="R76" t="n">
-        <v>7034834.816035185</v>
+        <v>7034024.014202636</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9473,6 +9458,11 @@
       <c r="AB76" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9499,10 +9489,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111901520</v>
+        <v>111901602</v>
       </c>
       <c r="B77" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9515,21 +9505,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -9539,10 +9529,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>477844.0012352917</v>
+        <v>477078.4058219322</v>
       </c>
       <c r="R77" t="n">
-        <v>7034116.214604673</v>
+        <v>7033618.863656485</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9611,10 +9601,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111901610</v>
+        <v>111901521</v>
       </c>
       <c r="B78" t="n">
-        <v>77515</v>
+        <v>90087</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9623,25 +9613,25 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6425</v>
+        <v>3298</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
@@ -9651,10 +9641,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>478113.3056525883</v>
+        <v>478416.8277586199</v>
       </c>
       <c r="R78" t="n">
-        <v>7034953.141815373</v>
+        <v>7034575.129493972</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9723,10 +9713,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111901522</v>
+        <v>111901575</v>
       </c>
       <c r="B79" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9735,38 +9725,42 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
       <c r="P79" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>477298.4037140894</v>
+        <v>477476.8538289875</v>
       </c>
       <c r="R79" t="n">
-        <v>7033474.468247524</v>
+        <v>7034048.499043919</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9809,6 +9803,11 @@
       <c r="AB79" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC79" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9948,7 +9947,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111901531</v>
+        <v>111901569</v>
       </c>
       <c r="B81" t="n">
         <v>56398</v>
@@ -9992,10 +9991,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>478266.0134983131</v>
+        <v>477398.2994504073</v>
       </c>
       <c r="R81" t="n">
-        <v>7034476.339010282</v>
+        <v>7033779.55166768</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -10042,7 +10041,7 @@
       </c>
       <c r="AC81" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -10069,7 +10068,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111901528</v>
+        <v>111901532</v>
       </c>
       <c r="B82" t="n">
         <v>56398</v>
@@ -10113,10 +10112,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>478333.5954659996</v>
+        <v>478222.3906325128</v>
       </c>
       <c r="R82" t="n">
-        <v>7034528.248548109</v>
+        <v>7034454.703636711</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -10163,7 +10162,7 @@
       </c>
       <c r="AC82" t="inlineStr">
         <is>
-          <t>ringhack färska, 2 träd</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -10190,10 +10189,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111901591</v>
+        <v>111901610</v>
       </c>
       <c r="B83" t="n">
-        <v>56414</v>
+        <v>77515</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -10206,38 +10205,34 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>477120.8792542543</v>
+        <v>478113.3056525883</v>
       </c>
       <c r="R83" t="n">
-        <v>7033665.121892933</v>
+        <v>7034953.141815373</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -10280,11 +10275,6 @@
       <c r="AB83" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC83" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -10311,10 +10301,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111901600</v>
+        <v>111901534</v>
       </c>
       <c r="B84" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -10327,34 +10317,38 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>478177.1393061698</v>
+        <v>478196.6579575058</v>
       </c>
       <c r="R84" t="n">
-        <v>7034260.300264063</v>
+        <v>7034427.575356619</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -10397,6 +10391,11 @@
       <c r="AB84" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC84" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -10423,10 +10422,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111901588</v>
+        <v>111901606</v>
       </c>
       <c r="B85" t="n">
-        <v>90332</v>
+        <v>89423</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10435,25 +10434,25 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>4769</v>
+        <v>5432</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
@@ -10463,10 +10462,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>477431.6258370291</v>
+        <v>477306.6698846163</v>
       </c>
       <c r="R85" t="n">
-        <v>7033674.105856254</v>
+        <v>7033691.555703563</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -10535,10 +10534,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111901622</v>
+        <v>111901567</v>
       </c>
       <c r="B86" t="n">
-        <v>85062</v>
+        <v>56398</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10551,34 +10550,54 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>249278</v>
+        <v>100109</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P86" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>478165.647914707</v>
+        <v>477452.815646043</v>
       </c>
       <c r="R86" t="n">
-        <v>7034284.10291774</v>
+        <v>7033754.54329758</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -10647,10 +10666,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111901620</v>
+        <v>111901527</v>
       </c>
       <c r="B87" t="n">
-        <v>85062</v>
+        <v>56398</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10663,34 +10682,38 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>249278</v>
+        <v>100109</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>478428.8768750167</v>
+        <v>478330.4582599134</v>
       </c>
       <c r="R87" t="n">
-        <v>7034567.439219557</v>
+        <v>7034528.269818945</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -10733,6 +10756,11 @@
       <c r="AB87" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC87" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10759,10 +10787,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111901623</v>
+        <v>111901526</v>
       </c>
       <c r="B88" t="n">
-        <v>85062</v>
+        <v>56398</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10775,34 +10803,38 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>249278</v>
+        <v>100109</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>478122.1132110448</v>
+        <v>478353.0790921703</v>
       </c>
       <c r="R88" t="n">
-        <v>7035061.382136666</v>
+        <v>7034559.44764189</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10845,6 +10877,11 @@
       <c r="AB88" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC88" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10871,10 +10908,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111901579</v>
+        <v>111901607</v>
       </c>
       <c r="B89" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10887,38 +10924,34 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>477842.7544549896</v>
+        <v>478095.1015727581</v>
       </c>
       <c r="R89" t="n">
-        <v>7034195.008388352</v>
+        <v>7035043.219008418</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10961,11 +10994,6 @@
       <c r="AB89" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC89" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10992,7 +11020,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111901539</v>
+        <v>111901541</v>
       </c>
       <c r="B90" t="n">
         <v>56398</v>
@@ -11036,10 +11064,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>477543.7160649595</v>
+        <v>477527.5603965624</v>
       </c>
       <c r="R90" t="n">
-        <v>7033739.577035171</v>
+        <v>7033673.430039096</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -11113,10 +11141,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111901523</v>
+        <v>111901612</v>
       </c>
       <c r="B91" t="n">
-        <v>90087</v>
+        <v>95674</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11129,21 +11157,21 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>3298</v>
+        <v>222741</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -11153,10 +11181,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>478095.1199801999</v>
+        <v>478173.6911794385</v>
       </c>
       <c r="R91" t="n">
-        <v>7035045.903991099</v>
+        <v>7034280.466984005</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -11225,10 +11253,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111901527</v>
+        <v>111901596</v>
       </c>
       <c r="B92" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11241,38 +11269,34 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>478330.4582599134</v>
+        <v>478096.0619985596</v>
       </c>
       <c r="R92" t="n">
-        <v>7034528.269818945</v>
+        <v>7035117.947114002</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -11315,11 +11339,6 @@
       <c r="AB92" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC92" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -11346,10 +11365,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111901563</v>
+        <v>111901599</v>
       </c>
       <c r="B93" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11362,38 +11381,34 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>477360.4012637081</v>
+        <v>478180.8349914302</v>
       </c>
       <c r="R93" t="n">
-        <v>7033682.220543981</v>
+        <v>7034276.389581721</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -11436,11 +11451,6 @@
       <c r="AB93" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC93" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -11467,7 +11477,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111901552</v>
+        <v>111901536</v>
       </c>
       <c r="B94" t="n">
         <v>56398</v>
@@ -11511,10 +11521,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>477255.574404106</v>
+        <v>478002.2311527666</v>
       </c>
       <c r="R94" t="n">
-        <v>7033441.19203402</v>
+        <v>7034180.925310614</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -11588,10 +11598,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111901606</v>
+        <v>111901581</v>
       </c>
       <c r="B95" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11604,34 +11614,38 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>477306.6698846163</v>
+        <v>477791.9273844106</v>
       </c>
       <c r="R95" t="n">
-        <v>7033691.555703563</v>
+        <v>7034363.220776994</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -11674,6 +11688,11 @@
       <c r="AB95" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC95" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11700,7 +11719,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111901568</v>
+        <v>111901583</v>
       </c>
       <c r="B96" t="n">
         <v>56398</v>
@@ -11744,10 +11763,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>477444.339370368</v>
+        <v>478099.0396604858</v>
       </c>
       <c r="R96" t="n">
-        <v>7033760.423184556</v>
+        <v>7034963.980289284</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -11794,7 +11813,7 @@
       </c>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11821,10 +11840,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111901596</v>
+        <v>111901520</v>
       </c>
       <c r="B97" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11837,21 +11856,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11861,10 +11880,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>478096.0619985596</v>
+        <v>477844.0012352917</v>
       </c>
       <c r="R97" t="n">
-        <v>7035117.947114002</v>
+        <v>7034116.214604673</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11933,10 +11952,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111901599</v>
+        <v>111901531</v>
       </c>
       <c r="B98" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11949,34 +11968,38 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>478180.8349914302</v>
+        <v>478266.0134983131</v>
       </c>
       <c r="R98" t="n">
-        <v>7034276.389581721</v>
+        <v>7034476.339010282</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -12019,6 +12042,11 @@
       <c r="AB98" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC98" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -12045,10 +12073,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111901582</v>
+        <v>111901623</v>
       </c>
       <c r="B99" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -12061,38 +12089,34 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>478099.9358829815</v>
+        <v>478122.1132110448</v>
       </c>
       <c r="R99" t="n">
-        <v>7034963.974146471</v>
+        <v>7035061.382136666</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -12135,11 +12159,6 @@
       <c r="AB99" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC99" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -12166,10 +12185,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111901567</v>
+        <v>111901598</v>
       </c>
       <c r="B100" t="n">
-        <v>56398</v>
+        <v>88966</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12182,54 +12201,34 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>100109</v>
+        <v>5754</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N100" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Bres.) Corner</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>477452.815646043</v>
+        <v>478095.3749122242</v>
       </c>
       <c r="R100" t="n">
-        <v>7033754.54329758</v>
+        <v>7034233.1065605</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -12280,6 +12279,7 @@
       <c r="AE100" t="b">
         <v>0</v>
       </c>
+      <c r="AF100" t="inlineStr"/>
       <c r="AG100" t="b">
         <v>0</v>
       </c>
@@ -12298,10 +12298,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111901608</v>
+        <v>111901563</v>
       </c>
       <c r="B101" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12314,34 +12314,38 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>478032.3625065266</v>
+        <v>477360.4012637081</v>
       </c>
       <c r="R101" t="n">
-        <v>7035108.091747497</v>
+        <v>7033682.220543981</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -12384,6 +12388,11 @@
       <c r="AB101" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC101" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12410,10 +12419,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111901578</v>
+        <v>111901595</v>
       </c>
       <c r="B102" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12426,38 +12435,34 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>477843.0506277476</v>
+        <v>478119.5332644144</v>
       </c>
       <c r="R102" t="n">
-        <v>7034173.07203023</v>
+        <v>7034946.386193739</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -12500,11 +12505,6 @@
       <c r="AB102" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC102" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12531,10 +12531,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111901553</v>
+        <v>111901591</v>
       </c>
       <c r="B103" t="n">
-        <v>56398</v>
+        <v>56414</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12547,16 +12547,16 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -12575,10 +12575,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>477099.1032443722</v>
+        <v>477120.8792542543</v>
       </c>
       <c r="R103" t="n">
-        <v>7033504.097089833</v>
+        <v>7033665.121892933</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="AC103" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12652,7 +12652,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111901569</v>
+        <v>111901537</v>
       </c>
       <c r="B104" t="n">
         <v>56398</v>
@@ -12696,10 +12696,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>477398.2994504073</v>
+        <v>477585.6298561281</v>
       </c>
       <c r="R104" t="n">
-        <v>7033779.55166768</v>
+        <v>7033835.089579746</v>
       </c>
       <c r="S104" t="n">
         <v>10</v>
@@ -12746,7 +12746,7 @@
       </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD104" t="b">

--- a/artfynd/A 37096-2023.xlsx
+++ b/artfynd/A 37096-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY104"/>
+  <dimension ref="A1:AY105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7374,10 +7374,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111901600</v>
+        <v>111901556</v>
       </c>
       <c r="B59" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7390,34 +7390,38 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>478177.1393061698</v>
+        <v>477225.8246246836</v>
       </c>
       <c r="R59" t="n">
-        <v>7034260.300264063</v>
+        <v>7033670.640521363</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7460,6 +7464,11 @@
       <c r="AB59" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7486,10 +7495,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111901571</v>
+        <v>111901600</v>
       </c>
       <c r="B60" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7502,38 +7511,34 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>477388.9837839347</v>
+        <v>478177.1393061698</v>
       </c>
       <c r="R60" t="n">
-        <v>7033793.496102724</v>
+        <v>7034260.300264063</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7576,11 +7581,6 @@
       <c r="AB60" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7607,7 +7607,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111901556</v>
+        <v>111901571</v>
       </c>
       <c r="B61" t="n">
         <v>56398</v>
@@ -7651,10 +7651,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>477225.8246246836</v>
+        <v>477388.9837839347</v>
       </c>
       <c r="R61" t="n">
-        <v>7033670.640521363</v>
+        <v>7033793.496102724</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7701,7 +7701,7 @@
       </c>
       <c r="AC61" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7961,10 +7961,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111901588</v>
+        <v>111901593</v>
       </c>
       <c r="B64" t="n">
-        <v>90332</v>
+        <v>78578</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7973,25 +7973,25 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4769</v>
+        <v>6458</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
@@ -8001,10 +8001,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>477431.6258370291</v>
+        <v>478138.936023809</v>
       </c>
       <c r="R64" t="n">
-        <v>7033674.105856254</v>
+        <v>7034834.816035185</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8073,10 +8073,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111901608</v>
+        <v>111901570</v>
       </c>
       <c r="B65" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8089,34 +8089,38 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>478032.3625065266</v>
+        <v>477406.0214198313</v>
       </c>
       <c r="R65" t="n">
-        <v>7035108.091747497</v>
+        <v>7033793.823331236</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8159,6 +8163,11 @@
       <c r="AB65" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8185,10 +8194,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111901593</v>
+        <v>111901588</v>
       </c>
       <c r="B66" t="n">
-        <v>78578</v>
+        <v>90332</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8197,25 +8206,25 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>6458</v>
+        <v>4769</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
@@ -8225,10 +8234,10 @@
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>478138.936023809</v>
+        <v>477431.6258370291</v>
       </c>
       <c r="R66" t="n">
-        <v>7034834.816035185</v>
+        <v>7033674.105856254</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8297,10 +8306,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111901570</v>
+        <v>111901608</v>
       </c>
       <c r="B67" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8313,38 +8322,34 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>477406.0214198313</v>
+        <v>478032.3625065266</v>
       </c>
       <c r="R67" t="n">
-        <v>7033793.823331236</v>
+        <v>7035108.091747497</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8387,11 +8392,6 @@
       <c r="AB67" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC67" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -8418,7 +8418,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111901555</v>
+        <v>111901529</v>
       </c>
       <c r="B68" t="n">
         <v>56398</v>
@@ -8462,10 +8462,10 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>477075.053782316</v>
+        <v>478295.8274075754</v>
       </c>
       <c r="R68" t="n">
-        <v>7033651.571049522</v>
+        <v>7034510.601185531</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8512,7 +8512,7 @@
       </c>
       <c r="AC68" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8539,7 +8539,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111901568</v>
+        <v>111901555</v>
       </c>
       <c r="B69" t="n">
         <v>56398</v>
@@ -8583,10 +8583,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>477444.339370368</v>
+        <v>477075.053782316</v>
       </c>
       <c r="R69" t="n">
-        <v>7033760.423184556</v>
+        <v>7033651.571049522</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8633,7 +8633,7 @@
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8660,7 +8660,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111901524</v>
+        <v>111901568</v>
       </c>
       <c r="B70" t="n">
         <v>56398</v>
@@ -8704,10 +8704,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>478393.0053771812</v>
+        <v>477444.339370368</v>
       </c>
       <c r="R70" t="n">
-        <v>7034564.99604707</v>
+        <v>7033760.423184556</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8781,7 +8781,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111901565</v>
+        <v>111901524</v>
       </c>
       <c r="B71" t="n">
         <v>56398</v>
@@ -8825,10 +8825,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>477372.8710303173</v>
+        <v>478393.0053771812</v>
       </c>
       <c r="R71" t="n">
-        <v>7033670.491777684</v>
+        <v>7034564.99604707</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8902,10 +8902,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111901609</v>
+        <v>111901565</v>
       </c>
       <c r="B72" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8918,34 +8918,38 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>478140.6856806503</v>
+        <v>477372.8710303173</v>
       </c>
       <c r="R72" t="n">
-        <v>7034828.538396582</v>
+        <v>7033670.491777684</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8988,6 +8992,11 @@
       <c r="AB72" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -9014,10 +9023,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111901529</v>
+        <v>111901609</v>
       </c>
       <c r="B73" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9030,38 +9039,34 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>478295.8274075754</v>
+        <v>478140.6856806503</v>
       </c>
       <c r="R73" t="n">
-        <v>7034510.601185531</v>
+        <v>7034828.538396582</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9104,11 +9109,6 @@
       <c r="AB73" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC73" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -10534,10 +10534,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111901567</v>
+        <v>111901596</v>
       </c>
       <c r="B86" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10550,54 +10550,34 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>477452.815646043</v>
+        <v>478096.0619985596</v>
       </c>
       <c r="R86" t="n">
-        <v>7033754.54329758</v>
+        <v>7035117.947114002</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -10666,10 +10646,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111901527</v>
+        <v>111901612</v>
       </c>
       <c r="B87" t="n">
-        <v>56398</v>
+        <v>95674</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10678,42 +10658,38 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>100109</v>
+        <v>222741</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>478330.4582599134</v>
+        <v>478173.6911794385</v>
       </c>
       <c r="R87" t="n">
-        <v>7034528.269818945</v>
+        <v>7034280.466984005</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -10756,11 +10732,6 @@
       <c r="AB87" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC87" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10787,7 +10758,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111901526</v>
+        <v>111901567</v>
       </c>
       <c r="B88" t="n">
         <v>56398</v>
@@ -10820,21 +10791,37 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr"/>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P88" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>478353.0790921703</v>
+        <v>477452.815646043</v>
       </c>
       <c r="R88" t="n">
-        <v>7034559.44764189</v>
+        <v>7033754.54329758</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10877,11 +10864,6 @@
       <c r="AB88" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC88" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10908,10 +10890,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111901607</v>
+        <v>111901527</v>
       </c>
       <c r="B89" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10924,34 +10906,38 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>478095.1015727581</v>
+        <v>478330.4582599134</v>
       </c>
       <c r="R89" t="n">
-        <v>7035043.219008418</v>
+        <v>7034528.269818945</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10994,6 +10980,11 @@
       <c r="AB89" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC89" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -11020,7 +11011,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111901541</v>
+        <v>111901526</v>
       </c>
       <c r="B90" t="n">
         <v>56398</v>
@@ -11064,10 +11055,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>477527.5603965624</v>
+        <v>478353.0790921703</v>
       </c>
       <c r="R90" t="n">
-        <v>7033673.430039096</v>
+        <v>7034559.44764189</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -11114,7 +11105,7 @@
       </c>
       <c r="AC90" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -11141,10 +11132,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111901612</v>
+        <v>111901607</v>
       </c>
       <c r="B91" t="n">
-        <v>95674</v>
+        <v>89423</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11153,25 +11144,25 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>222741</v>
+        <v>5432</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -11181,10 +11172,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>478173.6911794385</v>
+        <v>478095.1015727581</v>
       </c>
       <c r="R91" t="n">
-        <v>7034280.466984005</v>
+        <v>7035043.219008418</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -11253,10 +11244,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111901596</v>
+        <v>111901541</v>
       </c>
       <c r="B92" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11269,34 +11260,38 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>478096.0619985596</v>
+        <v>477527.5603965624</v>
       </c>
       <c r="R92" t="n">
-        <v>7035117.947114002</v>
+        <v>7033673.430039096</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -11339,6 +11334,11 @@
       <c r="AB92" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC92" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -12771,6 +12771,123 @@
       </c>
       <c r="AY104" t="inlineStr"/>
     </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>112183906</v>
+      </c>
+      <c r="B105" t="n">
+        <v>97565</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>2082</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Skogsrör</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Calamagrostis chalybaea</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>(Laest.) Fr.</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>Stenbäcken, Landvågen, Lit, Jmt</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>477413.9842903271</v>
+      </c>
+      <c r="R105" t="n">
+        <v>7033651.844817515</v>
+      </c>
+      <c r="S105" t="n">
+        <v>25</v>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>Östersund</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>Jämtland</t>
+        </is>
+      </c>
+      <c r="W105" t="inlineStr">
+        <is>
+          <t>Lit</t>
+        </is>
+      </c>
+      <c r="Y105" t="inlineStr">
+        <is>
+          <t>2023-08-29</t>
+        </is>
+      </c>
+      <c r="Z105" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA105" t="inlineStr">
+        <is>
+          <t>2023-08-29</t>
+        </is>
+      </c>
+      <c r="AB105" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF105" t="inlineStr"/>
+      <c r="AG105" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT105" t="inlineStr"/>
+      <c r="AW105" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AX105" t="inlineStr">
+        <is>
+          <t>Rashid Kadhim</t>
+        </is>
+      </c>
+      <c r="AY105" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 37096-2023.xlsx
+++ b/artfynd/A 37096-2023.xlsx
@@ -2431,10 +2431,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111769051</v>
+        <v>111769034</v>
       </c>
       <c r="B17" t="n">
-        <v>73688</v>
+        <v>86223</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2443,25 +2443,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>492</v>
+        <v>4412</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Smalskaftslav</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Chaenotheca gracilenta</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2474,10 +2474,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>477242.2415391286</v>
+        <v>477427.7828955905</v>
       </c>
       <c r="R17" t="n">
-        <v>7033394.72120441</v>
+        <v>7033574.291879836</v>
       </c>
       <c r="S17" t="n">
         <v>50</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111769093</v>
+        <v>111769105</v>
       </c>
       <c r="B18" t="n">
         <v>82949</v>
@@ -2590,13 +2590,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>478247.7891202001</v>
+        <v>478264.7846321497</v>
       </c>
       <c r="R18" t="n">
-        <v>7034762.017267247</v>
+        <v>7034493.356013894</v>
       </c>
       <c r="S18" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2663,10 +2663,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111769028</v>
+        <v>111769042</v>
       </c>
       <c r="B19" t="n">
-        <v>82949</v>
+        <v>96326</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2675,41 +2675,42 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5589</v>
+        <v>219798</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>477173.4934072607</v>
+        <v>477548.844789583</v>
       </c>
       <c r="R19" t="n">
-        <v>7033624.899085587</v>
+        <v>7033895.337382489</v>
       </c>
       <c r="S19" t="n">
         <v>50</v>
@@ -2779,10 +2780,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111769066</v>
+        <v>111769169</v>
       </c>
       <c r="B20" t="n">
-        <v>96253</v>
+        <v>88956</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2791,31 +2792,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>504</v>
+        <v>5747</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2823,10 +2823,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>477894.260786515</v>
+        <v>477542.7220056681</v>
       </c>
       <c r="R20" t="n">
-        <v>7034318.644870933</v>
+        <v>7033725.70523841</v>
       </c>
       <c r="S20" t="n">
         <v>50</v>
@@ -2896,10 +2896,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111759273</v>
+        <v>111758748</v>
       </c>
       <c r="B21" t="n">
-        <v>82949</v>
+        <v>88033</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2908,25 +2908,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5589</v>
+        <v>1599</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Fjällfotad musseron</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Tricholoma olivaceotinctum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2937,10 +2937,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>478158.3876210112</v>
+        <v>478042.3229088559</v>
       </c>
       <c r="R21" t="n">
-        <v>7034926.8764399</v>
+        <v>7035188.126460684</v>
       </c>
       <c r="S21" t="n">
         <v>25</v>
@@ -3009,10 +3009,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111769034</v>
+        <v>111769093</v>
       </c>
       <c r="B22" t="n">
-        <v>86223</v>
+        <v>82949</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3025,21 +3025,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4412</v>
+        <v>5589</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>477427.7828955905</v>
+        <v>478247.7891202001</v>
       </c>
       <c r="R22" t="n">
-        <v>7033574.291879836</v>
+        <v>7034762.017267247</v>
       </c>
       <c r="S22" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3125,10 +3125,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111759358</v>
+        <v>111769149</v>
       </c>
       <c r="B23" t="n">
-        <v>88899</v>
+        <v>82949</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3141,38 +3141,40 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3286</v>
+        <v>5589</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Storbäcken (Storbäcken), Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>478195.3064424611</v>
+        <v>477459.6755572999</v>
       </c>
       <c r="R23" t="n">
-        <v>7034886.345942191</v>
+        <v>7033837.318297116</v>
       </c>
       <c r="S23" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3220,6 +3222,7 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3238,10 +3241,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111769042</v>
+        <v>111758961</v>
       </c>
       <c r="B24" t="n">
-        <v>96326</v>
+        <v>86223</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3250,45 +3253,42 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>219798</v>
+        <v>4412</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Storbäcken (Storbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>477548.844789583</v>
+        <v>478081.61875638</v>
       </c>
       <c r="R24" t="n">
-        <v>7033895.337382489</v>
+        <v>7035102.830858655</v>
       </c>
       <c r="S24" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3336,7 +3336,6 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3355,10 +3354,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111769169</v>
+        <v>111769028</v>
       </c>
       <c r="B25" t="n">
-        <v>88956</v>
+        <v>82949</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3367,25 +3366,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5747</v>
+        <v>5589</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3394,14 +3393,14 @@
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>477542.7220056681</v>
+        <v>477173.4934072607</v>
       </c>
       <c r="R25" t="n">
-        <v>7033725.70523841</v>
+        <v>7033624.899085587</v>
       </c>
       <c r="S25" t="n">
         <v>50</v>
@@ -3471,10 +3470,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111758961</v>
+        <v>111769066</v>
       </c>
       <c r="B26" t="n">
-        <v>86223</v>
+        <v>96253</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3483,42 +3482,45 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4412</v>
+        <v>504</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Storbäcken (Storbäcken), Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>478081.61875638</v>
+        <v>477894.260786515</v>
       </c>
       <c r="R26" t="n">
-        <v>7035102.830858655</v>
+        <v>7034318.644870933</v>
       </c>
       <c r="S26" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3566,6 +3568,7 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3584,7 +3587,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111769149</v>
+        <v>111759273</v>
       </c>
       <c r="B27" t="n">
         <v>82949</v>
@@ -3618,22 +3621,20 @@
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Storbäcken (Storbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>477459.6755572999</v>
+        <v>478158.3876210112</v>
       </c>
       <c r="R27" t="n">
-        <v>7033837.318297116</v>
+        <v>7034926.8764399</v>
       </c>
       <c r="S27" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3681,7 +3682,6 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3700,10 +3700,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111758748</v>
+        <v>111759358</v>
       </c>
       <c r="B28" t="n">
-        <v>88033</v>
+        <v>88899</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3712,25 +3712,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1599</v>
+        <v>3286</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Fjällfotad musseron</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Tricholoma olivaceotinctum</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3741,10 +3741,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>478042.3229088559</v>
+        <v>478195.3064424611</v>
       </c>
       <c r="R28" t="n">
-        <v>7035188.126460684</v>
+        <v>7034886.345942191</v>
       </c>
       <c r="S28" t="n">
         <v>25</v>
@@ -3813,10 +3813,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111769105</v>
+        <v>111769051</v>
       </c>
       <c r="B29" t="n">
-        <v>82949</v>
+        <v>73688</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3825,25 +3825,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5589</v>
+        <v>492</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Smalskaftslav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Chaenotheca gracilenta</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3856,10 +3856,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>478264.7846321497</v>
+        <v>477242.2415391286</v>
       </c>
       <c r="R29" t="n">
-        <v>7034493.356013894</v>
+        <v>7033394.72120441</v>
       </c>
       <c r="S29" t="n">
         <v>50</v>
@@ -4045,7 +4045,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111759173</v>
+        <v>111758792</v>
       </c>
       <c r="B31" t="n">
         <v>85341</v>
@@ -4088,10 +4088,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>478142.3901253083</v>
+        <v>478042.3229088559</v>
       </c>
       <c r="R31" t="n">
-        <v>7034946.677288129</v>
+        <v>7035188.126460684</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4134,6 +4134,11 @@
       <c r="AB31" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Ganska söt, päronaktig doft.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4161,7 +4166,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111758792</v>
+        <v>111759173</v>
       </c>
       <c r="B32" t="n">
         <v>85341</v>
@@ -4204,10 +4209,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>478042.3229088559</v>
+        <v>478142.3901253083</v>
       </c>
       <c r="R32" t="n">
-        <v>7035188.126460684</v>
+        <v>7034946.677288129</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4250,11 +4255,6 @@
       <c r="AB32" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Ganska söt, päronaktig doft.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4282,7 +4282,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111901557</v>
+        <v>111901531</v>
       </c>
       <c r="B33" t="n">
         <v>56398</v>
@@ -4318,11 +4318,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
@@ -4330,10 +4326,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>477301.6306204998</v>
+        <v>478266.0134983131</v>
       </c>
       <c r="R33" t="n">
-        <v>7033676.369342894</v>
+        <v>7034476.339010282</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4376,6 +4372,11 @@
       <c r="AB33" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4402,10 +4403,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111901622</v>
+        <v>111901521</v>
       </c>
       <c r="B34" t="n">
-        <v>85062</v>
+        <v>90087</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4414,25 +4415,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>249278</v>
+        <v>3298</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4442,10 +4443,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>478165.647914707</v>
+        <v>478416.8277586199</v>
       </c>
       <c r="R34" t="n">
-        <v>7034284.10291774</v>
+        <v>7034575.129493972</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4514,7 +4515,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111901561</v>
+        <v>111901538</v>
       </c>
       <c r="B35" t="n">
         <v>56398</v>
@@ -4558,10 +4559,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>477353.6324963307</v>
+        <v>477551.196685652</v>
       </c>
       <c r="R35" t="n">
-        <v>7033676.000540117</v>
+        <v>7033783.398951175</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4608,7 +4609,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4635,10 +4636,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111901577</v>
+        <v>111901596</v>
       </c>
       <c r="B36" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4651,38 +4652,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>477611.1407894194</v>
+        <v>478096.0619985596</v>
       </c>
       <c r="R36" t="n">
-        <v>7034021.143660905</v>
+        <v>7035117.947114002</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4725,11 +4722,6 @@
       <c r="AB36" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4756,10 +4748,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111901590</v>
+        <v>111901577</v>
       </c>
       <c r="B37" t="n">
-        <v>56414</v>
+        <v>56398</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4772,16 +4764,16 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -4800,10 +4792,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>477995.937568082</v>
+        <v>477611.1407894194</v>
       </c>
       <c r="R37" t="n">
-        <v>7034178.282797099</v>
+        <v>7034021.143660905</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4850,7 +4842,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>hack</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4877,7 +4869,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111901582</v>
+        <v>111901568</v>
       </c>
       <c r="B38" t="n">
         <v>56398</v>
@@ -4921,10 +4913,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>478099.9358829815</v>
+        <v>477444.339370368</v>
       </c>
       <c r="R38" t="n">
-        <v>7034963.974146471</v>
+        <v>7033760.423184556</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4998,7 +4990,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111901540</v>
+        <v>111901563</v>
       </c>
       <c r="B39" t="n">
         <v>56398</v>
@@ -5042,10 +5034,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>477528.5199198141</v>
+        <v>477360.4012637081</v>
       </c>
       <c r="R39" t="n">
-        <v>7033682.377499279</v>
+        <v>7033682.220543981</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5119,10 +5111,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111901522</v>
+        <v>111901591</v>
       </c>
       <c r="B40" t="n">
-        <v>90087</v>
+        <v>56414</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5131,38 +5123,42 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3298</v>
+        <v>100049</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>477298.4037140894</v>
+        <v>477120.8792542543</v>
       </c>
       <c r="R40" t="n">
-        <v>7033474.468247524</v>
+        <v>7033665.121892933</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5205,6 +5201,11 @@
       <c r="AB40" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5231,7 +5232,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111901572</v>
+        <v>111901526</v>
       </c>
       <c r="B41" t="n">
         <v>56398</v>
@@ -5275,10 +5276,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>477384.4771520677</v>
+        <v>478353.0790921703</v>
       </c>
       <c r="R41" t="n">
-        <v>7033853.518474016</v>
+        <v>7034559.44764189</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5325,7 +5326,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5352,10 +5353,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111901535</v>
+        <v>111901620</v>
       </c>
       <c r="B42" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5368,38 +5369,34 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>478133.153488568</v>
+        <v>478428.8768750167</v>
       </c>
       <c r="R42" t="n">
-        <v>7034251.648335411</v>
+        <v>7034567.439219557</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5442,11 +5439,6 @@
       <c r="AB42" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5473,7 +5465,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111901533</v>
+        <v>111901527</v>
       </c>
       <c r="B43" t="n">
         <v>56398</v>
@@ -5517,10 +5509,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>478206.6279368462</v>
+        <v>478330.4582599134</v>
       </c>
       <c r="R43" t="n">
-        <v>7034443.621060859</v>
+        <v>7034528.269818945</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5567,7 +5559,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5594,10 +5586,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111901578</v>
+        <v>111901607</v>
       </c>
       <c r="B44" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5610,38 +5602,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>477843.0506277476</v>
+        <v>478095.1015727581</v>
       </c>
       <c r="R44" t="n">
-        <v>7034173.07203023</v>
+        <v>7035043.219008418</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5684,11 +5672,6 @@
       <c r="AB44" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5715,7 +5698,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111901530</v>
+        <v>111901554</v>
       </c>
       <c r="B45" t="n">
         <v>56398</v>
@@ -5759,10 +5742,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>478301.071792486</v>
+        <v>477059.476171807</v>
       </c>
       <c r="R45" t="n">
-        <v>7034490.871451757</v>
+        <v>7033542.438482954</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5836,7 +5819,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111901538</v>
+        <v>111901578</v>
       </c>
       <c r="B46" t="n">
         <v>56398</v>
@@ -5880,10 +5863,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>477551.196685652</v>
+        <v>477843.0506277476</v>
       </c>
       <c r="R46" t="n">
-        <v>7033783.398951175</v>
+        <v>7034173.07203023</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5930,7 +5913,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5957,10 +5940,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111901604</v>
+        <v>111901574</v>
       </c>
       <c r="B47" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5973,34 +5956,38 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>477225.7321345775</v>
+        <v>477521.0595750482</v>
       </c>
       <c r="R47" t="n">
-        <v>7033657.657507668</v>
+        <v>7034024.014202636</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6043,6 +6030,11 @@
       <c r="AB47" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6069,10 +6061,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111901573</v>
+        <v>111901622</v>
       </c>
       <c r="B48" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6085,38 +6077,34 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>477537.5564934253</v>
+        <v>478165.647914707</v>
       </c>
       <c r="R48" t="n">
-        <v>7034011.363671634</v>
+        <v>7034284.10291774</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6159,11 +6147,6 @@
       <c r="AB48" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6190,7 +6173,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111901539</v>
+        <v>111901571</v>
       </c>
       <c r="B49" t="n">
         <v>56398</v>
@@ -6234,10 +6217,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>477543.7160649595</v>
+        <v>477388.9837839347</v>
       </c>
       <c r="R49" t="n">
-        <v>7033739.577035171</v>
+        <v>7033793.496102724</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6284,7 +6267,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6311,7 +6294,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111901580</v>
+        <v>111901529</v>
       </c>
       <c r="B50" t="n">
         <v>56398</v>
@@ -6355,10 +6338,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>477852.1205313139</v>
+        <v>478295.8274075754</v>
       </c>
       <c r="R50" t="n">
-        <v>7034188.228905845</v>
+        <v>7034510.601185531</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6405,7 +6388,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6432,10 +6415,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111901620</v>
+        <v>111901593</v>
       </c>
       <c r="B51" t="n">
-        <v>85062</v>
+        <v>78578</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6448,21 +6431,21 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>249278</v>
+        <v>6458</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
@@ -6472,10 +6455,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>478428.8768750167</v>
+        <v>478138.936023809</v>
       </c>
       <c r="R51" t="n">
-        <v>7034567.439219557</v>
+        <v>7034834.816035185</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6544,7 +6527,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111901579</v>
+        <v>111901576</v>
       </c>
       <c r="B52" t="n">
         <v>56398</v>
@@ -6588,10 +6571,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>477842.7544549896</v>
+        <v>477473.7729348365</v>
       </c>
       <c r="R52" t="n">
-        <v>7034195.008388352</v>
+        <v>7034056.578599731</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6638,7 +6621,7 @@
       </c>
       <c r="AC52" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6665,10 +6648,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111901589</v>
+        <v>111901540</v>
       </c>
       <c r="B53" t="n">
-        <v>90092</v>
+        <v>56398</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6677,38 +6660,42 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>67</v>
+        <v>100109</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Sprickporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Diplomitoporus crustulinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Bres.) Domański</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>477449.9680636173</v>
+        <v>477528.5199198141</v>
       </c>
       <c r="R53" t="n">
-        <v>7033732.178319109</v>
+        <v>7033682.377499279</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6753,13 +6740,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC53" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
       <c r="AD53" t="b">
         <v>0</v>
       </c>
       <c r="AE53" t="b">
         <v>0</v>
       </c>
-      <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="b">
         <v>0</v>
       </c>
@@ -6778,10 +6769,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111901552</v>
+        <v>111901609</v>
       </c>
       <c r="B54" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6794,38 +6785,34 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>477255.574404106</v>
+        <v>478140.6856806503</v>
       </c>
       <c r="R54" t="n">
-        <v>7033441.19203402</v>
+        <v>7034828.538396582</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6868,11 +6855,6 @@
       <c r="AB54" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6899,7 +6881,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111901576</v>
+        <v>111901532</v>
       </c>
       <c r="B55" t="n">
         <v>56398</v>
@@ -6943,10 +6925,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>477473.7729348365</v>
+        <v>478222.3906325128</v>
       </c>
       <c r="R55" t="n">
-        <v>7034056.578599731</v>
+        <v>7034454.703636711</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6993,7 +6975,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7020,10 +7002,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111901594</v>
+        <v>111901534</v>
       </c>
       <c r="B56" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -7036,34 +7018,38 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>478158.0786587475</v>
+        <v>478196.6579575058</v>
       </c>
       <c r="R56" t="n">
-        <v>7034881.677253954</v>
+        <v>7034427.575356619</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7106,6 +7092,11 @@
       <c r="AB56" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7132,10 +7123,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111901528</v>
+        <v>111901523</v>
       </c>
       <c r="B57" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7144,42 +7135,38 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>478333.5954659996</v>
+        <v>478095.1199801999</v>
       </c>
       <c r="R57" t="n">
-        <v>7034528.248548109</v>
+        <v>7035045.903991099</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7222,11 +7209,6 @@
       <c r="AB57" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>ringhack färska, 2 träd</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7253,7 +7235,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111901554</v>
+        <v>111901564</v>
       </c>
       <c r="B58" t="n">
         <v>56398</v>
@@ -7297,10 +7279,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>477059.476171807</v>
+        <v>477365.3609946552</v>
       </c>
       <c r="R58" t="n">
-        <v>7033542.438482954</v>
+        <v>7033686.214811271</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7347,7 +7329,7 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7374,7 +7356,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111901556</v>
+        <v>111901573</v>
       </c>
       <c r="B59" t="n">
         <v>56398</v>
@@ -7418,10 +7400,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>477225.8246246836</v>
+        <v>477537.5564934253</v>
       </c>
       <c r="R59" t="n">
-        <v>7033670.640521363</v>
+        <v>7034011.363671634</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7468,7 +7450,7 @@
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7495,10 +7477,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111901600</v>
+        <v>111901561</v>
       </c>
       <c r="B60" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7511,34 +7493,38 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>478177.1393061698</v>
+        <v>477353.6324963307</v>
       </c>
       <c r="R60" t="n">
-        <v>7034260.300264063</v>
+        <v>7033676.000540117</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7581,6 +7567,11 @@
       <c r="AB60" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7607,10 +7598,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111901571</v>
+        <v>111901522</v>
       </c>
       <c r="B61" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7619,42 +7610,38 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>477388.9837839347</v>
+        <v>477298.4037140894</v>
       </c>
       <c r="R61" t="n">
-        <v>7033793.496102724</v>
+        <v>7033474.468247524</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7697,11 +7684,6 @@
       <c r="AB61" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7728,7 +7710,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111901553</v>
+        <v>111901533</v>
       </c>
       <c r="B62" t="n">
         <v>56398</v>
@@ -7772,10 +7754,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>477099.1032443722</v>
+        <v>478206.6279368462</v>
       </c>
       <c r="R62" t="n">
-        <v>7033504.097089833</v>
+        <v>7034443.621060859</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7849,10 +7831,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111901523</v>
+        <v>111901583</v>
       </c>
       <c r="B63" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7861,38 +7843,42 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>478095.1199801999</v>
+        <v>478099.0396604858</v>
       </c>
       <c r="R63" t="n">
-        <v>7035045.903991099</v>
+        <v>7034963.980289284</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7935,6 +7921,11 @@
       <c r="AB63" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC63" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7961,10 +7952,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111901593</v>
+        <v>111901579</v>
       </c>
       <c r="B64" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7977,34 +7968,38 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>478138.936023809</v>
+        <v>477842.7544549896</v>
       </c>
       <c r="R64" t="n">
-        <v>7034834.816035185</v>
+        <v>7034195.008388352</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8047,6 +8042,11 @@
       <c r="AB64" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8073,10 +8073,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111901570</v>
+        <v>111901588</v>
       </c>
       <c r="B65" t="n">
-        <v>56398</v>
+        <v>90332</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8085,42 +8085,38 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>100109</v>
+        <v>4769</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>477406.0214198313</v>
+        <v>477431.6258370291</v>
       </c>
       <c r="R65" t="n">
-        <v>7033793.823331236</v>
+        <v>7033674.105856254</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8163,11 +8159,6 @@
       <c r="AB65" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC65" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8194,10 +8185,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111901588</v>
+        <v>111901581</v>
       </c>
       <c r="B66" t="n">
-        <v>90332</v>
+        <v>56398</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8206,38 +8197,42 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4769</v>
+        <v>100109</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>477431.6258370291</v>
+        <v>477791.9273844106</v>
       </c>
       <c r="R66" t="n">
-        <v>7033674.105856254</v>
+        <v>7034363.220776994</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8280,6 +8275,11 @@
       <c r="AB66" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8418,10 +8418,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111901529</v>
+        <v>111901600</v>
       </c>
       <c r="B68" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8434,38 +8434,34 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>478295.8274075754</v>
+        <v>478177.1393061698</v>
       </c>
       <c r="R68" t="n">
-        <v>7034510.601185531</v>
+        <v>7034260.300264063</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8508,11 +8504,6 @@
       <c r="AB68" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC68" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8539,7 +8530,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111901555</v>
+        <v>111901541</v>
       </c>
       <c r="B69" t="n">
         <v>56398</v>
@@ -8583,10 +8574,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>477075.053782316</v>
+        <v>477527.5603965624</v>
       </c>
       <c r="R69" t="n">
-        <v>7033651.571049522</v>
+        <v>7033673.430039096</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8633,7 +8624,7 @@
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8660,10 +8651,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111901568</v>
+        <v>111901610</v>
       </c>
       <c r="B70" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8676,38 +8667,34 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>477444.339370368</v>
+        <v>478113.3056525883</v>
       </c>
       <c r="R70" t="n">
-        <v>7033760.423184556</v>
+        <v>7034953.141815373</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8750,11 +8737,6 @@
       <c r="AB70" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC70" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8781,7 +8763,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111901524</v>
+        <v>111901557</v>
       </c>
       <c r="B71" t="n">
         <v>56398</v>
@@ -8817,7 +8799,11 @@
       <c r="I71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
@@ -8825,10 +8811,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>478393.0053771812</v>
+        <v>477301.6306204998</v>
       </c>
       <c r="R71" t="n">
-        <v>7034564.99604707</v>
+        <v>7033676.369342894</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8871,11 +8857,6 @@
       <c r="AB71" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC71" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8902,7 +8883,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111901565</v>
+        <v>111901553</v>
       </c>
       <c r="B72" t="n">
         <v>56398</v>
@@ -8946,10 +8927,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>477372.8710303173</v>
+        <v>477099.1032443722</v>
       </c>
       <c r="R72" t="n">
-        <v>7033670.491777684</v>
+        <v>7033504.097089833</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8996,7 +8977,7 @@
       </c>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -9023,10 +9004,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111901609</v>
+        <v>111901569</v>
       </c>
       <c r="B73" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -9039,34 +9020,38 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>478140.6856806503</v>
+        <v>477398.2994504073</v>
       </c>
       <c r="R73" t="n">
-        <v>7034828.538396582</v>
+        <v>7033779.55166768</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9109,6 +9094,11 @@
       <c r="AB73" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC73" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -9135,10 +9125,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111901625</v>
+        <v>111901567</v>
       </c>
       <c r="B74" t="n">
-        <v>89747</v>
+        <v>56398</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9147,38 +9137,58 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>2063</v>
+        <v>100109</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Niemelä</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P74" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>478182.0360042938</v>
+        <v>477452.815646043</v>
       </c>
       <c r="R74" t="n">
-        <v>7034255.342927237</v>
+        <v>7033754.54329758</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9247,7 +9257,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111901564</v>
+        <v>111901570</v>
       </c>
       <c r="B75" t="n">
         <v>56398</v>
@@ -9291,10 +9301,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>477365.3609946552</v>
+        <v>477406.0214198313</v>
       </c>
       <c r="R75" t="n">
-        <v>7033686.214811271</v>
+        <v>7033793.823331236</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9368,10 +9378,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111901574</v>
+        <v>111901612</v>
       </c>
       <c r="B76" t="n">
-        <v>56398</v>
+        <v>95674</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9380,42 +9390,38 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>100109</v>
+        <v>222741</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>477521.0595750482</v>
+        <v>478173.6911794385</v>
       </c>
       <c r="R76" t="n">
-        <v>7034024.014202636</v>
+        <v>7034280.466984005</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9458,11 +9464,6 @@
       <c r="AB76" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC76" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9601,10 +9602,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111901521</v>
+        <v>111901530</v>
       </c>
       <c r="B78" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9613,38 +9614,42 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>478416.8277586199</v>
+        <v>478301.071792486</v>
       </c>
       <c r="R78" t="n">
-        <v>7034575.129493972</v>
+        <v>7034490.871451757</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9687,6 +9692,11 @@
       <c r="AB78" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC78" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9713,7 +9723,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111901575</v>
+        <v>111901555</v>
       </c>
       <c r="B79" t="n">
         <v>56398</v>
@@ -9757,10 +9767,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>477476.8538289875</v>
+        <v>477075.053782316</v>
       </c>
       <c r="R79" t="n">
-        <v>7034048.499043919</v>
+        <v>7033651.571049522</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9834,10 +9844,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111901611</v>
+        <v>111901590</v>
       </c>
       <c r="B80" t="n">
-        <v>88899</v>
+        <v>56414</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9850,34 +9860,38 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>3286</v>
+        <v>100049</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>478050.6335314792</v>
+        <v>477995.937568082</v>
       </c>
       <c r="R80" t="n">
-        <v>7035158.534338644</v>
+        <v>7034178.282797099</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9922,13 +9936,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC80" t="inlineStr">
+        <is>
+          <t>hack</t>
+        </is>
+      </c>
       <c r="AD80" t="b">
         <v>0</v>
       </c>
       <c r="AE80" t="b">
         <v>0</v>
       </c>
-      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="b">
         <v>0</v>
       </c>
@@ -9947,10 +9965,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111901569</v>
+        <v>111901589</v>
       </c>
       <c r="B81" t="n">
-        <v>56398</v>
+        <v>90092</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9959,42 +9977,38 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>100109</v>
+        <v>67</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Sprickporing</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Diplomitoporus crustulinus</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Bres.) Domański</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>477398.2994504073</v>
+        <v>477449.9680636173</v>
       </c>
       <c r="R81" t="n">
-        <v>7033779.55166768</v>
+        <v>7033732.178319109</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -10039,17 +10053,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC81" t="inlineStr">
-        <is>
-          <t>ringhack</t>
-        </is>
-      </c>
       <c r="AD81" t="b">
         <v>0</v>
       </c>
       <c r="AE81" t="b">
         <v>0</v>
       </c>
+      <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="b">
         <v>0</v>
       </c>
@@ -10068,10 +10078,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111901532</v>
+        <v>111901520</v>
       </c>
       <c r="B82" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10084,38 +10094,34 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>478222.3906325128</v>
+        <v>477844.0012352917</v>
       </c>
       <c r="R82" t="n">
-        <v>7034454.703636711</v>
+        <v>7034116.214604673</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -10158,11 +10164,6 @@
       <c r="AB82" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC82" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -10189,10 +10190,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111901610</v>
+        <v>111901528</v>
       </c>
       <c r="B83" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -10205,34 +10206,38 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
       <c r="P83" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>478113.3056525883</v>
+        <v>478333.5954659996</v>
       </c>
       <c r="R83" t="n">
-        <v>7034953.141815373</v>
+        <v>7034528.248548109</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -10275,6 +10280,11 @@
       <c r="AB83" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC83" t="inlineStr">
+        <is>
+          <t>ringhack färska, 2 träd</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -10301,7 +10311,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111901534</v>
+        <v>111901552</v>
       </c>
       <c r="B84" t="n">
         <v>56398</v>
@@ -10345,10 +10355,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>478196.6579575058</v>
+        <v>477255.574404106</v>
       </c>
       <c r="R84" t="n">
-        <v>7034427.575356619</v>
+        <v>7033441.19203402</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -10395,7 +10405,7 @@
       </c>
       <c r="AC84" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -10422,10 +10432,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111901606</v>
+        <v>111901580</v>
       </c>
       <c r="B85" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -10438,34 +10448,38 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>477306.6698846163</v>
+        <v>477852.1205313139</v>
       </c>
       <c r="R85" t="n">
-        <v>7033691.555703563</v>
+        <v>7034188.228905845</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -10508,6 +10522,11 @@
       <c r="AB85" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC85" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -10534,10 +10553,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111901596</v>
+        <v>111901625</v>
       </c>
       <c r="B86" t="n">
-        <v>78578</v>
+        <v>89747</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10546,25 +10565,25 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6458</v>
+        <v>2063</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -10574,10 +10593,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>478096.0619985596</v>
+        <v>478182.0360042938</v>
       </c>
       <c r="R86" t="n">
-        <v>7035117.947114002</v>
+        <v>7034255.342927237</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -10646,10 +10665,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111901612</v>
+        <v>111901594</v>
       </c>
       <c r="B87" t="n">
-        <v>95674</v>
+        <v>78578</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10658,25 +10677,25 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>222741</v>
+        <v>6458</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10686,10 +10705,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>478173.6911794385</v>
+        <v>478158.0786587475</v>
       </c>
       <c r="R87" t="n">
-        <v>7034280.466984005</v>
+        <v>7034881.677253954</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -10758,10 +10777,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111901567</v>
+        <v>111901611</v>
       </c>
       <c r="B88" t="n">
-        <v>56398</v>
+        <v>88899</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10774,54 +10793,34 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>100109</v>
+        <v>3286</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>477452.815646043</v>
+        <v>478050.6335314792</v>
       </c>
       <c r="R88" t="n">
-        <v>7033754.54329758</v>
+        <v>7035158.534338644</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10872,6 +10871,7 @@
       <c r="AE88" t="b">
         <v>0</v>
       </c>
+      <c r="AF88" t="inlineStr"/>
       <c r="AG88" t="b">
         <v>0</v>
       </c>
@@ -10890,7 +10890,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111901527</v>
+        <v>111901565</v>
       </c>
       <c r="B89" t="n">
         <v>56398</v>
@@ -10934,10 +10934,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>478330.4582599134</v>
+        <v>477372.8710303173</v>
       </c>
       <c r="R89" t="n">
-        <v>7034528.269818945</v>
+        <v>7033670.491777684</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -11011,7 +11011,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111901526</v>
+        <v>111901524</v>
       </c>
       <c r="B90" t="n">
         <v>56398</v>
@@ -11055,10 +11055,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>478353.0790921703</v>
+        <v>478393.0053771812</v>
       </c>
       <c r="R90" t="n">
-        <v>7034559.44764189</v>
+        <v>7034564.99604707</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -11105,7 +11105,7 @@
       </c>
       <c r="AC90" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -11132,10 +11132,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111901607</v>
+        <v>111901539</v>
       </c>
       <c r="B91" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11148,34 +11148,38 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>478095.1015727581</v>
+        <v>477543.7160649595</v>
       </c>
       <c r="R91" t="n">
-        <v>7035043.219008418</v>
+        <v>7033739.577035171</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -11218,6 +11222,11 @@
       <c r="AB91" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC91" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -11244,7 +11253,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111901541</v>
+        <v>111901537</v>
       </c>
       <c r="B92" t="n">
         <v>56398</v>
@@ -11288,10 +11297,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>477527.5603965624</v>
+        <v>477585.6298561281</v>
       </c>
       <c r="R92" t="n">
-        <v>7033673.430039096</v>
+        <v>7033835.089579746</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -11338,7 +11347,7 @@
       </c>
       <c r="AC92" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -11477,10 +11486,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111901536</v>
+        <v>111901606</v>
       </c>
       <c r="B94" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11493,38 +11502,34 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>478002.2311527666</v>
+        <v>477306.6698846163</v>
       </c>
       <c r="R94" t="n">
-        <v>7034180.925310614</v>
+        <v>7033691.555703563</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -11567,11 +11572,6 @@
       <c r="AB94" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC94" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -11598,7 +11598,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111901581</v>
+        <v>111901536</v>
       </c>
       <c r="B95" t="n">
         <v>56398</v>
@@ -11642,10 +11642,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>477791.9273844106</v>
+        <v>478002.2311527666</v>
       </c>
       <c r="R95" t="n">
-        <v>7034363.220776994</v>
+        <v>7034180.925310614</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -11692,7 +11692,7 @@
       </c>
       <c r="AC95" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11719,10 +11719,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111901583</v>
+        <v>111901595</v>
       </c>
       <c r="B96" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11735,38 +11735,34 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>478099.0396604858</v>
+        <v>478119.5332644144</v>
       </c>
       <c r="R96" t="n">
-        <v>7034963.980289284</v>
+        <v>7034946.386193739</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -11809,11 +11805,6 @@
       <c r="AB96" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC96" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11840,10 +11831,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111901520</v>
+        <v>111901575</v>
       </c>
       <c r="B97" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11856,34 +11847,38 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>477844.0012352917</v>
+        <v>477476.8538289875</v>
       </c>
       <c r="R97" t="n">
-        <v>7034116.214604673</v>
+        <v>7034048.499043919</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11926,6 +11921,11 @@
       <c r="AB97" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC97" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11952,7 +11952,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111901531</v>
+        <v>111901582</v>
       </c>
       <c r="B98" t="n">
         <v>56398</v>
@@ -11996,10 +11996,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>478266.0134983131</v>
+        <v>478099.9358829815</v>
       </c>
       <c r="R98" t="n">
-        <v>7034476.339010282</v>
+        <v>7034963.974146471</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -12185,10 +12185,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111901598</v>
+        <v>111901604</v>
       </c>
       <c r="B100" t="n">
-        <v>88966</v>
+        <v>89423</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12201,21 +12201,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>5754</v>
+        <v>5432</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -12225,10 +12225,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>478095.3749122242</v>
+        <v>477225.7321345775</v>
       </c>
       <c r="R100" t="n">
-        <v>7034233.1065605</v>
+        <v>7033657.657507668</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -12279,7 +12279,6 @@
       <c r="AE100" t="b">
         <v>0</v>
       </c>
-      <c r="AF100" t="inlineStr"/>
       <c r="AG100" t="b">
         <v>0</v>
       </c>
@@ -12298,10 +12297,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111901563</v>
+        <v>111901598</v>
       </c>
       <c r="B101" t="n">
-        <v>56398</v>
+        <v>88966</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12314,38 +12313,34 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>100109</v>
+        <v>5754</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>477360.4012637081</v>
+        <v>478095.3749122242</v>
       </c>
       <c r="R101" t="n">
-        <v>7033682.220543981</v>
+        <v>7034233.1065605</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -12390,17 +12385,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC101" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
-        </is>
-      </c>
       <c r="AD101" t="b">
         <v>0</v>
       </c>
       <c r="AE101" t="b">
         <v>0</v>
       </c>
+      <c r="AF101" t="inlineStr"/>
       <c r="AG101" t="b">
         <v>0</v>
       </c>
@@ -12419,10 +12410,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111901595</v>
+        <v>111901572</v>
       </c>
       <c r="B102" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -12435,34 +12426,38 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
       <c r="P102" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>478119.5332644144</v>
+        <v>477384.4771520677</v>
       </c>
       <c r="R102" t="n">
-        <v>7034946.386193739</v>
+        <v>7033853.518474016</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -12505,6 +12500,11 @@
       <c r="AB102" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC102" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -12531,10 +12531,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111901591</v>
+        <v>111901556</v>
       </c>
       <c r="B103" t="n">
-        <v>56414</v>
+        <v>56398</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -12547,16 +12547,16 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -12575,10 +12575,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>477120.8792542543</v>
+        <v>477225.8246246836</v>
       </c>
       <c r="R103" t="n">
-        <v>7033665.121892933</v>
+        <v>7033670.640521363</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="AC103" t="inlineStr">
         <is>
-          <t>hack</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12652,7 +12652,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111901537</v>
+        <v>111901535</v>
       </c>
       <c r="B104" t="n">
         <v>56398</v>
@@ -12696,10 +12696,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>477585.6298561281</v>
+        <v>478133.153488568</v>
       </c>
       <c r="R104" t="n">
-        <v>7033835.089579746</v>
+        <v>7034251.648335411</v>
       </c>
       <c r="S104" t="n">
         <v>10</v>
@@ -12746,7 +12746,7 @@
       </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD104" t="b">

--- a/artfynd/A 37096-2023.xlsx
+++ b/artfynd/A 37096-2023.xlsx
@@ -5586,10 +5586,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111901607</v>
+        <v>111901529</v>
       </c>
       <c r="B44" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5602,34 +5602,38 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>478095.1015727581</v>
+        <v>478295.8274075754</v>
       </c>
       <c r="R44" t="n">
-        <v>7035043.219008418</v>
+        <v>7034510.601185531</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5672,6 +5676,11 @@
       <c r="AB44" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5698,10 +5707,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111901554</v>
+        <v>111901607</v>
       </c>
       <c r="B45" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5714,38 +5723,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>477059.476171807</v>
+        <v>478095.1015727581</v>
       </c>
       <c r="R45" t="n">
-        <v>7033542.438482954</v>
+        <v>7035043.219008418</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5788,11 +5793,6 @@
       <c r="AB45" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5819,7 +5819,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111901578</v>
+        <v>111901554</v>
       </c>
       <c r="B46" t="n">
         <v>56398</v>
@@ -5863,10 +5863,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>477843.0506277476</v>
+        <v>477059.476171807</v>
       </c>
       <c r="R46" t="n">
-        <v>7034173.07203023</v>
+        <v>7033542.438482954</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5940,7 +5940,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111901574</v>
+        <v>111901578</v>
       </c>
       <c r="B47" t="n">
         <v>56398</v>
@@ -5984,10 +5984,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>477521.0595750482</v>
+        <v>477843.0506277476</v>
       </c>
       <c r="R47" t="n">
-        <v>7034024.014202636</v>
+        <v>7034173.07203023</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6034,7 +6034,7 @@
       </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6061,10 +6061,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111901622</v>
+        <v>111901574</v>
       </c>
       <c r="B48" t="n">
-        <v>85062</v>
+        <v>56398</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6077,34 +6077,38 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>249278</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>478165.647914707</v>
+        <v>477521.0595750482</v>
       </c>
       <c r="R48" t="n">
-        <v>7034284.10291774</v>
+        <v>7034024.014202636</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6147,6 +6151,11 @@
       <c r="AB48" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6173,10 +6182,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111901571</v>
+        <v>111901622</v>
       </c>
       <c r="B49" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6189,38 +6198,34 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>477388.9837839347</v>
+        <v>478165.647914707</v>
       </c>
       <c r="R49" t="n">
-        <v>7033793.496102724</v>
+        <v>7034284.10291774</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6263,11 +6268,6 @@
       <c r="AB49" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6294,7 +6294,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111901529</v>
+        <v>111901571</v>
       </c>
       <c r="B50" t="n">
         <v>56398</v>
@@ -6338,10 +6338,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>478295.8274075754</v>
+        <v>477388.9837839347</v>
       </c>
       <c r="R50" t="n">
-        <v>7034510.601185531</v>
+        <v>7033793.496102724</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6769,10 +6769,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111901609</v>
+        <v>111901564</v>
       </c>
       <c r="B54" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6785,34 +6785,38 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>478140.6856806503</v>
+        <v>477365.3609946552</v>
       </c>
       <c r="R54" t="n">
-        <v>7034828.538396582</v>
+        <v>7033686.214811271</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6855,6 +6859,11 @@
       <c r="AB54" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC54" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6881,10 +6890,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111901532</v>
+        <v>111901609</v>
       </c>
       <c r="B55" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6897,38 +6906,34 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>478222.3906325128</v>
+        <v>478140.6856806503</v>
       </c>
       <c r="R55" t="n">
-        <v>7034454.703636711</v>
+        <v>7034828.538396582</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6971,11 +6976,6 @@
       <c r="AB55" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7002,7 +7002,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111901534</v>
+        <v>111901573</v>
       </c>
       <c r="B56" t="n">
         <v>56398</v>
@@ -7046,10 +7046,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>478196.6579575058</v>
+        <v>477537.5564934253</v>
       </c>
       <c r="R56" t="n">
-        <v>7034427.575356619</v>
+        <v>7034011.363671634</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7096,7 +7096,7 @@
       </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7123,10 +7123,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111901523</v>
+        <v>111901561</v>
       </c>
       <c r="B57" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7135,38 +7135,42 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>478095.1199801999</v>
+        <v>477353.6324963307</v>
       </c>
       <c r="R57" t="n">
-        <v>7035045.903991099</v>
+        <v>7033676.000540117</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7209,6 +7213,11 @@
       <c r="AB57" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC57" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7235,7 +7244,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111901564</v>
+        <v>111901532</v>
       </c>
       <c r="B58" t="n">
         <v>56398</v>
@@ -7279,10 +7288,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>477365.3609946552</v>
+        <v>478222.3906325128</v>
       </c>
       <c r="R58" t="n">
-        <v>7033686.214811271</v>
+        <v>7034454.703636711</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7356,7 +7365,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111901573</v>
+        <v>111901534</v>
       </c>
       <c r="B59" t="n">
         <v>56398</v>
@@ -7400,10 +7409,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>477537.5564934253</v>
+        <v>478196.6579575058</v>
       </c>
       <c r="R59" t="n">
-        <v>7034011.363671634</v>
+        <v>7034427.575356619</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7450,7 +7459,7 @@
       </c>
       <c r="AC59" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7477,10 +7486,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111901561</v>
+        <v>111901523</v>
       </c>
       <c r="B60" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7489,42 +7498,38 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>477353.6324963307</v>
+        <v>478095.1199801999</v>
       </c>
       <c r="R60" t="n">
-        <v>7033676.000540117</v>
+        <v>7035045.903991099</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7567,11 +7572,6 @@
       <c r="AB60" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -9602,7 +9602,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111901530</v>
+        <v>111901555</v>
       </c>
       <c r="B78" t="n">
         <v>56398</v>
@@ -9646,10 +9646,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>478301.071792486</v>
+        <v>477075.053782316</v>
       </c>
       <c r="R78" t="n">
-        <v>7034490.871451757</v>
+        <v>7033651.571049522</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9696,7 +9696,7 @@
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9723,10 +9723,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111901555</v>
+        <v>111901590</v>
       </c>
       <c r="B79" t="n">
-        <v>56398</v>
+        <v>56414</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9739,16 +9739,16 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -9767,10 +9767,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>477075.053782316</v>
+        <v>477995.937568082</v>
       </c>
       <c r="R79" t="n">
-        <v>7033651.571049522</v>
+        <v>7034178.282797099</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9817,7 +9817,7 @@
       </c>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9844,10 +9844,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111901590</v>
+        <v>111901589</v>
       </c>
       <c r="B80" t="n">
-        <v>56414</v>
+        <v>90092</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9856,42 +9856,38 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>100049</v>
+        <v>67</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Sprickporing</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Diplomitoporus crustulinus</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Bres.) Domański</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>477995.937568082</v>
+        <v>477449.9680636173</v>
       </c>
       <c r="R80" t="n">
-        <v>7034178.282797099</v>
+        <v>7033732.178319109</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9936,17 +9932,13 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC80" t="inlineStr">
-        <is>
-          <t>hack</t>
-        </is>
-      </c>
       <c r="AD80" t="b">
         <v>0</v>
       </c>
       <c r="AE80" t="b">
         <v>0</v>
       </c>
+      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="b">
         <v>0</v>
       </c>
@@ -9965,10 +9957,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111901589</v>
+        <v>111901530</v>
       </c>
       <c r="B81" t="n">
-        <v>90092</v>
+        <v>56398</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9977,38 +9969,42 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>67</v>
+        <v>100109</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Sprickporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Diplomitoporus crustulinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Bres.) Domański</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>477449.9680636173</v>
+        <v>478301.071792486</v>
       </c>
       <c r="R81" t="n">
-        <v>7033732.178319109</v>
+        <v>7034490.871451757</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -10053,13 +10049,17 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC81" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
       <c r="AD81" t="b">
         <v>0</v>
       </c>
       <c r="AE81" t="b">
         <v>0</v>
       </c>
-      <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 37096-2023.xlsx
+++ b/artfynd/A 37096-2023.xlsx
@@ -2431,10 +2431,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111769034</v>
+        <v>111769169</v>
       </c>
       <c r="B17" t="n">
-        <v>86223</v>
+        <v>88956</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2443,25 +2443,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4412</v>
+        <v>5747</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2470,14 +2470,14 @@
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>477427.7828955905</v>
+        <v>477543</v>
       </c>
       <c r="R17" t="n">
-        <v>7033574.291879836</v>
+        <v>7033726</v>
       </c>
       <c r="S17" t="n">
         <v>50</v>
@@ -2507,19 +2507,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2590,10 +2580,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>478264.7846321497</v>
+        <v>478265</v>
       </c>
       <c r="R18" t="n">
-        <v>7034493.356013894</v>
+        <v>7034493</v>
       </c>
       <c r="S18" t="n">
         <v>50</v>
@@ -2623,19 +2613,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2663,10 +2643,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111769042</v>
+        <v>111759358</v>
       </c>
       <c r="B19" t="n">
-        <v>96326</v>
+        <v>88899</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2675,45 +2655,42 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>219798</v>
+        <v>3286</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Storbäcken (Storbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>477548.844789583</v>
+        <v>478195</v>
       </c>
       <c r="R19" t="n">
-        <v>7033895.337382489</v>
+        <v>7034886</v>
       </c>
       <c r="S19" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2740,28 +2717,17 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD19" t="b">
         <v>0</v>
       </c>
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2780,10 +2746,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111769169</v>
+        <v>111769066</v>
       </c>
       <c r="B20" t="n">
-        <v>88956</v>
+        <v>96253</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2792,30 +2758,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5747</v>
+        <v>504</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2823,10 +2790,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>477542.7220056681</v>
+        <v>477894</v>
       </c>
       <c r="R20" t="n">
-        <v>7033725.70523841</v>
+        <v>7034319</v>
       </c>
       <c r="S20" t="n">
         <v>50</v>
@@ -2856,19 +2823,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2896,10 +2853,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111758748</v>
+        <v>111769093</v>
       </c>
       <c r="B21" t="n">
-        <v>88033</v>
+        <v>82949</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2908,42 +2865,44 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1599</v>
+        <v>5589</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Fjällfotad musseron</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Tricholoma olivaceotinctum</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Storbäcken (Storbäcken), Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>478042.3229088559</v>
+        <v>478248</v>
       </c>
       <c r="R21" t="n">
-        <v>7035188.126460684</v>
+        <v>7034762</v>
       </c>
       <c r="S21" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2970,27 +2929,18 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3009,7 +2959,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111769093</v>
+        <v>111769149</v>
       </c>
       <c r="B22" t="n">
         <v>82949</v>
@@ -3048,17 +2998,17 @@
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>478247.7891202001</v>
+        <v>477460</v>
       </c>
       <c r="R22" t="n">
-        <v>7034762.017267247</v>
+        <v>7033837</v>
       </c>
       <c r="S22" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3085,19 +3035,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3125,10 +3065,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111769149</v>
+        <v>111769051</v>
       </c>
       <c r="B23" t="n">
-        <v>82949</v>
+        <v>73688</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3137,25 +3077,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5589</v>
+        <v>492</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Smalskaftslav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Chaenotheca gracilenta</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3164,14 +3104,14 @@
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>477459.6755572999</v>
+        <v>477242</v>
       </c>
       <c r="R23" t="n">
-        <v>7033837.318297116</v>
+        <v>7033395</v>
       </c>
       <c r="S23" t="n">
         <v>50</v>
@@ -3201,19 +3141,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3241,7 +3171,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111758961</v>
+        <v>111769034</v>
       </c>
       <c r="B24" t="n">
         <v>86223</v>
@@ -3275,20 +3205,22 @@
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Storbäcken (Storbäcken), Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>478081.61875638</v>
+        <v>477428</v>
       </c>
       <c r="R24" t="n">
-        <v>7035102.830858655</v>
+        <v>7033574</v>
       </c>
       <c r="S24" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3315,27 +3247,18 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD24" t="b">
         <v>0</v>
       </c>
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3354,10 +3277,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111769028</v>
+        <v>111758748</v>
       </c>
       <c r="B25" t="n">
-        <v>82949</v>
+        <v>88033</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3366,44 +3289,42 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5589</v>
+        <v>1599</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Fjällfotad musseron</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Tricholoma olivaceotinctum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Storbäcken (Storbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>477173.4934072607</v>
+        <v>478042</v>
       </c>
       <c r="R25" t="n">
-        <v>7033624.899085587</v>
+        <v>7035188</v>
       </c>
       <c r="S25" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3430,28 +3351,17 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3470,10 +3380,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111769066</v>
+        <v>111758961</v>
       </c>
       <c r="B26" t="n">
-        <v>96253</v>
+        <v>86223</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3482,45 +3392,42 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>504</v>
+        <v>4412</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Storbäcken (Storbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>477894.260786515</v>
+        <v>478082</v>
       </c>
       <c r="R26" t="n">
-        <v>7034318.644870933</v>
+        <v>7035103</v>
       </c>
       <c r="S26" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3547,28 +3454,17 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3628,10 +3524,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>478158.3876210112</v>
+        <v>478158</v>
       </c>
       <c r="R27" t="n">
-        <v>7034926.8764399</v>
+        <v>7034927</v>
       </c>
       <c r="S27" t="n">
         <v>25</v>
@@ -3661,19 +3557,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3700,10 +3586,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111759358</v>
+        <v>111769028</v>
       </c>
       <c r="B28" t="n">
-        <v>88899</v>
+        <v>82949</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3716,38 +3602,40 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3286</v>
+        <v>5589</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Storbäcken (Storbäcken), Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>478195.3064424611</v>
+        <v>477173</v>
       </c>
       <c r="R28" t="n">
-        <v>7034886.345942191</v>
+        <v>7033625</v>
       </c>
       <c r="S28" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3774,27 +3662,18 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3813,10 +3692,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111769051</v>
+        <v>111769042</v>
       </c>
       <c r="B29" t="n">
-        <v>73688</v>
+        <v>96326</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3825,41 +3704,42 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>492</v>
+        <v>219798</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Smalskaftslav</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Chaenotheca gracilenta</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>477242.2415391286</v>
+        <v>477549</v>
       </c>
       <c r="R29" t="n">
-        <v>7033394.72120441</v>
+        <v>7033895</v>
       </c>
       <c r="S29" t="n">
         <v>50</v>
@@ -3889,19 +3769,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3972,10 +3842,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>478264.7846321497</v>
+        <v>478265</v>
       </c>
       <c r="R30" t="n">
-        <v>7034493.356013894</v>
+        <v>7034493</v>
       </c>
       <c r="S30" t="n">
         <v>50</v>
@@ -4005,19 +3875,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4088,10 +3948,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>478042.3229088559</v>
+        <v>478042</v>
       </c>
       <c r="R31" t="n">
-        <v>7035188.126460684</v>
+        <v>7035188</v>
       </c>
       <c r="S31" t="n">
         <v>25</v>
@@ -4121,19 +3981,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
@@ -4209,10 +4059,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>478142.3901253083</v>
+        <v>478142</v>
       </c>
       <c r="R32" t="n">
-        <v>7034946.677288129</v>
+        <v>7034947</v>
       </c>
       <c r="S32" t="n">
         <v>25</v>
@@ -4242,19 +4092,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4282,7 +4122,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111901531</v>
+        <v>111901561</v>
       </c>
       <c r="B33" t="n">
         <v>56398</v>
@@ -4326,10 +4166,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>478266.0134983131</v>
+        <v>477354</v>
       </c>
       <c r="R33" t="n">
-        <v>7034476.339010282</v>
+        <v>7033676</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4359,24 +4199,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4403,10 +4233,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111901521</v>
+        <v>111901524</v>
       </c>
       <c r="B34" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4415,38 +4245,42 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>478416.8277586199</v>
+        <v>478393</v>
       </c>
       <c r="R34" t="n">
-        <v>7034575.129493972</v>
+        <v>7034565</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4476,19 +4310,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4515,7 +4344,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111901538</v>
+        <v>111901541</v>
       </c>
       <c r="B35" t="n">
         <v>56398</v>
@@ -4559,10 +4388,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>477551.196685652</v>
+        <v>477528</v>
       </c>
       <c r="R35" t="n">
-        <v>7033783.398951175</v>
+        <v>7033673</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4592,19 +4421,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
@@ -4636,10 +4455,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111901596</v>
+        <v>111901582</v>
       </c>
       <c r="B36" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4652,34 +4471,38 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>478096.0619985596</v>
+        <v>478100</v>
       </c>
       <c r="R36" t="n">
-        <v>7035117.947114002</v>
+        <v>7034964</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4709,19 +4532,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4748,10 +4566,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111901577</v>
+        <v>111901593</v>
       </c>
       <c r="B37" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4764,38 +4582,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>477611.1407894194</v>
+        <v>478139</v>
       </c>
       <c r="R37" t="n">
-        <v>7034021.143660905</v>
+        <v>7034835</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4825,24 +4639,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4869,7 +4668,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111901568</v>
+        <v>111901567</v>
       </c>
       <c r="B38" t="n">
         <v>56398</v>
@@ -4902,21 +4701,37 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>477444.339370368</v>
+        <v>477453</v>
       </c>
       <c r="R38" t="n">
-        <v>7033760.423184556</v>
+        <v>7033755</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4946,24 +4761,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4990,10 +4790,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111901563</v>
+        <v>111901522</v>
       </c>
       <c r="B39" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5002,42 +4802,38 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>477360.4012637081</v>
+        <v>477298</v>
       </c>
       <c r="R39" t="n">
-        <v>7033682.220543981</v>
+        <v>7033474</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5067,24 +4863,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA39" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5111,10 +4892,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111901591</v>
+        <v>111901565</v>
       </c>
       <c r="B40" t="n">
-        <v>56414</v>
+        <v>56398</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5127,16 +4908,16 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -5155,10 +4936,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>477120.8792542543</v>
+        <v>477373</v>
       </c>
       <c r="R40" t="n">
-        <v>7033665.121892933</v>
+        <v>7033670</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5188,24 +4969,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA40" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>hack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5232,7 +5003,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111901526</v>
+        <v>111901532</v>
       </c>
       <c r="B41" t="n">
         <v>56398</v>
@@ -5276,10 +5047,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>478353.0790921703</v>
+        <v>478222</v>
       </c>
       <c r="R41" t="n">
-        <v>7034559.44764189</v>
+        <v>7034455</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5309,19 +5080,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA41" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC41" t="inlineStr">
@@ -5353,10 +5114,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111901620</v>
+        <v>111901594</v>
       </c>
       <c r="B42" t="n">
-        <v>85062</v>
+        <v>78578</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5369,21 +5130,21 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>249278</v>
+        <v>6458</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5393,10 +5154,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>478428.8768750167</v>
+        <v>478158</v>
       </c>
       <c r="R42" t="n">
-        <v>7034567.439219557</v>
+        <v>7034882</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5426,19 +5187,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA42" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5465,7 +5216,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111901527</v>
+        <v>111901528</v>
       </c>
       <c r="B43" t="n">
         <v>56398</v>
@@ -5509,10 +5260,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>478330.4582599134</v>
+        <v>478334</v>
       </c>
       <c r="R43" t="n">
-        <v>7034528.269818945</v>
+        <v>7034528</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5542,24 +5293,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA43" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska, 2 träd</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5586,7 +5327,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111901529</v>
+        <v>111901535</v>
       </c>
       <c r="B44" t="n">
         <v>56398</v>
@@ -5630,10 +5371,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>478295.8274075754</v>
+        <v>478133</v>
       </c>
       <c r="R44" t="n">
-        <v>7034510.601185531</v>
+        <v>7034252</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5663,24 +5404,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA44" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5707,7 +5438,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111901607</v>
+        <v>111901600</v>
       </c>
       <c r="B45" t="n">
         <v>89423</v>
@@ -5747,10 +5478,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>478095.1015727581</v>
+        <v>478177</v>
       </c>
       <c r="R45" t="n">
-        <v>7035043.219008418</v>
+        <v>7034260</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5780,19 +5511,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA45" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5819,10 +5540,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111901554</v>
+        <v>111901521</v>
       </c>
       <c r="B46" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5831,42 +5552,38 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>477059.476171807</v>
+        <v>478417</v>
       </c>
       <c r="R46" t="n">
-        <v>7033542.438482954</v>
+        <v>7034575</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5896,24 +5613,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA46" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5940,7 +5642,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111901578</v>
+        <v>111901537</v>
       </c>
       <c r="B47" t="n">
         <v>56398</v>
@@ -5984,10 +5686,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>477843.0506277476</v>
+        <v>477586</v>
       </c>
       <c r="R47" t="n">
-        <v>7034173.07203023</v>
+        <v>7033835</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -6017,24 +5719,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA47" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC47" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6061,10 +5753,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111901574</v>
+        <v>111901620</v>
       </c>
       <c r="B48" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6077,38 +5769,34 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>477521.0595750482</v>
+        <v>478429</v>
       </c>
       <c r="R48" t="n">
-        <v>7034024.014202636</v>
+        <v>7034567</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -6138,24 +5826,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA48" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6182,10 +5855,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111901622</v>
+        <v>111901534</v>
       </c>
       <c r="B49" t="n">
-        <v>85062</v>
+        <v>56398</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6198,34 +5871,38 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>249278</v>
+        <v>100109</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>478165.647914707</v>
+        <v>478197</v>
       </c>
       <c r="R49" t="n">
-        <v>7034284.10291774</v>
+        <v>7034428</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -6255,19 +5932,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA49" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6294,10 +5966,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111901571</v>
+        <v>111901608</v>
       </c>
       <c r="B50" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6310,38 +5982,34 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>477388.9837839347</v>
+        <v>478032</v>
       </c>
       <c r="R50" t="n">
-        <v>7033793.496102724</v>
+        <v>7035108</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6371,24 +6039,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA50" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6415,7 +6068,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111901593</v>
+        <v>111901596</v>
       </c>
       <c r="B51" t="n">
         <v>78578</v>
@@ -6455,10 +6108,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>478138.936023809</v>
+        <v>478096</v>
       </c>
       <c r="R51" t="n">
-        <v>7034834.816035185</v>
+        <v>7035118</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6488,19 +6141,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA51" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6527,10 +6170,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111901576</v>
+        <v>111901588</v>
       </c>
       <c r="B52" t="n">
-        <v>56398</v>
+        <v>90332</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6539,42 +6182,38 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>100109</v>
+        <v>4769</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>477473.7729348365</v>
+        <v>477432</v>
       </c>
       <c r="R52" t="n">
-        <v>7034056.578599731</v>
+        <v>7033674</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6604,24 +6243,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA52" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6648,7 +6272,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111901540</v>
+        <v>111901555</v>
       </c>
       <c r="B53" t="n">
         <v>56398</v>
@@ -6692,10 +6316,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>477528.5199198141</v>
+        <v>477075</v>
       </c>
       <c r="R53" t="n">
-        <v>7033682.377499279</v>
+        <v>7033652</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6725,24 +6349,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA53" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC53" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6769,7 +6383,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111901564</v>
+        <v>111901557</v>
       </c>
       <c r="B54" t="n">
         <v>56398</v>
@@ -6805,7 +6419,11 @@
       <c r="I54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
       <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
@@ -6813,10 +6431,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>477365.3609946552</v>
+        <v>477302</v>
       </c>
       <c r="R54" t="n">
-        <v>7033686.214811271</v>
+        <v>7033676</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6846,24 +6464,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA54" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB54" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6890,10 +6493,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111901609</v>
+        <v>111901536</v>
       </c>
       <c r="B55" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6906,34 +6509,38 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>478140.6856806503</v>
+        <v>478002</v>
       </c>
       <c r="R55" t="n">
-        <v>7034828.538396582</v>
+        <v>7034181</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6963,19 +6570,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA55" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -7002,7 +6604,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111901573</v>
+        <v>111901569</v>
       </c>
       <c r="B56" t="n">
         <v>56398</v>
@@ -7046,10 +6648,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>477537.5564934253</v>
+        <v>477398</v>
       </c>
       <c r="R56" t="n">
-        <v>7034011.363671634</v>
+        <v>7033780</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -7079,24 +6681,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA56" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC56" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7123,7 +6715,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111901561</v>
+        <v>111901583</v>
       </c>
       <c r="B57" t="n">
         <v>56398</v>
@@ -7167,10 +6759,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>477353.6324963307</v>
+        <v>478099</v>
       </c>
       <c r="R57" t="n">
-        <v>7033676.000540117</v>
+        <v>7034964</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -7200,24 +6792,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA57" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7244,10 +6826,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111901532</v>
+        <v>111901591</v>
       </c>
       <c r="B58" t="n">
-        <v>56398</v>
+        <v>56414</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7260,16 +6842,16 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -7288,10 +6870,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>478222.3906325128</v>
+        <v>477121</v>
       </c>
       <c r="R58" t="n">
-        <v>7034454.703636711</v>
+        <v>7033665</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -7321,24 +6903,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA58" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7365,10 +6937,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111901534</v>
+        <v>111901520</v>
       </c>
       <c r="B59" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7381,38 +6953,34 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>478196.6579575058</v>
+        <v>477844</v>
       </c>
       <c r="R59" t="n">
-        <v>7034427.575356619</v>
+        <v>7034116</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7442,24 +7010,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA59" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7486,10 +7039,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111901523</v>
+        <v>111901570</v>
       </c>
       <c r="B60" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7498,38 +7051,42 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>478095.1199801999</v>
+        <v>477406</v>
       </c>
       <c r="R60" t="n">
-        <v>7035045.903991099</v>
+        <v>7033794</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7559,19 +7116,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA60" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7598,10 +7150,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111901522</v>
+        <v>111901563</v>
       </c>
       <c r="B61" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7610,38 +7162,42 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>477298.4037140894</v>
+        <v>477360</v>
       </c>
       <c r="R61" t="n">
-        <v>7033474.468247524</v>
+        <v>7033682</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7671,19 +7227,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA61" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB61" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7710,7 +7261,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111901533</v>
+        <v>111901580</v>
       </c>
       <c r="B62" t="n">
         <v>56398</v>
@@ -7754,10 +7305,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>478206.6279368462</v>
+        <v>477852</v>
       </c>
       <c r="R62" t="n">
-        <v>7034443.621060859</v>
+        <v>7034188</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7787,24 +7338,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA62" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB62" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7831,7 +7372,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111901583</v>
+        <v>111901581</v>
       </c>
       <c r="B63" t="n">
         <v>56398</v>
@@ -7875,10 +7416,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>478099.0396604858</v>
+        <v>477792</v>
       </c>
       <c r="R63" t="n">
-        <v>7034963.980289284</v>
+        <v>7034363</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7908,24 +7449,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA63" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB63" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC63" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7952,10 +7483,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111901579</v>
+        <v>111901606</v>
       </c>
       <c r="B64" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7968,38 +7499,34 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>477842.7544549896</v>
+        <v>477307</v>
       </c>
       <c r="R64" t="n">
-        <v>7034195.008388352</v>
+        <v>7033692</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -8029,24 +7556,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA64" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB64" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC64" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -8073,10 +7585,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111901588</v>
+        <v>111901612</v>
       </c>
       <c r="B65" t="n">
-        <v>90332</v>
+        <v>95674</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -8089,21 +7601,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>4769</v>
+        <v>222741</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -8113,10 +7625,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>477431.6258370291</v>
+        <v>478174</v>
       </c>
       <c r="R65" t="n">
-        <v>7033674.105856254</v>
+        <v>7034280</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -8146,19 +7658,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z65" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA65" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB65" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -8185,10 +7687,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111901581</v>
+        <v>111901602</v>
       </c>
       <c r="B66" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -8201,38 +7703,34 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>477791.9273844106</v>
+        <v>477078</v>
       </c>
       <c r="R66" t="n">
-        <v>7034363.220776994</v>
+        <v>7033619</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -8262,24 +7760,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z66" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA66" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB66" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -8306,10 +7789,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111901608</v>
+        <v>111901589</v>
       </c>
       <c r="B67" t="n">
-        <v>89423</v>
+        <v>90092</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -8318,25 +7801,25 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>5432</v>
+        <v>67</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Sprickporing</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Diplomitoporus crustulinus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Bres.) Domański</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
@@ -8346,10 +7829,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>478032.3625065266</v>
+        <v>477450</v>
       </c>
       <c r="R67" t="n">
-        <v>7035108.091747497</v>
+        <v>7033732</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -8379,27 +7862,18 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z67" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA67" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB67" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD67" t="b">
         <v>0</v>
       </c>
       <c r="AE67" t="b">
         <v>0</v>
       </c>
+      <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="b">
         <v>0</v>
       </c>
@@ -8418,10 +7892,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111901600</v>
+        <v>111901552</v>
       </c>
       <c r="B68" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -8434,34 +7908,38 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>478177.1393061698</v>
+        <v>477256</v>
       </c>
       <c r="R68" t="n">
-        <v>7034260.300264063</v>
+        <v>7033441</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -8491,19 +7969,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z68" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA68" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB68" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8530,10 +8003,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111901541</v>
+        <v>111901611</v>
       </c>
       <c r="B69" t="n">
-        <v>56398</v>
+        <v>88899</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8546,38 +8019,34 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>100109</v>
+        <v>3286</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>477527.5603965624</v>
+        <v>478051</v>
       </c>
       <c r="R69" t="n">
-        <v>7033673.430039096</v>
+        <v>7035159</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8607,32 +8076,18 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z69" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA69" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB69" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC69" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
-        </is>
-      </c>
       <c r="AD69" t="b">
         <v>0</v>
       </c>
       <c r="AE69" t="b">
         <v>0</v>
       </c>
+      <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="b">
         <v>0</v>
       </c>
@@ -8651,10 +8106,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111901610</v>
+        <v>111901539</v>
       </c>
       <c r="B70" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8667,34 +8122,38 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>478113.3056525883</v>
+        <v>477544</v>
       </c>
       <c r="R70" t="n">
-        <v>7034953.141815373</v>
+        <v>7033740</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8724,19 +8183,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z70" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA70" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB70" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC70" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8763,7 +8217,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111901557</v>
+        <v>111901574</v>
       </c>
       <c r="B71" t="n">
         <v>56398</v>
@@ -8799,11 +8253,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
+      <c r="M71" t="inlineStr"/>
       <c r="N71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
@@ -8811,10 +8261,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>477301.6306204998</v>
+        <v>477521</v>
       </c>
       <c r="R71" t="n">
-        <v>7033676.369342894</v>
+        <v>7034024</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8844,19 +8294,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z71" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA71" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB71" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC71" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8883,7 +8328,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111901553</v>
+        <v>111901530</v>
       </c>
       <c r="B72" t="n">
         <v>56398</v>
@@ -8927,10 +8372,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>477099.1032443722</v>
+        <v>478301</v>
       </c>
       <c r="R72" t="n">
-        <v>7033504.097089833</v>
+        <v>7034491</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8960,24 +8405,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z72" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA72" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB72" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC72" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -9004,7 +8439,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111901569</v>
+        <v>111901553</v>
       </c>
       <c r="B73" t="n">
         <v>56398</v>
@@ -9048,10 +8483,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>477398.2994504073</v>
+        <v>477099</v>
       </c>
       <c r="R73" t="n">
-        <v>7033779.55166768</v>
+        <v>7033504</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -9081,19 +8516,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z73" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA73" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB73" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC73" t="inlineStr">
@@ -9125,10 +8550,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111901567</v>
+        <v>111901622</v>
       </c>
       <c r="B74" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -9141,54 +8566,34 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Pers.) M.M.Moser</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>477452.815646043</v>
+        <v>478166</v>
       </c>
       <c r="R74" t="n">
-        <v>7033754.54329758</v>
+        <v>7034284</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -9218,19 +8623,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z74" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA74" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB74" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -9257,10 +8652,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111901570</v>
+        <v>111901607</v>
       </c>
       <c r="B75" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -9273,38 +8668,34 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>477406.0214198313</v>
+        <v>478095</v>
       </c>
       <c r="R75" t="n">
-        <v>7033793.823331236</v>
+        <v>7035043</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -9334,24 +8725,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z75" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA75" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB75" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC75" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -9378,10 +8754,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111901612</v>
+        <v>111901604</v>
       </c>
       <c r="B76" t="n">
-        <v>95674</v>
+        <v>89423</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -9390,25 +8766,25 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>222741</v>
+        <v>5432</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -9418,10 +8794,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>478173.6911794385</v>
+        <v>477226</v>
       </c>
       <c r="R76" t="n">
-        <v>7034280.466984005</v>
+        <v>7033658</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -9451,19 +8827,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z76" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA76" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB76" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -9490,10 +8856,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111901602</v>
+        <v>111901572</v>
       </c>
       <c r="B77" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -9506,34 +8872,38 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>477078.4058219322</v>
+        <v>477384</v>
       </c>
       <c r="R77" t="n">
-        <v>7033618.863656485</v>
+        <v>7033854</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -9563,19 +8933,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z77" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA77" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB77" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC77" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -9602,7 +8967,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111901555</v>
+        <v>111901568</v>
       </c>
       <c r="B78" t="n">
         <v>56398</v>
@@ -9646,10 +9011,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>477075.053782316</v>
+        <v>477444</v>
       </c>
       <c r="R78" t="n">
-        <v>7033651.571049522</v>
+        <v>7033760</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9679,24 +9044,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z78" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA78" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB78" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9767,10 +9122,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>477995.937568082</v>
+        <v>477996</v>
       </c>
       <c r="R79" t="n">
-        <v>7034178.282797099</v>
+        <v>7034178</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9800,19 +9155,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z79" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA79" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB79" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC79" t="inlineStr">
@@ -9844,10 +9189,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111901589</v>
+        <v>111901598</v>
       </c>
       <c r="B80" t="n">
-        <v>90092</v>
+        <v>88966</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9856,25 +9201,25 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>67</v>
+        <v>5754</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Sprickporing</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Diplomitoporus crustulinus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Bres.) Domański</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
@@ -9884,10 +9229,10 @@
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>477449.9680636173</v>
+        <v>478095</v>
       </c>
       <c r="R80" t="n">
-        <v>7033732.178319109</v>
+        <v>7034233</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9917,19 +9262,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z80" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA80" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB80" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9957,7 +9292,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111901530</v>
+        <v>111901573</v>
       </c>
       <c r="B81" t="n">
         <v>56398</v>
@@ -10001,10 +9336,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>478301.071792486</v>
+        <v>477538</v>
       </c>
       <c r="R81" t="n">
-        <v>7034490.871451757</v>
+        <v>7034011</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -10034,24 +9369,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z81" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA81" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB81" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC81" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -10078,10 +9403,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111901520</v>
+        <v>111901599</v>
       </c>
       <c r="B82" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -10094,21 +9419,21 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -10118,10 +9443,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>477844.0012352917</v>
+        <v>478181</v>
       </c>
       <c r="R82" t="n">
-        <v>7034116.214604673</v>
+        <v>7034276</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -10151,19 +9476,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z82" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA82" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB82" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -10190,7 +9505,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111901528</v>
+        <v>111901578</v>
       </c>
       <c r="B83" t="n">
         <v>56398</v>
@@ -10234,10 +9549,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>478333.5954659996</v>
+        <v>477843</v>
       </c>
       <c r="R83" t="n">
-        <v>7034528.248548109</v>
+        <v>7034173</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -10267,24 +9582,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z83" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA83" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB83" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC83" t="inlineStr">
         <is>
-          <t>ringhack färska, 2 träd</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -10311,7 +9616,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111901552</v>
+        <v>111901575</v>
       </c>
       <c r="B84" t="n">
         <v>56398</v>
@@ -10355,10 +9660,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>477255.574404106</v>
+        <v>477477</v>
       </c>
       <c r="R84" t="n">
-        <v>7033441.19203402</v>
+        <v>7034048</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -10388,24 +9693,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z84" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA84" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB84" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC84" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -10432,7 +9727,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111901580</v>
+        <v>111901533</v>
       </c>
       <c r="B85" t="n">
         <v>56398</v>
@@ -10476,10 +9771,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>477852.1205313139</v>
+        <v>478207</v>
       </c>
       <c r="R85" t="n">
-        <v>7034188.228905845</v>
+        <v>7034444</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -10509,24 +9804,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z85" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA85" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB85" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC85" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -10553,10 +9838,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111901625</v>
+        <v>111901527</v>
       </c>
       <c r="B86" t="n">
-        <v>89747</v>
+        <v>56398</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -10565,38 +9850,42 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>2063</v>
+        <v>100109</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>478182.0360042938</v>
+        <v>478330</v>
       </c>
       <c r="R86" t="n">
-        <v>7034255.342927237</v>
+        <v>7034528</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -10626,19 +9915,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z86" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA86" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB86" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC86" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -10665,10 +9949,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111901594</v>
+        <v>111901556</v>
       </c>
       <c r="B87" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -10681,34 +9965,38 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>478158.0786587475</v>
+        <v>477226</v>
       </c>
       <c r="R87" t="n">
-        <v>7034881.677253954</v>
+        <v>7033671</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -10738,19 +10026,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z87" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA87" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB87" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC87" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -10777,10 +10060,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111901611</v>
+        <v>111901609</v>
       </c>
       <c r="B88" t="n">
-        <v>88899</v>
+        <v>77515</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10793,21 +10076,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>3286</v>
+        <v>6425</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -10817,10 +10100,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>478050.6335314792</v>
+        <v>478141</v>
       </c>
       <c r="R88" t="n">
-        <v>7035158.534338644</v>
+        <v>7034829</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10850,28 +10133,17 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z88" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA88" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB88" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD88" t="b">
         <v>0</v>
       </c>
       <c r="AE88" t="b">
         <v>0</v>
       </c>
-      <c r="AF88" t="inlineStr"/>
       <c r="AG88" t="b">
         <v>0</v>
       </c>
@@ -10890,7 +10162,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111901565</v>
+        <v>111901577</v>
       </c>
       <c r="B89" t="n">
         <v>56398</v>
@@ -10934,10 +10206,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>477372.8710303173</v>
+        <v>477611</v>
       </c>
       <c r="R89" t="n">
-        <v>7033670.491777684</v>
+        <v>7034021</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10967,24 +10239,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z89" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA89" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB89" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC89" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -11011,7 +10273,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111901524</v>
+        <v>111901526</v>
       </c>
       <c r="B90" t="n">
         <v>56398</v>
@@ -11055,10 +10317,10 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>478393.0053771812</v>
+        <v>478353</v>
       </c>
       <c r="R90" t="n">
-        <v>7034564.99604707</v>
+        <v>7034559</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -11088,24 +10350,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z90" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA90" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB90" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC90" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -11132,10 +10384,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111901539</v>
+        <v>111901523</v>
       </c>
       <c r="B91" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -11144,42 +10396,38 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>477543.7160649595</v>
+        <v>478095</v>
       </c>
       <c r="R91" t="n">
-        <v>7033739.577035171</v>
+        <v>7035046</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -11209,24 +10457,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z91" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA91" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB91" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC91" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -11253,10 +10486,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111901537</v>
+        <v>111901595</v>
       </c>
       <c r="B92" t="n">
-        <v>56398</v>
+        <v>78578</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -11269,38 +10502,34 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>477585.6298561281</v>
+        <v>478120</v>
       </c>
       <c r="R92" t="n">
-        <v>7033835.089579746</v>
+        <v>7034946</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -11330,24 +10559,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z92" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA92" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB92" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC92" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -11374,10 +10588,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111901599</v>
+        <v>111901576</v>
       </c>
       <c r="B93" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -11390,34 +10604,38 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>478180.8349914302</v>
+        <v>477474</v>
       </c>
       <c r="R93" t="n">
-        <v>7034276.389581721</v>
+        <v>7034057</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -11447,19 +10665,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z93" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA93" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB93" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC93" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -11486,10 +10699,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111901606</v>
+        <v>111901579</v>
       </c>
       <c r="B94" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -11502,34 +10715,38 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>477306.6698846163</v>
+        <v>477843</v>
       </c>
       <c r="R94" t="n">
-        <v>7033691.555703563</v>
+        <v>7034195</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -11559,19 +10776,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z94" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA94" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB94" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC94" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -11598,10 +10810,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111901536</v>
+        <v>111901623</v>
       </c>
       <c r="B95" t="n">
-        <v>56398</v>
+        <v>85062</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -11614,38 +10826,34 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>478002.2311527666</v>
+        <v>478122</v>
       </c>
       <c r="R95" t="n">
-        <v>7034180.925310614</v>
+        <v>7035061</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -11675,24 +10883,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z95" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA95" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB95" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC95" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -11719,10 +10912,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111901595</v>
+        <v>111901540</v>
       </c>
       <c r="B96" t="n">
-        <v>78578</v>
+        <v>56398</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -11735,34 +10928,38 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>478119.5332644144</v>
+        <v>477529</v>
       </c>
       <c r="R96" t="n">
-        <v>7034946.386193739</v>
+        <v>7033682</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -11792,19 +10989,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z96" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA96" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB96" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC96" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11831,7 +11023,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111901575</v>
+        <v>111901531</v>
       </c>
       <c r="B97" t="n">
         <v>56398</v>
@@ -11875,10 +11067,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>477476.8538289875</v>
+        <v>478266</v>
       </c>
       <c r="R97" t="n">
-        <v>7034048.499043919</v>
+        <v>7034476</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11908,24 +11100,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z97" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA97" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB97" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC97" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11952,7 +11134,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111901582</v>
+        <v>111901564</v>
       </c>
       <c r="B98" t="n">
         <v>56398</v>
@@ -11996,10 +11178,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>478099.9358829815</v>
+        <v>477365</v>
       </c>
       <c r="R98" t="n">
-        <v>7034963.974146471</v>
+        <v>7033686</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -12029,24 +11211,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z98" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA98" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB98" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC98" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -12073,10 +11245,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111901623</v>
+        <v>111901625</v>
       </c>
       <c r="B99" t="n">
-        <v>85062</v>
+        <v>89747</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -12085,25 +11257,25 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>249278</v>
+        <v>2063</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
@@ -12113,10 +11285,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>478122.1132110448</v>
+        <v>478182</v>
       </c>
       <c r="R99" t="n">
-        <v>7035061.382136666</v>
+        <v>7034255</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -12146,19 +11318,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z99" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA99" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB99" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -12185,10 +11347,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111901604</v>
+        <v>111901538</v>
       </c>
       <c r="B100" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -12201,34 +11363,38 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
       <c r="P100" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>477225.7321345775</v>
+        <v>477551</v>
       </c>
       <c r="R100" t="n">
-        <v>7033657.657507668</v>
+        <v>7033783</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -12258,19 +11424,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z100" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA100" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB100" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC100" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -12297,10 +11458,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111901598</v>
+        <v>111901554</v>
       </c>
       <c r="B101" t="n">
-        <v>88966</v>
+        <v>56398</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -12313,34 +11474,38 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>5754</v>
+        <v>100109</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>478095.3749122242</v>
+        <v>477059</v>
       </c>
       <c r="R101" t="n">
-        <v>7034233.1065605</v>
+        <v>7033542</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -12370,19 +11535,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z101" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA101" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB101" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC101" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -12391,7 +11551,6 @@
       <c r="AE101" t="b">
         <v>0</v>
       </c>
-      <c r="AF101" t="inlineStr"/>
       <c r="AG101" t="b">
         <v>0</v>
       </c>
@@ -12410,7 +11569,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111901572</v>
+        <v>111901529</v>
       </c>
       <c r="B102" t="n">
         <v>56398</v>
@@ -12454,10 +11613,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>477384.4771520677</v>
+        <v>478296</v>
       </c>
       <c r="R102" t="n">
-        <v>7033853.518474016</v>
+        <v>7034511</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -12487,19 +11646,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z102" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA102" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB102" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC102" t="inlineStr">
@@ -12531,7 +11680,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111901556</v>
+        <v>111901571</v>
       </c>
       <c r="B103" t="n">
         <v>56398</v>
@@ -12575,10 +11724,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>477225.8246246836</v>
+        <v>477389</v>
       </c>
       <c r="R103" t="n">
-        <v>7033670.640521363</v>
+        <v>7033793</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -12608,24 +11757,14 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z103" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA103" t="inlineStr">
         <is>
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AB103" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC103" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -12652,10 +11791,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111901535</v>
+        <v>111901610</v>
       </c>
       <c r="B104" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -12668,38 +11807,34 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>478133.153488568</v>
+        <v>478113</v>
       </c>
       <c r="R104" t="n">
-        <v>7034251.648335411</v>
+        <v>7034953</v>
       </c>
       <c r="S104" t="n">
         <v>10</v>
@@ -12729,24 +11864,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z104" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA104" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB104" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC104" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -12817,10 +11937,10 @@
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>477413.9842903271</v>
+        <v>477414</v>
       </c>
       <c r="R105" t="n">
-        <v>7033651.844817515</v>
+        <v>7033652</v>
       </c>
       <c r="S105" t="n">
         <v>25</v>
@@ -12850,19 +11970,9 @@
           <t>2023-08-29</t>
         </is>
       </c>
-      <c r="Z105" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA105" t="inlineStr">
         <is>
           <t>2023-08-29</t>
-        </is>
-      </c>
-      <c r="AB105" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD105" t="b">

--- a/artfynd/A 37096-2023.xlsx
+++ b/artfynd/A 37096-2023.xlsx
@@ -2431,10 +2431,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111769169</v>
+        <v>111769149</v>
       </c>
       <c r="B17" t="n">
-        <v>88956</v>
+        <v>82949</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2443,25 +2443,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5747</v>
+        <v>5589</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Läderdoftande fingersvamp</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Ramaria safraniolens</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Christian</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2474,10 +2474,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>477543</v>
+        <v>477460</v>
       </c>
       <c r="R17" t="n">
-        <v>7033726</v>
+        <v>7033837</v>
       </c>
       <c r="S17" t="n">
         <v>50</v>
@@ -2537,10 +2537,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111769105</v>
+        <v>111758961</v>
       </c>
       <c r="B18" t="n">
-        <v>82949</v>
+        <v>86223</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2553,40 +2553,38 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5589</v>
+        <v>4412</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Äggvaxskivling</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Hygrophorus karstenii</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>Sacc. &amp; Cub.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Storbäcken (Storbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>478265</v>
+        <v>478082</v>
       </c>
       <c r="R18" t="n">
-        <v>7034493</v>
+        <v>7035103</v>
       </c>
       <c r="S18" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2624,7 +2622,6 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2643,10 +2640,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111759358</v>
+        <v>111769066</v>
       </c>
       <c r="B19" t="n">
-        <v>88899</v>
+        <v>96253</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2655,42 +2652,45 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3286</v>
+        <v>504</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Guckusko</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Cypripedium calceolus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Storbäcken (Storbäcken), Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>478195</v>
+        <v>477894</v>
       </c>
       <c r="R19" t="n">
-        <v>7034886</v>
+        <v>7034319</v>
       </c>
       <c r="S19" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2728,6 +2728,7 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2746,10 +2747,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111769066</v>
+        <v>111769105</v>
       </c>
       <c r="B20" t="n">
-        <v>96253</v>
+        <v>82949</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2758,42 +2759,41 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>504</v>
+        <v>5589</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Guckusko</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Cypripedium calceolus</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>477894</v>
+        <v>478265</v>
       </c>
       <c r="R20" t="n">
-        <v>7034319</v>
+        <v>7034493</v>
       </c>
       <c r="S20" t="n">
         <v>50</v>
@@ -2853,10 +2853,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111769093</v>
+        <v>111759358</v>
       </c>
       <c r="B21" t="n">
-        <v>82949</v>
+        <v>88899</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2869,40 +2869,38 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5589</v>
+        <v>3286</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Storbäcken (Storbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>478248</v>
+        <v>478195</v>
       </c>
       <c r="R21" t="n">
-        <v>7034762</v>
+        <v>7034886</v>
       </c>
       <c r="S21" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2940,7 +2938,6 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -2959,7 +2956,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111769149</v>
+        <v>111769093</v>
       </c>
       <c r="B22" t="n">
         <v>82949</v>
@@ -2998,17 +2995,17 @@
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>477460</v>
+        <v>478248</v>
       </c>
       <c r="R22" t="n">
-        <v>7033837</v>
+        <v>7034762</v>
       </c>
       <c r="S22" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3065,10 +3062,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111769051</v>
+        <v>111769169</v>
       </c>
       <c r="B23" t="n">
-        <v>73688</v>
+        <v>88956</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3081,21 +3078,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>492</v>
+        <v>5747</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Smalskaftslav</t>
+          <t>Läderdoftande fingersvamp</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Chaenotheca gracilenta</t>
+          <t>Ramaria safraniolens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
+          <t>Christian</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3104,14 +3101,14 @@
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>477242</v>
+        <v>477543</v>
       </c>
       <c r="R23" t="n">
-        <v>7033395</v>
+        <v>7033726</v>
       </c>
       <c r="S23" t="n">
         <v>50</v>
@@ -3277,10 +3274,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111758748</v>
+        <v>111769042</v>
       </c>
       <c r="B25" t="n">
-        <v>88033</v>
+        <v>96326</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3289,42 +3286,45 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1599</v>
+        <v>219798</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Fjällfotad musseron</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tricholoma olivaceotinctum</t>
+          <t>Epipactis helleborine</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Storbäcken (Storbäcken), Jmt</t>
+          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>478042</v>
+        <v>477549</v>
       </c>
       <c r="R25" t="n">
-        <v>7035188</v>
+        <v>7033895</v>
       </c>
       <c r="S25" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3362,6 +3362,7 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3380,10 +3381,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111758961</v>
+        <v>111759273</v>
       </c>
       <c r="B26" t="n">
-        <v>86223</v>
+        <v>82949</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3396,21 +3397,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>4412</v>
+        <v>5589</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Äggvaxskivling</t>
+          <t>Rödbrun klubbdyna</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Hygrophorus karstenii</t>
+          <t>Trichoderma nybergianum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Sacc. &amp; Cub.</t>
+          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3421,10 +3422,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>478082</v>
+        <v>478158</v>
       </c>
       <c r="R26" t="n">
-        <v>7035103</v>
+        <v>7034927</v>
       </c>
       <c r="S26" t="n">
         <v>25</v>
@@ -3483,7 +3484,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111759273</v>
+        <v>111769028</v>
       </c>
       <c r="B27" t="n">
         <v>82949</v>
@@ -3517,20 +3518,22 @@
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Storbäcken (Storbäcken), Jmt</t>
+          <t>Stenbäcken, Rensbodarna, Aspås, Jmt</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>478158</v>
+        <v>477173</v>
       </c>
       <c r="R27" t="n">
-        <v>7034927</v>
+        <v>7033625</v>
       </c>
       <c r="S27" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T27" t="inlineStr">
         <is>
@@ -3568,6 +3571,7 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3586,10 +3590,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111769028</v>
+        <v>111769051</v>
       </c>
       <c r="B28" t="n">
-        <v>82949</v>
+        <v>73688</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3598,25 +3602,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5589</v>
+        <v>492</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Rödbrun klubbdyna</t>
+          <t>Smalskaftslav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Trichoderma nybergianum</t>
+          <t>Chaenotheca gracilenta</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(T.Ulvinen &amp; H.L.Chamb.) Jaklitsch &amp; Voglmayr</t>
+          <t>(Ach.) J.Mattsson &amp; Middelb.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3629,10 +3633,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>477173</v>
+        <v>477242</v>
       </c>
       <c r="R28" t="n">
-        <v>7033625</v>
+        <v>7033395</v>
       </c>
       <c r="S28" t="n">
         <v>50</v>
@@ -3692,10 +3696,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111769042</v>
+        <v>111758748</v>
       </c>
       <c r="B29" t="n">
-        <v>96326</v>
+        <v>88033</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3704,45 +3708,42 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>219798</v>
+        <v>1599</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Fjällfotad musseron</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Epipactis helleborine</t>
+          <t>Tricholoma olivaceotinctum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>Mort.Chr. &amp; Heilm.-Claus.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Kälmyren, Rensbodarna, Aspås, Jmt</t>
+          <t>Storbäcken (Storbäcken), Jmt</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>477549</v>
+        <v>478042</v>
       </c>
       <c r="R29" t="n">
-        <v>7033895</v>
+        <v>7035188</v>
       </c>
       <c r="S29" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3780,7 +3781,6 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4122,10 +4122,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111901561</v>
+        <v>111901581</v>
       </c>
       <c r="B33" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4166,10 +4166,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>477354</v>
+        <v>477792</v>
       </c>
       <c r="R33" t="n">
-        <v>7033676</v>
+        <v>7034363</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4206,7 +4206,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4233,10 +4233,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111901524</v>
+        <v>111901567</v>
       </c>
       <c r="B34" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4266,21 +4266,37 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr"/>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>478393</v>
+        <v>477453</v>
       </c>
       <c r="R34" t="n">
-        <v>7034565</v>
+        <v>7033755</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4313,11 +4329,6 @@
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4344,10 +4355,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111901541</v>
+        <v>111901602</v>
       </c>
       <c r="B35" t="n">
-        <v>56398</v>
+        <v>89557</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4360,38 +4371,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>477528</v>
+        <v>477078</v>
       </c>
       <c r="R35" t="n">
-        <v>7033673</v>
+        <v>7033619</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4424,11 +4431,6 @@
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC35" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4455,10 +4457,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111901582</v>
+        <v>111901610</v>
       </c>
       <c r="B36" t="n">
-        <v>56398</v>
+        <v>77636</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4471,38 +4473,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>478100</v>
+        <v>478113</v>
       </c>
       <c r="R36" t="n">
-        <v>7034964</v>
+        <v>7034953</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4535,11 +4533,6 @@
       <c r="AA36" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4566,10 +4559,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111901593</v>
+        <v>111901579</v>
       </c>
       <c r="B37" t="n">
-        <v>78578</v>
+        <v>56430</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4582,34 +4575,38 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>478139</v>
+        <v>477843</v>
       </c>
       <c r="R37" t="n">
-        <v>7034835</v>
+        <v>7034195</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4642,6 +4639,11 @@
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4668,10 +4670,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111901567</v>
+        <v>111901533</v>
       </c>
       <c r="B38" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4701,37 +4703,21 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>477453</v>
+        <v>478207</v>
       </c>
       <c r="R38" t="n">
-        <v>7033755</v>
+        <v>7034444</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4764,6 +4750,11 @@
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4790,10 +4781,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111901522</v>
+        <v>111901572</v>
       </c>
       <c r="B39" t="n">
-        <v>90087</v>
+        <v>56430</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4802,38 +4793,42 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
       <c r="P39" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>477298</v>
+        <v>477384</v>
       </c>
       <c r="R39" t="n">
-        <v>7033474</v>
+        <v>7033854</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4866,6 +4861,11 @@
       <c r="AA39" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4892,10 +4892,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111901565</v>
+        <v>111901523</v>
       </c>
       <c r="B40" t="n">
-        <v>56398</v>
+        <v>90221</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4904,42 +4904,38 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>477373</v>
+        <v>478095</v>
       </c>
       <c r="R40" t="n">
-        <v>7033670</v>
+        <v>7035046</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4972,11 +4968,6 @@
       <c r="AA40" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5003,10 +4994,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111901532</v>
+        <v>111901609</v>
       </c>
       <c r="B41" t="n">
-        <v>56398</v>
+        <v>77636</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5019,38 +5010,34 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>478222</v>
+        <v>478141</v>
       </c>
       <c r="R41" t="n">
-        <v>7034455</v>
+        <v>7034829</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5083,11 +5070,6 @@
       <c r="AA41" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5114,10 +5096,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111901594</v>
+        <v>111901580</v>
       </c>
       <c r="B42" t="n">
-        <v>78578</v>
+        <v>56430</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5130,34 +5112,38 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>478158</v>
+        <v>477852</v>
       </c>
       <c r="R42" t="n">
-        <v>7034882</v>
+        <v>7034188</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5190,6 +5176,11 @@
       <c r="AA42" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5216,10 +5207,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111901528</v>
+        <v>111901622</v>
       </c>
       <c r="B43" t="n">
-        <v>56398</v>
+        <v>85183</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5232,38 +5223,34 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>478334</v>
+        <v>478166</v>
       </c>
       <c r="R43" t="n">
-        <v>7034528</v>
+        <v>7034284</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5296,11 +5283,6 @@
       <c r="AA43" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>ringhack färska, 2 träd</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5327,10 +5309,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111901535</v>
+        <v>111901571</v>
       </c>
       <c r="B44" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5371,10 +5353,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>478133</v>
+        <v>477389</v>
       </c>
       <c r="R44" t="n">
-        <v>7034252</v>
+        <v>7033793</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5411,7 +5393,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5438,10 +5420,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111901600</v>
+        <v>111901557</v>
       </c>
       <c r="B45" t="n">
-        <v>89423</v>
+        <v>56430</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5454,34 +5436,42 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>478177</v>
+        <v>477302</v>
       </c>
       <c r="R45" t="n">
-        <v>7034260</v>
+        <v>7033676</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5540,10 +5530,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111901521</v>
+        <v>111901612</v>
       </c>
       <c r="B46" t="n">
-        <v>90087</v>
+        <v>95850</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5556,21 +5546,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3298</v>
+        <v>222741</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5580,10 +5570,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>478417</v>
+        <v>478174</v>
       </c>
       <c r="R46" t="n">
-        <v>7034575</v>
+        <v>7034280</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5642,10 +5632,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111901537</v>
+        <v>111901598</v>
       </c>
       <c r="B47" t="n">
-        <v>56398</v>
+        <v>89100</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5658,38 +5648,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100109</v>
+        <v>5754</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>477586</v>
+        <v>478095</v>
       </c>
       <c r="R47" t="n">
-        <v>7033835</v>
+        <v>7034233</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5724,17 +5710,13 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
-        </is>
-      </c>
       <c r="AD47" t="b">
         <v>0</v>
       </c>
       <c r="AE47" t="b">
         <v>0</v>
       </c>
+      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -5753,10 +5735,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111901620</v>
+        <v>111901573</v>
       </c>
       <c r="B48" t="n">
-        <v>85062</v>
+        <v>56430</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5769,34 +5751,38 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>249278</v>
+        <v>100109</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>478429</v>
+        <v>477538</v>
       </c>
       <c r="R48" t="n">
-        <v>7034567</v>
+        <v>7034011</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5829,6 +5815,11 @@
       <c r="AA48" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5858,7 +5849,7 @@
         <v>111901534</v>
       </c>
       <c r="B49" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5966,10 +5957,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111901608</v>
+        <v>111901577</v>
       </c>
       <c r="B50" t="n">
-        <v>89423</v>
+        <v>56430</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -5982,34 +5973,38 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>478032</v>
+        <v>477611</v>
       </c>
       <c r="R50" t="n">
-        <v>7035108</v>
+        <v>7034021</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6042,6 +6037,11 @@
       <c r="AA50" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6068,10 +6068,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111901596</v>
+        <v>111901564</v>
       </c>
       <c r="B51" t="n">
-        <v>78578</v>
+        <v>56430</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6084,34 +6084,38 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>478096</v>
+        <v>477365</v>
       </c>
       <c r="R51" t="n">
-        <v>7035118</v>
+        <v>7033686</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6144,6 +6148,11 @@
       <c r="AA51" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC51" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6170,10 +6179,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111901588</v>
+        <v>111901537</v>
       </c>
       <c r="B52" t="n">
-        <v>90332</v>
+        <v>56430</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6182,38 +6191,42 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>4769</v>
+        <v>100109</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>477432</v>
+        <v>477586</v>
       </c>
       <c r="R52" t="n">
-        <v>7033674</v>
+        <v>7033835</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6246,6 +6259,11 @@
       <c r="AA52" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6272,10 +6290,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111901555</v>
+        <v>111901561</v>
       </c>
       <c r="B53" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6316,10 +6334,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>477075</v>
+        <v>477354</v>
       </c>
       <c r="R53" t="n">
-        <v>7033652</v>
+        <v>7033676</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6383,10 +6401,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111901557</v>
+        <v>111901522</v>
       </c>
       <c r="B54" t="n">
-        <v>56398</v>
+        <v>90221</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6395,46 +6413,38 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>477302</v>
+        <v>477298</v>
       </c>
       <c r="R54" t="n">
-        <v>7033676</v>
+        <v>7033474</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6493,10 +6503,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111901536</v>
+        <v>111901554</v>
       </c>
       <c r="B55" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6537,10 +6547,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>478002</v>
+        <v>477059</v>
       </c>
       <c r="R55" t="n">
-        <v>7034181</v>
+        <v>7033542</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6577,7 +6587,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6607,7 +6617,7 @@
         <v>111901569</v>
       </c>
       <c r="B56" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6715,10 +6725,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111901583</v>
+        <v>111901535</v>
       </c>
       <c r="B57" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6759,10 +6769,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>478099</v>
+        <v>478133</v>
       </c>
       <c r="R57" t="n">
-        <v>7034964</v>
+        <v>7034252</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6799,7 +6809,7 @@
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6826,10 +6836,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111901591</v>
+        <v>111901556</v>
       </c>
       <c r="B58" t="n">
-        <v>56414</v>
+        <v>56430</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6842,16 +6852,16 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -6870,10 +6880,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>477121</v>
+        <v>477226</v>
       </c>
       <c r="R58" t="n">
-        <v>7033665</v>
+        <v>7033671</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6910,7 +6920,7 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>hack</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6937,10 +6947,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111901520</v>
+        <v>111901599</v>
       </c>
       <c r="B59" t="n">
-        <v>89405</v>
+        <v>89557</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -6953,21 +6963,21 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
@@ -6977,10 +6987,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>477844</v>
+        <v>478181</v>
       </c>
       <c r="R59" t="n">
-        <v>7034116</v>
+        <v>7034276</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7039,10 +7049,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111901570</v>
+        <v>111901590</v>
       </c>
       <c r="B60" t="n">
-        <v>56398</v>
+        <v>56446</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7055,16 +7065,16 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -7083,10 +7093,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>477406</v>
+        <v>477996</v>
       </c>
       <c r="R60" t="n">
-        <v>7033794</v>
+        <v>7034178</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7123,7 +7133,7 @@
       </c>
       <c r="AC60" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7150,10 +7160,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111901563</v>
+        <v>111901620</v>
       </c>
       <c r="B61" t="n">
-        <v>56398</v>
+        <v>85183</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7166,38 +7176,34 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>477360</v>
+        <v>478429</v>
       </c>
       <c r="R61" t="n">
-        <v>7033682</v>
+        <v>7034567</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7230,11 +7236,6 @@
       <c r="AA61" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7261,10 +7262,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111901580</v>
+        <v>111901555</v>
       </c>
       <c r="B62" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7305,10 +7306,10 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>477852</v>
+        <v>477075</v>
       </c>
       <c r="R62" t="n">
-        <v>7034188</v>
+        <v>7033652</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7345,7 +7346,7 @@
       </c>
       <c r="AC62" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7372,10 +7373,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111901581</v>
+        <v>111901582</v>
       </c>
       <c r="B63" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7416,10 +7417,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>477792</v>
+        <v>478100</v>
       </c>
       <c r="R63" t="n">
-        <v>7034363</v>
+        <v>7034964</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7483,10 +7484,10 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111901606</v>
+        <v>111901524</v>
       </c>
       <c r="B64" t="n">
-        <v>89423</v>
+        <v>56430</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7499,34 +7500,38 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>477307</v>
+        <v>478393</v>
       </c>
       <c r="R64" t="n">
-        <v>7033692</v>
+        <v>7034565</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7559,6 +7564,11 @@
       <c r="AA64" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC64" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD64" t="b">
@@ -7585,10 +7595,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111901612</v>
+        <v>111901521</v>
       </c>
       <c r="B65" t="n">
-        <v>95674</v>
+        <v>90221</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7601,21 +7611,21 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>222741</v>
+        <v>3298</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
@@ -7625,10 +7635,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>478174</v>
+        <v>478417</v>
       </c>
       <c r="R65" t="n">
-        <v>7034280</v>
+        <v>7034575</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7687,10 +7697,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111901602</v>
+        <v>111901574</v>
       </c>
       <c r="B66" t="n">
-        <v>89423</v>
+        <v>56430</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7703,34 +7713,38 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>477078</v>
+        <v>477521</v>
       </c>
       <c r="R66" t="n">
-        <v>7033619</v>
+        <v>7034024</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7763,6 +7777,11 @@
       <c r="AA66" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7789,10 +7808,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111901589</v>
+        <v>111901570</v>
       </c>
       <c r="B67" t="n">
-        <v>90092</v>
+        <v>56430</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7801,38 +7820,42 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>67</v>
+        <v>100109</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Sprickporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Diplomitoporus crustulinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(Bres.) Domański</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>477450</v>
+        <v>477406</v>
       </c>
       <c r="R67" t="n">
-        <v>7033732</v>
+        <v>7033794</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7867,13 +7890,17 @@
           <t>2023-09-04</t>
         </is>
       </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>ringhack</t>
+        </is>
+      </c>
       <c r="AD67" t="b">
         <v>0</v>
       </c>
       <c r="AE67" t="b">
         <v>0</v>
       </c>
-      <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="b">
         <v>0</v>
       </c>
@@ -7892,10 +7919,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111901552</v>
+        <v>111901608</v>
       </c>
       <c r="B68" t="n">
-        <v>56398</v>
+        <v>89557</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -7908,38 +7935,34 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>477256</v>
+        <v>478032</v>
       </c>
       <c r="R68" t="n">
-        <v>7033441</v>
+        <v>7035108</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7972,11 +7995,6 @@
       <c r="AA68" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC68" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8003,10 +8021,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111901611</v>
+        <v>111901604</v>
       </c>
       <c r="B69" t="n">
-        <v>88899</v>
+        <v>89557</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8019,21 +8037,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>3286</v>
+        <v>5432</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -8043,10 +8061,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>478051</v>
+        <v>477226</v>
       </c>
       <c r="R69" t="n">
-        <v>7035159</v>
+        <v>7033658</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8087,7 +8105,6 @@
       <c r="AE69" t="b">
         <v>0</v>
       </c>
-      <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="b">
         <v>0</v>
       </c>
@@ -8106,10 +8123,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111901539</v>
+        <v>111901578</v>
       </c>
       <c r="B70" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -8150,10 +8167,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>477544</v>
+        <v>477843</v>
       </c>
       <c r="R70" t="n">
-        <v>7033740</v>
+        <v>7034173</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8190,7 +8207,7 @@
       </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8217,10 +8234,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111901574</v>
+        <v>111901532</v>
       </c>
       <c r="B71" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8261,10 +8278,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>477521</v>
+        <v>478222</v>
       </c>
       <c r="R71" t="n">
-        <v>7034024</v>
+        <v>7034455</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8301,7 +8318,7 @@
       </c>
       <c r="AC71" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8328,10 +8345,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111901530</v>
+        <v>111901593</v>
       </c>
       <c r="B72" t="n">
-        <v>56398</v>
+        <v>78699</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8344,38 +8361,34 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>478301</v>
+        <v>478139</v>
       </c>
       <c r="R72" t="n">
-        <v>7034491</v>
+        <v>7034835</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8408,11 +8421,6 @@
       <c r="AA72" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC72" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8439,10 +8447,10 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>111901553</v>
+        <v>111901596</v>
       </c>
       <c r="B73" t="n">
-        <v>56398</v>
+        <v>78699</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8455,38 +8463,34 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>477099</v>
+        <v>478096</v>
       </c>
       <c r="R73" t="n">
-        <v>7033504</v>
+        <v>7035118</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8519,11 +8523,6 @@
       <c r="AA73" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC73" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -8550,10 +8549,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111901622</v>
+        <v>111901589</v>
       </c>
       <c r="B74" t="n">
-        <v>85062</v>
+        <v>90226</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8562,25 +8561,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>249278</v>
+        <v>67</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Sprickporing</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Diplomitoporus crustulinus</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Bres.) Domański</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8590,10 +8589,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>478166</v>
+        <v>477450</v>
       </c>
       <c r="R74" t="n">
-        <v>7034284</v>
+        <v>7033732</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8634,6 +8633,7 @@
       <c r="AE74" t="b">
         <v>0</v>
       </c>
+      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
       </c>
@@ -8652,10 +8652,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111901607</v>
+        <v>111901531</v>
       </c>
       <c r="B75" t="n">
-        <v>89423</v>
+        <v>56430</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8668,34 +8668,38 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>478095</v>
+        <v>478266</v>
       </c>
       <c r="R75" t="n">
-        <v>7035043</v>
+        <v>7034476</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8728,6 +8732,11 @@
       <c r="AA75" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8754,10 +8763,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111901604</v>
+        <v>111901538</v>
       </c>
       <c r="B76" t="n">
-        <v>89423</v>
+        <v>56430</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -8770,34 +8779,38 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>477226</v>
+        <v>477551</v>
       </c>
       <c r="R76" t="n">
-        <v>7033658</v>
+        <v>7033783</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8830,6 +8843,11 @@
       <c r="AA76" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC76" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -8856,10 +8874,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111901572</v>
+        <v>111901576</v>
       </c>
       <c r="B77" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -8900,10 +8918,10 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>477384</v>
+        <v>477474</v>
       </c>
       <c r="R77" t="n">
-        <v>7033854</v>
+        <v>7034057</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8967,10 +8985,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111901568</v>
+        <v>111901529</v>
       </c>
       <c r="B78" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -9011,10 +9029,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>477444</v>
+        <v>478296</v>
       </c>
       <c r="R78" t="n">
-        <v>7033760</v>
+        <v>7034511</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9051,7 +9069,7 @@
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9078,10 +9096,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111901590</v>
+        <v>111901552</v>
       </c>
       <c r="B79" t="n">
-        <v>56414</v>
+        <v>56430</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -9094,16 +9112,16 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -9122,10 +9140,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>477996</v>
+        <v>477256</v>
       </c>
       <c r="R79" t="n">
-        <v>7034178</v>
+        <v>7033441</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9162,7 +9180,7 @@
       </c>
       <c r="AC79" t="inlineStr">
         <is>
-          <t>hack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD79" t="b">
@@ -9189,10 +9207,10 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111901598</v>
+        <v>111901583</v>
       </c>
       <c r="B80" t="n">
-        <v>88966</v>
+        <v>56430</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -9205,34 +9223,38 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>5754</v>
+        <v>100109</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>478095</v>
+        <v>478099</v>
       </c>
       <c r="R80" t="n">
-        <v>7034233</v>
+        <v>7034964</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9267,13 +9289,17 @@
           <t>2023-09-04</t>
         </is>
       </c>
+      <c r="AC80" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
+        </is>
+      </c>
       <c r="AD80" t="b">
         <v>0</v>
       </c>
       <c r="AE80" t="b">
         <v>0</v>
       </c>
-      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="b">
         <v>0</v>
       </c>
@@ -9292,10 +9318,10 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111901573</v>
+        <v>111901536</v>
       </c>
       <c r="B81" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9336,10 +9362,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>477538</v>
+        <v>478002</v>
       </c>
       <c r="R81" t="n">
-        <v>7034011</v>
+        <v>7034181</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9403,10 +9429,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111901599</v>
+        <v>111901553</v>
       </c>
       <c r="B82" t="n">
-        <v>89423</v>
+        <v>56430</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -9419,34 +9445,38 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>478181</v>
+        <v>477099</v>
       </c>
       <c r="R82" t="n">
-        <v>7034276</v>
+        <v>7033504</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9479,6 +9509,11 @@
       <c r="AA82" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC82" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD82" t="b">
@@ -9505,10 +9540,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111901578</v>
+        <v>111901539</v>
       </c>
       <c r="B83" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9549,10 +9584,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>477843</v>
+        <v>477544</v>
       </c>
       <c r="R83" t="n">
-        <v>7034173</v>
+        <v>7033740</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9589,7 +9624,7 @@
       </c>
       <c r="AC83" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD83" t="b">
@@ -9616,10 +9651,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111901575</v>
+        <v>111901520</v>
       </c>
       <c r="B84" t="n">
-        <v>56398</v>
+        <v>89539</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9632,38 +9667,34 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>477477</v>
+        <v>477844</v>
       </c>
       <c r="R84" t="n">
-        <v>7034048</v>
+        <v>7034116</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9696,11 +9727,6 @@
       <c r="AA84" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC84" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD84" t="b">
@@ -9727,10 +9753,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111901533</v>
+        <v>111901541</v>
       </c>
       <c r="B85" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -9771,10 +9797,10 @@
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>478207</v>
+        <v>477528</v>
       </c>
       <c r="R85" t="n">
-        <v>7034444</v>
+        <v>7033673</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9811,7 +9837,7 @@
       </c>
       <c r="AC85" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -9838,10 +9864,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111901527</v>
+        <v>111901625</v>
       </c>
       <c r="B86" t="n">
-        <v>56398</v>
+        <v>89881</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -9850,42 +9876,38 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>100109</v>
+        <v>2063</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>478330</v>
+        <v>478182</v>
       </c>
       <c r="R86" t="n">
-        <v>7034528</v>
+        <v>7034255</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9918,11 +9940,6 @@
       <c r="AA86" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC86" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD86" t="b">
@@ -9949,10 +9966,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111901556</v>
+        <v>111901611</v>
       </c>
       <c r="B87" t="n">
-        <v>56398</v>
+        <v>89033</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -9965,38 +9982,34 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>100109</v>
+        <v>3286</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Quél.) Donk</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>477226</v>
+        <v>478051</v>
       </c>
       <c r="R87" t="n">
-        <v>7033671</v>
+        <v>7035159</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -10031,17 +10044,13 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AC87" t="inlineStr">
-        <is>
-          <t>ringhack</t>
-        </is>
-      </c>
       <c r="AD87" t="b">
         <v>0</v>
       </c>
       <c r="AE87" t="b">
         <v>0</v>
       </c>
+      <c r="AF87" t="inlineStr"/>
       <c r="AG87" t="b">
         <v>0</v>
       </c>
@@ -10060,10 +10069,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111901609</v>
+        <v>111901527</v>
       </c>
       <c r="B88" t="n">
-        <v>77515</v>
+        <v>56430</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10076,34 +10085,38 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>478141</v>
+        <v>478330</v>
       </c>
       <c r="R88" t="n">
-        <v>7034829</v>
+        <v>7034528</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10136,6 +10149,11 @@
       <c r="AA88" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC88" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10162,10 +10180,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111901577</v>
+        <v>111901606</v>
       </c>
       <c r="B89" t="n">
-        <v>56398</v>
+        <v>89557</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10178,38 +10196,34 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>477611</v>
+        <v>477307</v>
       </c>
       <c r="R89" t="n">
-        <v>7034021</v>
+        <v>7033692</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10242,11 +10256,6 @@
       <c r="AA89" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC89" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD89" t="b">
@@ -10273,10 +10282,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111901526</v>
+        <v>111901607</v>
       </c>
       <c r="B90" t="n">
-        <v>56398</v>
+        <v>89557</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10289,38 +10298,34 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>478353</v>
+        <v>478095</v>
       </c>
       <c r="R90" t="n">
-        <v>7034559</v>
+        <v>7035043</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -10353,11 +10358,6 @@
       <c r="AA90" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC90" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -10384,10 +10384,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111901523</v>
+        <v>111901600</v>
       </c>
       <c r="B91" t="n">
-        <v>90087</v>
+        <v>89557</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10396,25 +10396,25 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -10424,10 +10424,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>478095</v>
+        <v>478177</v>
       </c>
       <c r="R91" t="n">
-        <v>7035046</v>
+        <v>7034260</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10486,10 +10486,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111901595</v>
+        <v>111901565</v>
       </c>
       <c r="B92" t="n">
-        <v>78578</v>
+        <v>56430</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10502,34 +10502,38 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>478120</v>
+        <v>477373</v>
       </c>
       <c r="R92" t="n">
-        <v>7034946</v>
+        <v>7033670</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10562,6 +10566,11 @@
       <c r="AA92" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC92" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10588,10 +10597,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111901576</v>
+        <v>111901528</v>
       </c>
       <c r="B93" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10632,10 +10641,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>477474</v>
+        <v>478334</v>
       </c>
       <c r="R93" t="n">
-        <v>7034057</v>
+        <v>7034528</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10672,7 +10681,7 @@
       </c>
       <c r="AC93" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack färska, 2 träd</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10699,10 +10708,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111901579</v>
+        <v>111901588</v>
       </c>
       <c r="B94" t="n">
-        <v>56398</v>
+        <v>90466</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -10711,42 +10720,38 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>100109</v>
+        <v>4769</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>477843</v>
+        <v>477432</v>
       </c>
       <c r="R94" t="n">
-        <v>7034195</v>
+        <v>7033674</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10779,11 +10784,6 @@
       <c r="AA94" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC94" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10810,10 +10810,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111901623</v>
+        <v>111901563</v>
       </c>
       <c r="B95" t="n">
-        <v>85062</v>
+        <v>56430</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -10826,34 +10826,38 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>249278</v>
+        <v>100109</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>478122</v>
+        <v>477360</v>
       </c>
       <c r="R95" t="n">
-        <v>7035061</v>
+        <v>7033682</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -10886,6 +10890,11 @@
       <c r="AA95" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC95" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -10912,10 +10921,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111901540</v>
+        <v>111901526</v>
       </c>
       <c r="B96" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -10956,10 +10965,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>477529</v>
+        <v>478353</v>
       </c>
       <c r="R96" t="n">
-        <v>7033682</v>
+        <v>7034559</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -10996,7 +11005,7 @@
       </c>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11023,10 +11032,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111901531</v>
+        <v>111901595</v>
       </c>
       <c r="B97" t="n">
-        <v>56398</v>
+        <v>78699</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11039,38 +11048,34 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="inlineStr"/>
       <c r="P97" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>478266</v>
+        <v>478120</v>
       </c>
       <c r="R97" t="n">
-        <v>7034476</v>
+        <v>7034946</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11103,11 +11108,6 @@
       <c r="AA97" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC97" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD97" t="b">
@@ -11134,10 +11134,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111901564</v>
+        <v>111901623</v>
       </c>
       <c r="B98" t="n">
-        <v>56398</v>
+        <v>85183</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11150,38 +11150,34 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>477365</v>
+        <v>478122</v>
       </c>
       <c r="R98" t="n">
-        <v>7033686</v>
+        <v>7035061</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11214,11 +11210,6 @@
       <c r="AA98" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC98" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11245,10 +11236,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111901625</v>
+        <v>111901530</v>
       </c>
       <c r="B99" t="n">
-        <v>89747</v>
+        <v>56430</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11257,38 +11248,42 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>2063</v>
+        <v>100109</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>478182</v>
+        <v>478301</v>
       </c>
       <c r="R99" t="n">
-        <v>7034255</v>
+        <v>7034491</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11321,6 +11316,11 @@
       <c r="AA99" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC99" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD99" t="b">
@@ -11347,10 +11347,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111901538</v>
+        <v>111901591</v>
       </c>
       <c r="B100" t="n">
-        <v>56398</v>
+        <v>56446</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11363,16 +11363,16 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -11391,10 +11391,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>477551</v>
+        <v>477121</v>
       </c>
       <c r="R100" t="n">
-        <v>7033783</v>
+        <v>7033665</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -11431,7 +11431,7 @@
       </c>
       <c r="AC100" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11458,10 +11458,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111901554</v>
+        <v>111901594</v>
       </c>
       <c r="B101" t="n">
-        <v>56398</v>
+        <v>78699</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11474,38 +11474,34 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>477059</v>
+        <v>478158</v>
       </c>
       <c r="R101" t="n">
-        <v>7033542</v>
+        <v>7034882</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -11538,11 +11534,6 @@
       <c r="AA101" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC101" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -11569,10 +11560,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111901529</v>
+        <v>111901568</v>
       </c>
       <c r="B102" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11613,10 +11604,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>478296</v>
+        <v>477444</v>
       </c>
       <c r="R102" t="n">
-        <v>7034511</v>
+        <v>7033760</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -11653,7 +11644,7 @@
       </c>
       <c r="AC102" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -11680,10 +11671,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111901571</v>
+        <v>111901540</v>
       </c>
       <c r="B103" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -11724,10 +11715,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>477389</v>
+        <v>477529</v>
       </c>
       <c r="R103" t="n">
-        <v>7033793</v>
+        <v>7033682</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -11764,7 +11755,7 @@
       </c>
       <c r="AC103" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD103" t="b">
@@ -11791,10 +11782,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111901610</v>
+        <v>111901575</v>
       </c>
       <c r="B104" t="n">
-        <v>77515</v>
+        <v>56430</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -11807,34 +11798,38 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>478113</v>
+        <v>477477</v>
       </c>
       <c r="R104" t="n">
-        <v>7034953</v>
+        <v>7034048</v>
       </c>
       <c r="S104" t="n">
         <v>10</v>
@@ -11867,6 +11862,11 @@
       <c r="AA104" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC104" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -11896,7 +11896,7 @@
         <v>112183906</v>
       </c>
       <c r="B105" t="n">
-        <v>97565</v>
+        <v>97959</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>

--- a/artfynd/A 37096-2023.xlsx
+++ b/artfynd/A 37096-2023.xlsx
@@ -7373,7 +7373,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111901582</v>
+        <v>111901574</v>
       </c>
       <c r="B63" t="n">
         <v>56430</v>
@@ -7417,10 +7417,10 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>478100</v>
+        <v>477521</v>
       </c>
       <c r="R63" t="n">
-        <v>7034964</v>
+        <v>7034024</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7484,7 +7484,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111901524</v>
+        <v>111901582</v>
       </c>
       <c r="B64" t="n">
         <v>56430</v>
@@ -7528,10 +7528,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>478393</v>
+        <v>478100</v>
       </c>
       <c r="R64" t="n">
-        <v>7034565</v>
+        <v>7034964</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7595,10 +7595,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111901521</v>
+        <v>111901524</v>
       </c>
       <c r="B65" t="n">
-        <v>90221</v>
+        <v>56430</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -7607,38 +7607,42 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
       <c r="P65" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>478417</v>
+        <v>478393</v>
       </c>
       <c r="R65" t="n">
-        <v>7034575</v>
+        <v>7034565</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7671,6 +7675,11 @@
       <c r="AA65" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC65" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD65" t="b">
@@ -7697,10 +7706,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111901574</v>
+        <v>111901521</v>
       </c>
       <c r="B66" t="n">
-        <v>56430</v>
+        <v>90221</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7709,42 +7718,38 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>477521</v>
+        <v>478417</v>
       </c>
       <c r="R66" t="n">
-        <v>7034024</v>
+        <v>7034575</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7777,11 +7782,6 @@
       <c r="AA66" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC66" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD66" t="b">

--- a/artfynd/A 37096-2023.xlsx
+++ b/artfynd/A 37096-2023.xlsx
@@ -4122,7 +4122,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111901581</v>
+        <v>111901539</v>
       </c>
       <c r="B33" t="n">
         <v>56430</v>
@@ -4166,10 +4166,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>477792</v>
+        <v>477544</v>
       </c>
       <c r="R33" t="n">
-        <v>7034363</v>
+        <v>7033740</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4233,10 +4233,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111901567</v>
+        <v>111901611</v>
       </c>
       <c r="B34" t="n">
-        <v>56430</v>
+        <v>89047</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4249,54 +4249,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100109</v>
+        <v>3286</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Flattoppad klubbsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Clavariadelphus truncatus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>hane</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Quél.) Donk</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>477453</v>
+        <v>478051</v>
       </c>
       <c r="R34" t="n">
-        <v>7033755</v>
+        <v>7035159</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4337,6 +4317,7 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
@@ -4355,10 +4336,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111901602</v>
+        <v>111901526</v>
       </c>
       <c r="B35" t="n">
-        <v>89557</v>
+        <v>56430</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4371,34 +4352,38 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>477078</v>
+        <v>478353</v>
       </c>
       <c r="R35" t="n">
-        <v>7033619</v>
+        <v>7034559</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4431,6 +4416,11 @@
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4457,10 +4447,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111901610</v>
+        <v>111901599</v>
       </c>
       <c r="B36" t="n">
-        <v>77636</v>
+        <v>89571</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4473,21 +4463,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4497,10 +4487,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>478113</v>
+        <v>478181</v>
       </c>
       <c r="R36" t="n">
-        <v>7034953</v>
+        <v>7034276</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4559,10 +4549,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111901579</v>
+        <v>111901600</v>
       </c>
       <c r="B37" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4575,38 +4565,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>477843</v>
+        <v>478177</v>
       </c>
       <c r="R37" t="n">
-        <v>7034195</v>
+        <v>7034260</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4639,11 +4625,6 @@
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4670,10 +4651,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111901533</v>
+        <v>111901604</v>
       </c>
       <c r="B38" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4686,38 +4667,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>478207</v>
+        <v>477226</v>
       </c>
       <c r="R38" t="n">
-        <v>7034444</v>
+        <v>7033658</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4750,11 +4727,6 @@
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4781,7 +4753,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111901572</v>
+        <v>111901577</v>
       </c>
       <c r="B39" t="n">
         <v>56430</v>
@@ -4825,10 +4797,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>477384</v>
+        <v>477611</v>
       </c>
       <c r="R39" t="n">
-        <v>7033854</v>
+        <v>7034021</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4865,7 +4837,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -4892,10 +4864,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111901523</v>
+        <v>111901578</v>
       </c>
       <c r="B40" t="n">
-        <v>90221</v>
+        <v>56430</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4904,38 +4876,42 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
       <c r="P40" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>478095</v>
+        <v>477843</v>
       </c>
       <c r="R40" t="n">
-        <v>7035046</v>
+        <v>7034173</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4968,6 +4944,11 @@
       <c r="AA40" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -4994,10 +4975,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111901609</v>
+        <v>111901540</v>
       </c>
       <c r="B41" t="n">
-        <v>77636</v>
+        <v>56430</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5010,34 +4991,38 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>478141</v>
+        <v>477529</v>
       </c>
       <c r="R41" t="n">
-        <v>7034829</v>
+        <v>7033682</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5070,6 +5055,11 @@
       <c r="AA41" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5096,7 +5086,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111901580</v>
+        <v>111901528</v>
       </c>
       <c r="B42" t="n">
         <v>56430</v>
@@ -5140,10 +5130,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>477852</v>
+        <v>478334</v>
       </c>
       <c r="R42" t="n">
-        <v>7034188</v>
+        <v>7034528</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5180,7 +5170,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack färska, 2 träd</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5207,10 +5197,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111901622</v>
+        <v>111901554</v>
       </c>
       <c r="B43" t="n">
-        <v>85183</v>
+        <v>56430</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5223,34 +5213,38 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>249278</v>
+        <v>100109</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>478166</v>
+        <v>477059</v>
       </c>
       <c r="R43" t="n">
-        <v>7034284</v>
+        <v>7033542</v>
       </c>
       <c r="S43" t="n">
         <v>10</v>
@@ -5283,6 +5277,11 @@
       <c r="AA43" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5309,10 +5308,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111901571</v>
+        <v>111901609</v>
       </c>
       <c r="B44" t="n">
-        <v>56430</v>
+        <v>77650</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5325,38 +5324,34 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>477389</v>
+        <v>478141</v>
       </c>
       <c r="R44" t="n">
-        <v>7033793</v>
+        <v>7034829</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5389,11 +5384,6 @@
       <c r="AA44" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5420,10 +5410,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111901557</v>
+        <v>111901607</v>
       </c>
       <c r="B45" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5436,42 +5426,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>gammalt bo</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>477302</v>
+        <v>478095</v>
       </c>
       <c r="R45" t="n">
-        <v>7033676</v>
+        <v>7035043</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5530,10 +5512,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111901612</v>
+        <v>111901573</v>
       </c>
       <c r="B46" t="n">
-        <v>95850</v>
+        <v>56430</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5542,38 +5524,42 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>222741</v>
+        <v>100109</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>478174</v>
+        <v>477538</v>
       </c>
       <c r="R46" t="n">
-        <v>7034280</v>
+        <v>7034011</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5606,6 +5592,11 @@
       <c r="AA46" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5632,10 +5623,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111901598</v>
+        <v>111901538</v>
       </c>
       <c r="B47" t="n">
-        <v>89100</v>
+        <v>56430</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5648,34 +5639,38 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>5754</v>
+        <v>100109</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>478095</v>
+        <v>477551</v>
       </c>
       <c r="R47" t="n">
-        <v>7034233</v>
+        <v>7033783</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5710,13 +5705,17 @@
           <t>2023-09-04</t>
         </is>
       </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
+        </is>
+      </c>
       <c r="AD47" t="b">
         <v>0</v>
       </c>
       <c r="AE47" t="b">
         <v>0</v>
       </c>
-      <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="b">
         <v>0</v>
       </c>
@@ -5735,10 +5734,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111901573</v>
+        <v>111901606</v>
       </c>
       <c r="B48" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5751,38 +5750,34 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>477538</v>
+        <v>477307</v>
       </c>
       <c r="R48" t="n">
-        <v>7034011</v>
+        <v>7033692</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5815,11 +5810,6 @@
       <c r="AA48" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -5846,10 +5836,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111901534</v>
+        <v>111901588</v>
       </c>
       <c r="B49" t="n">
-        <v>56430</v>
+        <v>90480</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5858,42 +5848,38 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>100109</v>
+        <v>4769</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Svavelriska</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lactarius scrobiculatus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Scop.:Fr.) Fr.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>478197</v>
+        <v>477432</v>
       </c>
       <c r="R49" t="n">
-        <v>7034428</v>
+        <v>7033674</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5926,11 +5912,6 @@
       <c r="AA49" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5957,7 +5938,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111901577</v>
+        <v>111901572</v>
       </c>
       <c r="B50" t="n">
         <v>56430</v>
@@ -6001,10 +5982,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>477611</v>
+        <v>477384</v>
       </c>
       <c r="R50" t="n">
-        <v>7034021</v>
+        <v>7033854</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -6041,7 +6022,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6068,7 +6049,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111901564</v>
+        <v>111901576</v>
       </c>
       <c r="B51" t="n">
         <v>56430</v>
@@ -6112,10 +6093,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>477365</v>
+        <v>477474</v>
       </c>
       <c r="R51" t="n">
-        <v>7033686</v>
+        <v>7034057</v>
       </c>
       <c r="S51" t="n">
         <v>10</v>
@@ -6152,7 +6133,7 @@
       </c>
       <c r="AC51" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6179,7 +6160,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111901537</v>
+        <v>111901571</v>
       </c>
       <c r="B52" t="n">
         <v>56430</v>
@@ -6223,10 +6204,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>477586</v>
+        <v>477389</v>
       </c>
       <c r="R52" t="n">
-        <v>7033835</v>
+        <v>7033793</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6290,10 +6271,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111901561</v>
+        <v>111901623</v>
       </c>
       <c r="B53" t="n">
-        <v>56430</v>
+        <v>85197</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6306,38 +6287,34 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
       <c r="P53" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>477354</v>
+        <v>478122</v>
       </c>
       <c r="R53" t="n">
-        <v>7033676</v>
+        <v>7035061</v>
       </c>
       <c r="S53" t="n">
         <v>10</v>
@@ -6370,11 +6347,6 @@
       <c r="AA53" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6401,10 +6373,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111901522</v>
+        <v>111901557</v>
       </c>
       <c r="B54" t="n">
-        <v>90221</v>
+        <v>56430</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6413,38 +6385,46 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>gammalt bo</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>477298</v>
+        <v>477302</v>
       </c>
       <c r="R54" t="n">
-        <v>7033474</v>
+        <v>7033676</v>
       </c>
       <c r="S54" t="n">
         <v>10</v>
@@ -6503,7 +6483,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111901554</v>
+        <v>111901561</v>
       </c>
       <c r="B55" t="n">
         <v>56430</v>
@@ -6547,10 +6527,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>477059</v>
+        <v>477354</v>
       </c>
       <c r="R55" t="n">
-        <v>7033542</v>
+        <v>7033676</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6587,7 +6567,7 @@
       </c>
       <c r="AC55" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6614,10 +6594,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111901569</v>
+        <v>111901593</v>
       </c>
       <c r="B56" t="n">
-        <v>56430</v>
+        <v>78713</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6630,38 +6610,34 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>477398</v>
+        <v>478139</v>
       </c>
       <c r="R56" t="n">
-        <v>7033780</v>
+        <v>7034835</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6694,11 +6670,6 @@
       <c r="AA56" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6725,7 +6696,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111901535</v>
+        <v>111901575</v>
       </c>
       <c r="B57" t="n">
         <v>56430</v>
@@ -6769,10 +6740,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>478133</v>
+        <v>477477</v>
       </c>
       <c r="R57" t="n">
-        <v>7034252</v>
+        <v>7034048</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6809,7 +6780,7 @@
       </c>
       <c r="AC57" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -6836,7 +6807,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111901556</v>
+        <v>111901574</v>
       </c>
       <c r="B58" t="n">
         <v>56430</v>
@@ -6880,10 +6851,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>477226</v>
+        <v>477521</v>
       </c>
       <c r="R58" t="n">
-        <v>7033671</v>
+        <v>7034024</v>
       </c>
       <c r="S58" t="n">
         <v>10</v>
@@ -6920,7 +6891,7 @@
       </c>
       <c r="AC58" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -6947,10 +6918,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111901599</v>
+        <v>111901563</v>
       </c>
       <c r="B59" t="n">
-        <v>89557</v>
+        <v>56430</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -6963,34 +6934,38 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
       <c r="P59" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>478181</v>
+        <v>477360</v>
       </c>
       <c r="R59" t="n">
-        <v>7034276</v>
+        <v>7033682</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -7023,6 +6998,11 @@
       <c r="AA59" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC59" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7049,10 +7029,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111901590</v>
+        <v>111901522</v>
       </c>
       <c r="B60" t="n">
-        <v>56446</v>
+        <v>90235</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7061,42 +7041,38 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100049</v>
+        <v>3298</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
       <c r="P60" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>477996</v>
+        <v>477298</v>
       </c>
       <c r="R60" t="n">
-        <v>7034178</v>
+        <v>7033474</v>
       </c>
       <c r="S60" t="n">
         <v>10</v>
@@ -7129,11 +7105,6 @@
       <c r="AA60" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>hack</t>
         </is>
       </c>
       <c r="AD60" t="b">
@@ -7160,10 +7131,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>111901620</v>
+        <v>111901524</v>
       </c>
       <c r="B61" t="n">
-        <v>85183</v>
+        <v>56430</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -7176,34 +7147,38 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>249278</v>
+        <v>100109</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
       <c r="P61" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>478429</v>
+        <v>478393</v>
       </c>
       <c r="R61" t="n">
-        <v>7034567</v>
+        <v>7034565</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7236,6 +7211,11 @@
       <c r="AA61" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC61" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD61" t="b">
@@ -7262,10 +7242,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>111901555</v>
+        <v>111901520</v>
       </c>
       <c r="B62" t="n">
-        <v>56430</v>
+        <v>89553</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7278,38 +7258,34 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
       <c r="P62" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>477075</v>
+        <v>477844</v>
       </c>
       <c r="R62" t="n">
-        <v>7033652</v>
+        <v>7034116</v>
       </c>
       <c r="S62" t="n">
         <v>10</v>
@@ -7342,11 +7318,6 @@
       <c r="AA62" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD62" t="b">
@@ -7373,10 +7344,10 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>111901574</v>
+        <v>111901594</v>
       </c>
       <c r="B63" t="n">
-        <v>56430</v>
+        <v>78713</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7389,38 +7360,34 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>100109</v>
+        <v>6458</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
       <c r="P63" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>477521</v>
+        <v>478158</v>
       </c>
       <c r="R63" t="n">
-        <v>7034024</v>
+        <v>7034882</v>
       </c>
       <c r="S63" t="n">
         <v>10</v>
@@ -7453,11 +7420,6 @@
       <c r="AA63" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD63" t="b">
@@ -7484,7 +7446,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>111901582</v>
+        <v>111901581</v>
       </c>
       <c r="B64" t="n">
         <v>56430</v>
@@ -7528,10 +7490,10 @@
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>478100</v>
+        <v>477792</v>
       </c>
       <c r="R64" t="n">
-        <v>7034964</v>
+        <v>7034363</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7595,7 +7557,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>111901524</v>
+        <v>111901527</v>
       </c>
       <c r="B65" t="n">
         <v>56430</v>
@@ -7639,10 +7601,10 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>478393</v>
+        <v>478330</v>
       </c>
       <c r="R65" t="n">
-        <v>7034565</v>
+        <v>7034528</v>
       </c>
       <c r="S65" t="n">
         <v>10</v>
@@ -7706,10 +7668,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>111901521</v>
+        <v>111901535</v>
       </c>
       <c r="B66" t="n">
-        <v>90221</v>
+        <v>56430</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7718,38 +7680,42 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>478417</v>
+        <v>478133</v>
       </c>
       <c r="R66" t="n">
-        <v>7034575</v>
+        <v>7034252</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7782,6 +7748,11 @@
       <c r="AA66" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC66" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD66" t="b">
@@ -7808,7 +7779,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>111901570</v>
+        <v>111901536</v>
       </c>
       <c r="B67" t="n">
         <v>56430</v>
@@ -7852,10 +7823,10 @@
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>477406</v>
+        <v>478002</v>
       </c>
       <c r="R67" t="n">
-        <v>7033794</v>
+        <v>7034181</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7892,7 +7863,7 @@
       </c>
       <c r="AC67" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD67" t="b">
@@ -7919,10 +7890,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>111901608</v>
+        <v>111901537</v>
       </c>
       <c r="B68" t="n">
-        <v>89557</v>
+        <v>56430</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -7935,34 +7906,38 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>478032</v>
+        <v>477586</v>
       </c>
       <c r="R68" t="n">
-        <v>7035108</v>
+        <v>7033835</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7995,6 +7970,11 @@
       <c r="AA68" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD68" t="b">
@@ -8021,10 +8001,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>111901604</v>
+        <v>111901541</v>
       </c>
       <c r="B69" t="n">
-        <v>89557</v>
+        <v>56430</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -8037,34 +8017,38 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>477226</v>
+        <v>477528</v>
       </c>
       <c r="R69" t="n">
-        <v>7033658</v>
+        <v>7033673</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8097,6 +8081,11 @@
       <c r="AA69" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC69" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8123,7 +8112,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>111901578</v>
+        <v>111901530</v>
       </c>
       <c r="B70" t="n">
         <v>56430</v>
@@ -8167,10 +8156,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>477843</v>
+        <v>478301</v>
       </c>
       <c r="R70" t="n">
-        <v>7034173</v>
+        <v>7034491</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8207,7 +8196,7 @@
       </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8234,10 +8223,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>111901532</v>
+        <v>111901521</v>
       </c>
       <c r="B71" t="n">
-        <v>56430</v>
+        <v>90235</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8246,42 +8235,38 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>478222</v>
+        <v>478417</v>
       </c>
       <c r="R71" t="n">
-        <v>7034455</v>
+        <v>7034575</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8314,11 +8299,6 @@
       <c r="AA71" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC71" t="inlineStr">
-        <is>
-          <t>ringhack</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8345,10 +8325,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>111901593</v>
+        <v>111901532</v>
       </c>
       <c r="B72" t="n">
-        <v>78699</v>
+        <v>56430</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8361,34 +8341,38 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>478139</v>
+        <v>478222</v>
       </c>
       <c r="R72" t="n">
-        <v>7034835</v>
+        <v>7034455</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8421,6 +8405,11 @@
       <c r="AA72" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC72" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -8450,7 +8439,7 @@
         <v>111901596</v>
       </c>
       <c r="B73" t="n">
-        <v>78699</v>
+        <v>78713</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -8549,10 +8538,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>111901589</v>
+        <v>111901595</v>
       </c>
       <c r="B74" t="n">
-        <v>90226</v>
+        <v>78713</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8561,25 +8550,25 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>67</v>
+        <v>6458</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Sprickporing</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Diplomitoporus crustulinus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Bres.) Domański</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
@@ -8589,10 +8578,10 @@
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>477450</v>
+        <v>478120</v>
       </c>
       <c r="R74" t="n">
-        <v>7033732</v>
+        <v>7034946</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8633,7 +8622,6 @@
       <c r="AE74" t="b">
         <v>0</v>
       </c>
-      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
       </c>
@@ -8652,10 +8640,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>111901531</v>
+        <v>111901591</v>
       </c>
       <c r="B75" t="n">
-        <v>56430</v>
+        <v>56446</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8668,16 +8656,16 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -8696,10 +8684,10 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>478266</v>
+        <v>477121</v>
       </c>
       <c r="R75" t="n">
-        <v>7034476</v>
+        <v>7033665</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8736,7 +8724,7 @@
       </c>
       <c r="AC75" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8763,7 +8751,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>111901538</v>
+        <v>111901579</v>
       </c>
       <c r="B76" t="n">
         <v>56430</v>
@@ -8807,10 +8795,10 @@
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>477551</v>
+        <v>477843</v>
       </c>
       <c r="R76" t="n">
-        <v>7033783</v>
+        <v>7034195</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8847,7 +8835,7 @@
       </c>
       <c r="AC76" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -8874,10 +8862,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>111901576</v>
+        <v>111901612</v>
       </c>
       <c r="B77" t="n">
-        <v>56430</v>
+        <v>95864</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -8886,42 +8874,38 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>100109</v>
+        <v>222741</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>477474</v>
+        <v>478174</v>
       </c>
       <c r="R77" t="n">
-        <v>7034057</v>
+        <v>7034280</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8954,11 +8938,6 @@
       <c r="AA77" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC77" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -8985,7 +8964,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>111901529</v>
+        <v>111901570</v>
       </c>
       <c r="B78" t="n">
         <v>56430</v>
@@ -9029,10 +9008,10 @@
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>478296</v>
+        <v>477406</v>
       </c>
       <c r="R78" t="n">
-        <v>7034511</v>
+        <v>7033794</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -9069,7 +9048,7 @@
       </c>
       <c r="AC78" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -9096,7 +9075,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>111901552</v>
+        <v>111901583</v>
       </c>
       <c r="B79" t="n">
         <v>56430</v>
@@ -9140,10 +9119,10 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>477256</v>
+        <v>478099</v>
       </c>
       <c r="R79" t="n">
-        <v>7033441</v>
+        <v>7034964</v>
       </c>
       <c r="S79" t="n">
         <v>10</v>
@@ -9207,7 +9186,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>111901583</v>
+        <v>111901567</v>
       </c>
       <c r="B80" t="n">
         <v>56430</v>
@@ -9240,21 +9219,37 @@
           <t>(Linnaeus, 1758)</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>hane</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P80" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>478099</v>
+        <v>477453</v>
       </c>
       <c r="R80" t="n">
-        <v>7034964</v>
+        <v>7033755</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9287,11 +9282,6 @@
       <c r="AA80" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC80" t="inlineStr">
-        <is>
-          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9318,7 +9308,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>111901536</v>
+        <v>111901556</v>
       </c>
       <c r="B81" t="n">
         <v>56430</v>
@@ -9362,10 +9352,10 @@
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>478002</v>
+        <v>477226</v>
       </c>
       <c r="R81" t="n">
-        <v>7034181</v>
+        <v>7033671</v>
       </c>
       <c r="S81" t="n">
         <v>10</v>
@@ -9402,7 +9392,7 @@
       </c>
       <c r="AC81" t="inlineStr">
         <is>
-          <t>ringhack färska</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD81" t="b">
@@ -9429,7 +9419,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>111901553</v>
+        <v>111901533</v>
       </c>
       <c r="B82" t="n">
         <v>56430</v>
@@ -9473,10 +9463,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>477099</v>
+        <v>478207</v>
       </c>
       <c r="R82" t="n">
-        <v>7033504</v>
+        <v>7034444</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9540,7 +9530,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>111901539</v>
+        <v>111901580</v>
       </c>
       <c r="B83" t="n">
         <v>56430</v>
@@ -9584,10 +9574,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>477544</v>
+        <v>477852</v>
       </c>
       <c r="R83" t="n">
-        <v>7033740</v>
+        <v>7034188</v>
       </c>
       <c r="S83" t="n">
         <v>10</v>
@@ -9651,10 +9641,10 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>111901520</v>
+        <v>111901625</v>
       </c>
       <c r="B84" t="n">
-        <v>89539</v>
+        <v>89895</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9663,25 +9653,25 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1202</v>
+        <v>2063</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Grantickeporing</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Skeletocutis chrysella</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
@@ -9691,10 +9681,10 @@
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>477844</v>
+        <v>478182</v>
       </c>
       <c r="R84" t="n">
-        <v>7034116</v>
+        <v>7034255</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9753,10 +9743,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>111901541</v>
+        <v>111901622</v>
       </c>
       <c r="B85" t="n">
-        <v>56430</v>
+        <v>85197</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -9769,38 +9759,34 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>100109</v>
+        <v>249278</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>477528</v>
+        <v>478166</v>
       </c>
       <c r="R85" t="n">
-        <v>7033673</v>
+        <v>7034284</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9833,11 +9819,6 @@
       <c r="AA85" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC85" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD85" t="b">
@@ -9864,10 +9845,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>111901625</v>
+        <v>111901620</v>
       </c>
       <c r="B86" t="n">
-        <v>89881</v>
+        <v>85197</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -9876,25 +9857,25 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>2063</v>
+        <v>249278</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Grantickeporing</t>
+          <t>Barrviolspindling</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Skeletocutis chrysella</t>
+          <t>Cortinarius harcynicus</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(Pers.) M.M.Moser</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
@@ -9904,10 +9885,10 @@
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>478182</v>
+        <v>478429</v>
       </c>
       <c r="R86" t="n">
-        <v>7034255</v>
+        <v>7034567</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9966,10 +9947,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>111901611</v>
+        <v>111901610</v>
       </c>
       <c r="B87" t="n">
-        <v>89033</v>
+        <v>77650</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -9982,21 +9963,21 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>3286</v>
+        <v>6425</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Flattoppad klubbsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Clavariadelphus truncatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Quél.) Donk</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -10006,10 +9987,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>478051</v>
+        <v>478113</v>
       </c>
       <c r="R87" t="n">
-        <v>7035159</v>
+        <v>7034953</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -10050,7 +10031,6 @@
       <c r="AE87" t="b">
         <v>0</v>
       </c>
-      <c r="AF87" t="inlineStr"/>
       <c r="AG87" t="b">
         <v>0</v>
       </c>
@@ -10069,10 +10049,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>111901527</v>
+        <v>111901602</v>
       </c>
       <c r="B88" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -10085,38 +10065,34 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>478330</v>
+        <v>477078</v>
       </c>
       <c r="R88" t="n">
-        <v>7034528</v>
+        <v>7033619</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -10149,11 +10125,6 @@
       <c r="AA88" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AC88" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD88" t="b">
@@ -10180,10 +10151,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>111901606</v>
+        <v>111901589</v>
       </c>
       <c r="B89" t="n">
-        <v>89557</v>
+        <v>90240</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -10192,25 +10163,25 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>5432</v>
+        <v>67</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Sprickporing</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Diplomitoporus crustulinus</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Bres.) Domański</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -10220,10 +10191,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>477307</v>
+        <v>477450</v>
       </c>
       <c r="R89" t="n">
-        <v>7033692</v>
+        <v>7033732</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -10264,6 +10235,7 @@
       <c r="AE89" t="b">
         <v>0</v>
       </c>
+      <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="b">
         <v>0</v>
       </c>
@@ -10282,10 +10254,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>111901607</v>
+        <v>111901523</v>
       </c>
       <c r="B90" t="n">
-        <v>89557</v>
+        <v>90235</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10294,25 +10266,25 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
@@ -10325,7 +10297,7 @@
         <v>478095</v>
       </c>
       <c r="R90" t="n">
-        <v>7035043</v>
+        <v>7035046</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -10384,10 +10356,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>111901600</v>
+        <v>111901534</v>
       </c>
       <c r="B91" t="n">
-        <v>89557</v>
+        <v>56430</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10400,34 +10372,38 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
       <c r="P91" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>478177</v>
+        <v>478197</v>
       </c>
       <c r="R91" t="n">
-        <v>7034260</v>
+        <v>7034428</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -10460,6 +10436,11 @@
       <c r="AA91" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC91" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -10486,7 +10467,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>111901565</v>
+        <v>111901569</v>
       </c>
       <c r="B92" t="n">
         <v>56430</v>
@@ -10530,10 +10511,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>477373</v>
+        <v>477398</v>
       </c>
       <c r="R92" t="n">
-        <v>7033670</v>
+        <v>7033780</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10570,7 +10551,7 @@
       </c>
       <c r="AC92" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD92" t="b">
@@ -10597,7 +10578,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>111901528</v>
+        <v>111901552</v>
       </c>
       <c r="B93" t="n">
         <v>56430</v>
@@ -10641,10 +10622,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>478334</v>
+        <v>477256</v>
       </c>
       <c r="R93" t="n">
-        <v>7034528</v>
+        <v>7033441</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10681,7 +10662,7 @@
       </c>
       <c r="AC93" t="inlineStr">
         <is>
-          <t>ringhack färska, 2 träd</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10708,10 +10689,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>111901588</v>
+        <v>111901568</v>
       </c>
       <c r="B94" t="n">
-        <v>90466</v>
+        <v>56430</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -10720,38 +10701,42 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>4769</v>
+        <v>100109</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Svavelriska</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Lactarius scrobiculatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Scop.:Fr.) Fr.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>477432</v>
+        <v>477444</v>
       </c>
       <c r="R94" t="n">
-        <v>7033674</v>
+        <v>7033760</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10784,6 +10769,11 @@
       <c r="AA94" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC94" t="inlineStr">
+        <is>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD94" t="b">
@@ -10810,10 +10800,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>111901563</v>
+        <v>111901598</v>
       </c>
       <c r="B95" t="n">
-        <v>56430</v>
+        <v>89114</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -10826,38 +10816,34 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>100109</v>
+        <v>5754</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="inlineStr"/>
       <c r="P95" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>477360</v>
+        <v>478095</v>
       </c>
       <c r="R95" t="n">
-        <v>7033682</v>
+        <v>7034233</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -10892,17 +10878,13 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="AC95" t="inlineStr">
-        <is>
-          <t>ringhack äldre</t>
-        </is>
-      </c>
       <c r="AD95" t="b">
         <v>0</v>
       </c>
       <c r="AE95" t="b">
         <v>0</v>
       </c>
+      <c r="AF95" t="inlineStr"/>
       <c r="AG95" t="b">
         <v>0</v>
       </c>
@@ -10921,7 +10903,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>111901526</v>
+        <v>111901582</v>
       </c>
       <c r="B96" t="n">
         <v>56430</v>
@@ -10965,10 +10947,10 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>478353</v>
+        <v>478100</v>
       </c>
       <c r="R96" t="n">
-        <v>7034559</v>
+        <v>7034964</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -11005,7 +10987,7 @@
       </c>
       <c r="AC96" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack äldre</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -11032,10 +11014,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>111901595</v>
+        <v>111901608</v>
       </c>
       <c r="B97" t="n">
-        <v>78699</v>
+        <v>89571</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -11048,21 +11030,21 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>6458</v>
+        <v>5432</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -11072,10 +11054,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>478120</v>
+        <v>478032</v>
       </c>
       <c r="R97" t="n">
-        <v>7034946</v>
+        <v>7035108</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -11134,10 +11116,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>111901623</v>
+        <v>111901564</v>
       </c>
       <c r="B98" t="n">
-        <v>85183</v>
+        <v>56430</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -11150,34 +11132,38 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>249278</v>
+        <v>100109</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Barrviolspindling</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Cortinarius harcynicus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Pers.) M.M.Moser</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
       <c r="P98" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>478122</v>
+        <v>477365</v>
       </c>
       <c r="R98" t="n">
-        <v>7035061</v>
+        <v>7033686</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11210,6 +11196,11 @@
       <c r="AA98" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC98" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD98" t="b">
@@ -11236,7 +11227,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>111901530</v>
+        <v>111901565</v>
       </c>
       <c r="B99" t="n">
         <v>56430</v>
@@ -11280,10 +11271,10 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>478301</v>
+        <v>477373</v>
       </c>
       <c r="R99" t="n">
-        <v>7034491</v>
+        <v>7033670</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11347,10 +11338,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>111901591</v>
+        <v>111901555</v>
       </c>
       <c r="B100" t="n">
-        <v>56446</v>
+        <v>56430</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11363,16 +11354,16 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>100049</v>
+        <v>100109</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -11391,10 +11382,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>477121</v>
+        <v>477075</v>
       </c>
       <c r="R100" t="n">
-        <v>7033665</v>
+        <v>7033652</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -11431,7 +11422,7 @@
       </c>
       <c r="AC100" t="inlineStr">
         <is>
-          <t>hack</t>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -11458,10 +11449,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>111901594</v>
+        <v>111901553</v>
       </c>
       <c r="B101" t="n">
-        <v>78699</v>
+        <v>56430</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11474,34 +11465,38 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6458</v>
+        <v>100109</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
           <t>Landvågen, Jmt</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>478158</v>
+        <v>477099</v>
       </c>
       <c r="R101" t="n">
-        <v>7034882</v>
+        <v>7033504</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -11534,6 +11529,11 @@
       <c r="AA101" t="inlineStr">
         <is>
           <t>2023-09-04</t>
+        </is>
+      </c>
+      <c r="AC101" t="inlineStr">
+        <is>
+          <t>ringhack</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -11560,10 +11560,10 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>111901568</v>
+        <v>111901590</v>
       </c>
       <c r="B102" t="n">
-        <v>56430</v>
+        <v>56446</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>100109</v>
+        <v>100049</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -11604,10 +11604,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>477444</v>
+        <v>477996</v>
       </c>
       <c r="R102" t="n">
-        <v>7033760</v>
+        <v>7034178</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -11644,7 +11644,7 @@
       </c>
       <c r="AC102" t="inlineStr">
         <is>
-          <t>ringhack äldre</t>
+          <t>hack</t>
         </is>
       </c>
       <c r="AD102" t="b">
@@ -11671,7 +11671,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>111901540</v>
+        <v>111901531</v>
       </c>
       <c r="B103" t="n">
         <v>56430</v>
@@ -11715,10 +11715,10 @@
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>477529</v>
+        <v>478266</v>
       </c>
       <c r="R103" t="n">
-        <v>7033682</v>
+        <v>7034476</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -11782,7 +11782,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>111901575</v>
+        <v>111901529</v>
       </c>
       <c r="B104" t="n">
         <v>56430</v>
@@ -11826,10 +11826,10 @@
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>477477</v>
+        <v>478296</v>
       </c>
       <c r="R104" t="n">
-        <v>7034048</v>
+        <v>7034511</v>
       </c>
       <c r="S104" t="n">
         <v>10</v>
@@ -11866,7 +11866,7 @@
       </c>
       <c r="AC104" t="inlineStr">
         <is>
-          <t>ringhack</t>
+          <t>ringhack färska</t>
         </is>
       </c>
       <c r="AD104" t="b">
@@ -11896,7 +11896,7 @@
         <v>112183906</v>
       </c>
       <c r="B105" t="n">
-        <v>97959</v>
+        <v>97978</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
